--- a/Temporadas Pendientes.xlsx
+++ b/Temporadas Pendientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\FIA Championships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225A5AF2-2F41-4837-943A-03572EF161D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFA9097-0ECC-4064-9927-B607938AB88E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="212">
   <si>
     <t>ART Grand Prix</t>
   </si>
@@ -499,13 +499,175 @@
   </si>
   <si>
     <t>Lucas Auer</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Aston Martin</t>
+  </si>
+  <si>
+    <t>Mazda</t>
+  </si>
+  <si>
+    <t>Cadillac</t>
+  </si>
+  <si>
+    <t>Mike Conway</t>
+  </si>
+  <si>
+    <t>Kazuki Nakajima</t>
+  </si>
+  <si>
+    <t>Giancarlo Fisichella</t>
+  </si>
+  <si>
+    <t>Bia Figuereido</t>
+  </si>
+  <si>
+    <t>Kamui Kobayashi</t>
+  </si>
+  <si>
+    <t>Olivier Beretta</t>
+  </si>
+  <si>
+    <t>Oliver Jarvis</t>
+  </si>
+  <si>
+    <t>Katherine Legge</t>
+  </si>
+  <si>
+    <t>Christina Nielsen</t>
+  </si>
+  <si>
+    <t>Bruno Senna</t>
+  </si>
+  <si>
+    <t>Jose María López</t>
+  </si>
+  <si>
+    <t>Nicolas Verdonck</t>
+  </si>
+  <si>
+    <t>Jon Miller</t>
+  </si>
+  <si>
+    <t>Jeroen Bleekemolen</t>
+  </si>
+  <si>
+    <t>Gabriele Piana</t>
+  </si>
+  <si>
+    <t>Richard Muscat</t>
+  </si>
+  <si>
+    <t>FÓRMULA 3 - PISTAS</t>
+  </si>
+  <si>
+    <t>Austria - Spielberg</t>
+  </si>
+  <si>
+    <t>Hungria - Mogyrod</t>
+  </si>
+  <si>
+    <t>GB - Silverstone</t>
+  </si>
+  <si>
+    <t>España - Barcelona</t>
+  </si>
+  <si>
+    <t>Bélgica - Spa</t>
+  </si>
+  <si>
+    <t>Italia - Monza</t>
+  </si>
+  <si>
+    <t>Italia - Toscana</t>
+  </si>
+  <si>
+    <t>Bahrein - Sakir</t>
+  </si>
+  <si>
+    <t>Holanda - Zandvoort</t>
+  </si>
+  <si>
+    <t>Rusia - Sochi</t>
+  </si>
+  <si>
+    <t>Francia - Le Castellet</t>
+  </si>
+  <si>
+    <t>EEUU - Texas</t>
+  </si>
+  <si>
+    <t>FÓRMULA E - PISTAS</t>
+  </si>
+  <si>
+    <t>Arabia Saudita</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Marruecos</t>
+  </si>
+  <si>
+    <t>Alemania - Berlin</t>
+  </si>
+  <si>
+    <t>Monaco - Montecarlo</t>
+  </si>
+  <si>
+    <t>GB - Londres</t>
+  </si>
+  <si>
+    <t>Francia - Paris</t>
+  </si>
+  <si>
+    <t>EEUU - Nueva York</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Italia - Roma</t>
+  </si>
+  <si>
+    <t>Muelle</t>
+  </si>
+  <si>
+    <t>GT - PISTAS</t>
+  </si>
+  <si>
+    <t>Alemania - Nurburg</t>
+  </si>
+  <si>
+    <t>EEUU - Portland</t>
+  </si>
+  <si>
+    <t>Gales - Anglesey</t>
+  </si>
+  <si>
+    <t>Gales - Oran Park</t>
+  </si>
+  <si>
+    <t>Canada - Bowmanville</t>
+  </si>
+  <si>
+    <t>Corea del Sur - Yeongam</t>
+  </si>
+  <si>
+    <t>EEUU - Indianapolis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,8 +744,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,6 +876,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -791,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -953,348 +1155,536 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1583,59 +1973,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S129"/>
+  <dimension ref="A1:X175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView tabSelected="1" topLeftCell="E132" workbookViewId="0">
+      <selection activeCell="X143" sqref="X142:X143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="258" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="F1" s="208" t="s">
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="F1" s="258" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="K1" s="208" t="s">
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="K1" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="P1" s="208" t="s">
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="258"/>
+      <c r="P1" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="208">
+      <c r="Q1" s="258"/>
+      <c r="R1" s="258"/>
+      <c r="S1" s="258"/>
+      <c r="U1" s="258" t="s">
+        <v>158</v>
+      </c>
+      <c r="V1" s="258"/>
+      <c r="W1" s="258"/>
+      <c r="X1" s="258"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="258">
         <v>2019</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="G2" s="208">
+      <c r="C2" s="258"/>
+      <c r="G2" s="258">
         <v>2019</v>
       </c>
-      <c r="H2" s="208"/>
-      <c r="L2" s="208">
+      <c r="H2" s="258"/>
+      <c r="L2" s="258">
         <v>2019</v>
       </c>
-      <c r="M2" s="208"/>
-      <c r="Q2" s="208">
+      <c r="M2" s="258"/>
+      <c r="Q2" s="258">
         <v>2019</v>
       </c>
-      <c r="R2" s="208"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R2" s="258"/>
+      <c r="V2" s="258">
+        <v>2019</v>
+      </c>
+      <c r="W2" s="258"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1650,16 +2050,20 @@
         <v>1</v>
       </c>
       <c r="N3" s="4"/>
-      <c r="P3" s="162" t="s">
+      <c r="P3" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="163"/>
+      <c r="Q3" s="202"/>
       <c r="R3" s="68" t="s">
         <v>48</v>
       </c>
       <c r="S3" s="67"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U3" s="263"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="266"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1668,22 +2072,26 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="K4" s="153" t="s">
+      <c r="K4" s="259" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="154"/>
+      <c r="L4" s="260"/>
       <c r="M4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="165"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="204"/>
       <c r="R4" s="70" t="s">
         <v>49</v>
       </c>
       <c r="S4" s="69"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U4" s="267"/>
+      <c r="V4" s="268"/>
+      <c r="W4" s="269"/>
+      <c r="X4" s="270"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1698,16 +2106,20 @@
         <v>3</v>
       </c>
       <c r="N5" s="9"/>
-      <c r="P5" s="166" t="s">
+      <c r="P5" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="167"/>
+      <c r="Q5" s="214"/>
       <c r="R5" s="71" t="s">
         <v>53</v>
       </c>
       <c r="S5" s="72"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U5" s="271"/>
+      <c r="V5" s="272"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="274"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1722,14 +2134,18 @@
         <v>6</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="169"/>
+      <c r="P6" s="215"/>
+      <c r="Q6" s="216"/>
       <c r="R6" s="73" t="s">
         <v>54</v>
       </c>
       <c r="S6" s="74"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U6" s="275"/>
+      <c r="V6" s="276"/>
+      <c r="W6" s="277"/>
+      <c r="X6" s="278"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1738,24 +2154,28 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="K7" s="155" t="s">
+      <c r="K7" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="156"/>
+      <c r="L7" s="256"/>
       <c r="M7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="N7" s="14"/>
-      <c r="P7" s="170" t="s">
+      <c r="P7" s="217" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="171"/>
+      <c r="Q7" s="218"/>
       <c r="R7" s="75" t="s">
         <v>56</v>
       </c>
       <c r="S7" s="76"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U7" s="263"/>
+      <c r="V7" s="264"/>
+      <c r="W7" s="265"/>
+      <c r="X7" s="266"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1770,14 +2190,18 @@
         <v>8</v>
       </c>
       <c r="N8" s="17"/>
-      <c r="P8" s="172"/>
-      <c r="Q8" s="173"/>
+      <c r="P8" s="219"/>
+      <c r="Q8" s="220"/>
       <c r="R8" s="77" t="s">
         <v>57</v>
       </c>
       <c r="S8" s="78"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U8" s="267"/>
+      <c r="V8" s="268"/>
+      <c r="W8" s="269"/>
+      <c r="X8" s="270"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1798,8 +2222,12 @@
         <v>59</v>
       </c>
       <c r="S9" s="20"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U9" s="279"/>
+      <c r="V9" s="266"/>
+      <c r="W9" s="265"/>
+      <c r="X9" s="266"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1808,24 +2236,28 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="149" t="s">
+      <c r="K10" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="157"/>
+      <c r="L10" s="257"/>
       <c r="M10" s="21" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="22"/>
-      <c r="P10" s="149" t="s">
+      <c r="P10" s="191" t="s">
         <v>58</v>
       </c>
-      <c r="Q10" s="157"/>
+      <c r="Q10" s="257"/>
       <c r="R10" s="21" t="s">
         <v>60</v>
       </c>
       <c r="S10" s="22"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U10" s="280"/>
+      <c r="V10" s="281"/>
+      <c r="W10" s="282"/>
+      <c r="X10" s="283"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
@@ -1848,8 +2280,12 @@
         <v>61</v>
       </c>
       <c r="S11" s="25"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U11" s="284"/>
+      <c r="V11" s="270"/>
+      <c r="W11" s="269"/>
+      <c r="X11" s="270"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1864,16 +2300,20 @@
         <v>14</v>
       </c>
       <c r="N12" s="28"/>
-      <c r="P12" s="162" t="s">
+      <c r="P12" s="201" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="163"/>
+      <c r="Q12" s="202"/>
       <c r="R12" s="68" t="s">
         <v>63</v>
       </c>
       <c r="S12" s="67"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U12" s="263"/>
+      <c r="V12" s="264"/>
+      <c r="W12" s="265"/>
+      <c r="X12" s="266"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1882,22 +2322,26 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="158" t="s">
+      <c r="K13" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="159"/>
+      <c r="L13" s="252"/>
       <c r="M13" s="29" t="s">
         <v>15</v>
       </c>
       <c r="N13" s="30"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="165"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="204"/>
       <c r="R13" s="70" t="s">
         <v>64</v>
       </c>
       <c r="S13" s="69"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U13" s="267"/>
+      <c r="V13" s="268"/>
+      <c r="W13" s="269"/>
+      <c r="X13" s="270"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1918,8 +2362,12 @@
         <v>66</v>
       </c>
       <c r="S14" s="28"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U14" s="285"/>
+      <c r="V14" s="274"/>
+      <c r="W14" s="273"/>
+      <c r="X14" s="274"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1934,16 +2382,20 @@
         <v>18</v>
       </c>
       <c r="N15" s="36"/>
-      <c r="P15" s="158" t="s">
+      <c r="P15" s="251" t="s">
         <v>65</v>
       </c>
-      <c r="Q15" s="159"/>
+      <c r="Q15" s="252"/>
       <c r="R15" s="29" t="s">
         <v>67</v>
       </c>
       <c r="S15" s="30"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U15" s="286"/>
+      <c r="V15" s="287"/>
+      <c r="W15" s="288"/>
+      <c r="X15" s="289"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1964,8 +2416,12 @@
         <v>68</v>
       </c>
       <c r="S16" s="33"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U16" s="290"/>
+      <c r="V16" s="278"/>
+      <c r="W16" s="277"/>
+      <c r="X16" s="278"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1974,24 +2430,28 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="160" t="s">
+      <c r="K17" s="261" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="161"/>
+      <c r="L17" s="262"/>
       <c r="M17" s="38" t="s">
         <v>20</v>
       </c>
       <c r="N17" s="39"/>
-      <c r="P17" s="194" t="s">
+      <c r="P17" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="195"/>
+      <c r="Q17" s="206"/>
       <c r="R17" s="79" t="s">
         <v>70</v>
       </c>
       <c r="S17" s="80"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U17" s="271"/>
+      <c r="V17" s="272"/>
+      <c r="W17" s="273"/>
+      <c r="X17" s="274"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2000,20 +2460,24 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="161"/>
+      <c r="K18" s="261"/>
+      <c r="L18" s="262"/>
       <c r="M18" s="38" t="s">
         <v>21</v>
       </c>
       <c r="N18" s="39"/>
-      <c r="P18" s="196"/>
-      <c r="Q18" s="197"/>
+      <c r="P18" s="207"/>
+      <c r="Q18" s="208"/>
       <c r="R18" s="81" t="s">
         <v>71</v>
       </c>
       <c r="S18" s="82"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U18" s="275"/>
+      <c r="V18" s="276"/>
+      <c r="W18" s="277"/>
+      <c r="X18" s="278"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2028,16 +2492,20 @@
         <v>22</v>
       </c>
       <c r="N19" s="39"/>
-      <c r="P19" s="198" t="s">
+      <c r="P19" s="209" t="s">
         <v>72</v>
       </c>
-      <c r="Q19" s="199"/>
+      <c r="Q19" s="210"/>
       <c r="R19" s="83" t="s">
         <v>73</v>
       </c>
       <c r="S19" s="84"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U19" s="271"/>
+      <c r="V19" s="272"/>
+      <c r="W19" s="273"/>
+      <c r="X19" s="274"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2052,14 +2520,18 @@
         <v>23</v>
       </c>
       <c r="N20" s="42"/>
-      <c r="P20" s="200"/>
-      <c r="Q20" s="201"/>
+      <c r="P20" s="211"/>
+      <c r="Q20" s="212"/>
       <c r="R20" s="85" t="s">
         <v>74</v>
       </c>
       <c r="S20" s="86"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U20" s="275"/>
+      <c r="V20" s="276"/>
+      <c r="W20" s="277"/>
+      <c r="X20" s="278"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2074,16 +2546,20 @@
         <v>25</v>
       </c>
       <c r="N21" s="45"/>
-      <c r="P21" s="186" t="s">
+      <c r="P21" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="Q21" s="187"/>
+      <c r="Q21" s="166"/>
       <c r="R21" s="19" t="s">
         <v>91</v>
       </c>
       <c r="S21" s="20"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U21" s="263"/>
+      <c r="V21" s="264"/>
+      <c r="W21" s="265"/>
+      <c r="X21" s="266"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2092,22 +2568,26 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="174" t="s">
+      <c r="K22" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="175"/>
+      <c r="L22" s="248"/>
       <c r="M22" s="46" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="47"/>
-      <c r="P22" s="188"/>
-      <c r="Q22" s="189"/>
+      <c r="P22" s="167"/>
+      <c r="Q22" s="168"/>
       <c r="R22" s="24" t="s">
         <v>76</v>
       </c>
       <c r="S22" s="25"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U22" s="267"/>
+      <c r="V22" s="268"/>
+      <c r="W22" s="269"/>
+      <c r="X22" s="270"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2122,16 +2602,20 @@
         <v>31</v>
       </c>
       <c r="N23" s="50"/>
-      <c r="P23" s="202" t="s">
+      <c r="P23" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="Q23" s="203"/>
+      <c r="Q23" s="194"/>
       <c r="R23" s="87" t="s">
         <v>51</v>
       </c>
       <c r="S23" s="88"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U23" s="263"/>
+      <c r="V23" s="264"/>
+      <c r="W23" s="265"/>
+      <c r="X23" s="266"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2146,14 +2630,18 @@
         <v>28</v>
       </c>
       <c r="N24" s="53"/>
-      <c r="P24" s="204"/>
-      <c r="Q24" s="205"/>
+      <c r="P24" s="195"/>
+      <c r="Q24" s="196"/>
       <c r="R24" s="89" t="s">
         <v>80</v>
       </c>
       <c r="S24" s="90"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U24" s="267"/>
+      <c r="V24" s="268"/>
+      <c r="W24" s="269"/>
+      <c r="X24" s="270"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2162,24 +2650,28 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="K25" s="206" t="s">
+      <c r="K25" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="207"/>
+      <c r="L25" s="250"/>
       <c r="M25" s="54" t="s">
         <v>29</v>
       </c>
       <c r="N25" s="55"/>
-      <c r="P25" s="198" t="s">
+      <c r="P25" s="209" t="s">
         <v>13</v>
       </c>
-      <c r="Q25" s="199"/>
+      <c r="Q25" s="210"/>
       <c r="R25" s="83" t="s">
         <v>77</v>
       </c>
       <c r="S25" s="84"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U25" s="271"/>
+      <c r="V25" s="272"/>
+      <c r="W25" s="273"/>
+      <c r="X25" s="274"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2194,14 +2686,18 @@
         <v>30</v>
       </c>
       <c r="N26" s="58"/>
-      <c r="P26" s="200"/>
-      <c r="Q26" s="201"/>
+      <c r="P26" s="211"/>
+      <c r="Q26" s="212"/>
       <c r="R26" s="85" t="s">
         <v>78</v>
       </c>
       <c r="S26" s="86"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U26" s="275"/>
+      <c r="V26" s="276"/>
+      <c r="W26" s="277"/>
+      <c r="X26" s="278"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2220,8 +2716,12 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2230,10 +2730,10 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="K28" s="180" t="s">
+      <c r="K28" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="181"/>
+      <c r="L28" s="186"/>
       <c r="M28" s="62" t="s">
         <v>34</v>
       </c>
@@ -2242,8 +2742,12 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2252,8 +2756,8 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="181"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="186"/>
       <c r="M29" s="62" t="s">
         <v>35</v>
       </c>
@@ -2262,8 +2766,12 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2282,8 +2790,12 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2302,8 +2814,12 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2312,10 +2828,10 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="K32" s="149" t="s">
+      <c r="K32" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="157"/>
+      <c r="L32" s="257"/>
       <c r="M32" s="21" t="s">
         <v>38</v>
       </c>
@@ -2324,8 +2840,12 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2347,8 +2867,12 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -2369,8 +2893,12 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2379,10 +2907,10 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="K35" s="151" t="s">
+      <c r="K35" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="152"/>
+      <c r="L35" s="222"/>
       <c r="M35" s="139" t="s">
         <v>42</v>
       </c>
@@ -2391,8 +2919,12 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2411,26 +2943,34 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="208">
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="258">
         <v>2020</v>
       </c>
-      <c r="C37" s="208"/>
-      <c r="G37" s="208">
+      <c r="C37" s="258"/>
+      <c r="G37" s="258">
         <v>2020</v>
       </c>
-      <c r="H37" s="208"/>
-      <c r="L37" s="208">
+      <c r="H37" s="258"/>
+      <c r="L37" s="258">
         <v>2020</v>
       </c>
-      <c r="M37" s="208"/>
-      <c r="Q37" s="208">
+      <c r="M37" s="258"/>
+      <c r="Q37" s="258">
         <v>2020</v>
       </c>
-      <c r="R37" s="208"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R37" s="258"/>
+      <c r="V37" s="258">
+        <v>2020</v>
+      </c>
+      <c r="W37" s="258"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2445,16 +2985,20 @@
         <v>39</v>
       </c>
       <c r="N38" s="4"/>
-      <c r="P38" s="162" t="s">
+      <c r="P38" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="163"/>
+      <c r="Q38" s="202"/>
       <c r="R38" s="68" t="s">
         <v>48</v>
       </c>
       <c r="S38" s="67"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U38" s="263"/>
+      <c r="V38" s="264"/>
+      <c r="W38" s="265"/>
+      <c r="X38" s="266"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2463,22 +3007,26 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="K39" s="153" t="s">
+      <c r="K39" s="259" t="s">
         <v>0</v>
       </c>
-      <c r="L39" s="154"/>
+      <c r="L39" s="260"/>
       <c r="M39" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N39" s="6"/>
-      <c r="P39" s="164"/>
-      <c r="Q39" s="165"/>
+      <c r="P39" s="203"/>
+      <c r="Q39" s="204"/>
       <c r="R39" s="70" t="s">
         <v>49</v>
       </c>
       <c r="S39" s="69"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U39" s="267"/>
+      <c r="V39" s="268"/>
+      <c r="W39" s="269"/>
+      <c r="X39" s="270"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2493,16 +3041,20 @@
         <v>84</v>
       </c>
       <c r="N40" s="9"/>
-      <c r="P40" s="166" t="s">
+      <c r="P40" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="Q40" s="167"/>
+      <c r="Q40" s="214"/>
       <c r="R40" s="71" t="s">
         <v>53</v>
       </c>
       <c r="S40" s="72"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U40" s="271"/>
+      <c r="V40" s="272"/>
+      <c r="W40" s="273"/>
+      <c r="X40" s="274"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2517,14 +3069,18 @@
         <v>26</v>
       </c>
       <c r="N41" s="12"/>
-      <c r="P41" s="168"/>
-      <c r="Q41" s="169"/>
+      <c r="P41" s="215"/>
+      <c r="Q41" s="216"/>
       <c r="R41" s="73" t="s">
         <v>80</v>
       </c>
       <c r="S41" s="74"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U41" s="275"/>
+      <c r="V41" s="276"/>
+      <c r="W41" s="277"/>
+      <c r="X41" s="278"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2533,24 +3089,28 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="K42" s="155" t="s">
+      <c r="K42" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="156"/>
+      <c r="L42" s="256"/>
       <c r="M42" s="13" t="s">
         <v>8</v>
       </c>
       <c r="N42" s="14"/>
-      <c r="P42" s="170" t="s">
+      <c r="P42" s="217" t="s">
         <v>55</v>
       </c>
-      <c r="Q42" s="171"/>
+      <c r="Q42" s="218"/>
       <c r="R42" s="75" t="s">
         <v>56</v>
       </c>
       <c r="S42" s="76"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U42" s="263"/>
+      <c r="V42" s="264"/>
+      <c r="W42" s="265"/>
+      <c r="X42" s="266"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2565,14 +3125,18 @@
         <v>87</v>
       </c>
       <c r="N43" s="17"/>
-      <c r="P43" s="172"/>
-      <c r="Q43" s="173"/>
+      <c r="P43" s="219"/>
+      <c r="Q43" s="220"/>
       <c r="R43" s="77" t="s">
         <v>57</v>
       </c>
       <c r="S43" s="78"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U43" s="267"/>
+      <c r="V43" s="268"/>
+      <c r="W43" s="269"/>
+      <c r="X43" s="270"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2587,16 +3151,20 @@
         <v>37</v>
       </c>
       <c r="N44" s="20"/>
-      <c r="P44" s="186" t="s">
+      <c r="P44" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="Q44" s="187"/>
+      <c r="Q44" s="166"/>
       <c r="R44" s="18" t="s">
         <v>61</v>
       </c>
       <c r="S44" s="20"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U44" s="263"/>
+      <c r="V44" s="264"/>
+      <c r="W44" s="279"/>
+      <c r="X44" s="266"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2605,22 +3173,26 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="K45" s="149" t="s">
+      <c r="K45" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="L45" s="157"/>
+      <c r="L45" s="257"/>
       <c r="M45" s="21" t="s">
         <v>11</v>
       </c>
       <c r="N45" s="22"/>
-      <c r="P45" s="188"/>
-      <c r="Q45" s="189"/>
+      <c r="P45" s="167"/>
+      <c r="Q45" s="168"/>
       <c r="R45" s="23" t="s">
         <v>59</v>
       </c>
       <c r="S45" s="25"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U45" s="267"/>
+      <c r="V45" s="268"/>
+      <c r="W45" s="284"/>
+      <c r="X45" s="270"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2635,16 +3207,20 @@
         <v>15</v>
       </c>
       <c r="N46" s="25"/>
-      <c r="P46" s="162" t="s">
+      <c r="P46" s="201" t="s">
         <v>62</v>
       </c>
-      <c r="Q46" s="163"/>
+      <c r="Q46" s="202"/>
       <c r="R46" s="68" t="s">
         <v>63</v>
       </c>
       <c r="S46" s="67"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U46" s="263"/>
+      <c r="V46" s="264"/>
+      <c r="W46" s="265"/>
+      <c r="X46" s="266"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2659,14 +3235,18 @@
         <v>14</v>
       </c>
       <c r="N47" s="28"/>
-      <c r="P47" s="164"/>
-      <c r="Q47" s="165"/>
+      <c r="P47" s="203"/>
+      <c r="Q47" s="204"/>
       <c r="R47" s="70" t="s">
         <v>64</v>
       </c>
       <c r="S47" s="69"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U47" s="267"/>
+      <c r="V47" s="268"/>
+      <c r="W47" s="269"/>
+      <c r="X47" s="270"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2675,24 +3255,28 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="K48" s="158" t="s">
+      <c r="K48" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="L48" s="159"/>
+      <c r="L48" s="252"/>
       <c r="M48" s="29" t="s">
         <v>22</v>
       </c>
       <c r="N48" s="30"/>
-      <c r="P48" s="182" t="s">
+      <c r="P48" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="Q48" s="183"/>
+      <c r="Q48" s="178"/>
       <c r="R48" s="27" t="s">
         <v>68</v>
       </c>
       <c r="S48" s="28"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U48" s="271"/>
+      <c r="V48" s="272"/>
+      <c r="W48" s="273"/>
+      <c r="X48" s="274"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2707,14 +3291,18 @@
         <v>35</v>
       </c>
       <c r="N49" s="33"/>
-      <c r="P49" s="184"/>
-      <c r="Q49" s="185"/>
+      <c r="P49" s="179"/>
+      <c r="Q49" s="180"/>
       <c r="R49" s="32" t="s">
         <v>92</v>
       </c>
       <c r="S49" s="33"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U49" s="275"/>
+      <c r="V49" s="276"/>
+      <c r="W49" s="277"/>
+      <c r="X49" s="278"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2729,16 +3317,20 @@
         <v>18</v>
       </c>
       <c r="N50" s="36"/>
-      <c r="P50" s="194" t="s">
+      <c r="P50" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="Q50" s="195"/>
+      <c r="Q50" s="206"/>
       <c r="R50" s="79" t="s">
         <v>70</v>
       </c>
       <c r="S50" s="80"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U50" s="271"/>
+      <c r="V50" s="272"/>
+      <c r="W50" s="273"/>
+      <c r="X50" s="274"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2747,22 +3339,26 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="160" t="s">
+      <c r="K51" s="261" t="s">
         <v>17</v>
       </c>
-      <c r="L51" s="161"/>
+      <c r="L51" s="262"/>
       <c r="M51" s="38" t="s">
         <v>81</v>
       </c>
       <c r="N51" s="39"/>
-      <c r="P51" s="196"/>
-      <c r="Q51" s="197"/>
+      <c r="P51" s="207"/>
+      <c r="Q51" s="208"/>
       <c r="R51" s="81" t="s">
         <v>71</v>
       </c>
       <c r="S51" s="82"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U51" s="275"/>
+      <c r="V51" s="276"/>
+      <c r="W51" s="277"/>
+      <c r="X51" s="278"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2777,16 +3373,20 @@
         <v>23</v>
       </c>
       <c r="N52" s="42"/>
-      <c r="P52" s="198" t="s">
+      <c r="P52" s="209" t="s">
         <v>72</v>
       </c>
-      <c r="Q52" s="199"/>
+      <c r="Q52" s="210"/>
       <c r="R52" s="83" t="s">
         <v>93</v>
       </c>
       <c r="S52" s="84"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U52" s="271"/>
+      <c r="V52" s="272"/>
+      <c r="W52" s="273"/>
+      <c r="X52" s="274"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2801,14 +3401,18 @@
         <v>6</v>
       </c>
       <c r="N53" s="45"/>
-      <c r="P53" s="200"/>
-      <c r="Q53" s="201"/>
+      <c r="P53" s="211"/>
+      <c r="Q53" s="212"/>
       <c r="R53" s="85" t="s">
         <v>74</v>
       </c>
       <c r="S53" s="86"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U53" s="275"/>
+      <c r="V53" s="276"/>
+      <c r="W53" s="277"/>
+      <c r="X53" s="278"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2817,24 +3421,28 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="174" t="s">
+      <c r="K54" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="L54" s="175"/>
+      <c r="L54" s="248"/>
       <c r="M54" s="46" t="s">
         <v>2</v>
       </c>
       <c r="N54" s="47"/>
-      <c r="P54" s="186" t="s">
+      <c r="P54" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="Q54" s="187"/>
+      <c r="Q54" s="166"/>
       <c r="R54" s="19" t="s">
         <v>89</v>
       </c>
       <c r="S54" s="20"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U54" s="263"/>
+      <c r="V54" s="264"/>
+      <c r="W54" s="265"/>
+      <c r="X54" s="266"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2849,14 +3457,18 @@
         <v>142</v>
       </c>
       <c r="N55" s="50"/>
-      <c r="P55" s="188"/>
-      <c r="Q55" s="189"/>
+      <c r="P55" s="167"/>
+      <c r="Q55" s="168"/>
       <c r="R55" s="24" t="s">
         <v>90</v>
       </c>
       <c r="S55" s="25"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U55" s="267"/>
+      <c r="V55" s="268"/>
+      <c r="W55" s="269"/>
+      <c r="X55" s="270"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2871,16 +3483,20 @@
         <v>28</v>
       </c>
       <c r="N56" s="53"/>
-      <c r="P56" s="202" t="s">
+      <c r="P56" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="Q56" s="203"/>
+      <c r="Q56" s="194"/>
       <c r="R56" s="87" t="s">
         <v>51</v>
       </c>
       <c r="S56" s="88"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U56" s="263"/>
+      <c r="V56" s="264"/>
+      <c r="W56" s="265"/>
+      <c r="X56" s="266"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2889,22 +3505,26 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="K57" s="206" t="s">
+      <c r="K57" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="L57" s="207"/>
+      <c r="L57" s="250"/>
       <c r="M57" s="54" t="s">
         <v>19</v>
       </c>
       <c r="N57" s="55"/>
-      <c r="P57" s="204"/>
-      <c r="Q57" s="205"/>
+      <c r="P57" s="195"/>
+      <c r="Q57" s="196"/>
       <c r="R57" s="89" t="s">
         <v>88</v>
       </c>
       <c r="S57" s="90"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U57" s="267"/>
+      <c r="V57" s="268"/>
+      <c r="W57" s="269"/>
+      <c r="X57" s="270"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2919,16 +3539,20 @@
         <v>1</v>
       </c>
       <c r="N58" s="58"/>
-      <c r="P58" s="176" t="s">
+      <c r="P58" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="Q58" s="177"/>
+      <c r="Q58" s="198"/>
       <c r="R58" s="96" t="s">
         <v>78</v>
       </c>
       <c r="S58" s="97"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U58" s="291"/>
+      <c r="V58" s="292"/>
+      <c r="W58" s="293"/>
+      <c r="X58" s="294"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2943,14 +3567,18 @@
         <v>33</v>
       </c>
       <c r="N59" s="61"/>
-      <c r="P59" s="178"/>
-      <c r="Q59" s="179"/>
+      <c r="P59" s="199"/>
+      <c r="Q59" s="200"/>
       <c r="R59" s="98" t="s">
         <v>66</v>
       </c>
       <c r="S59" s="99"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U59" s="295"/>
+      <c r="V59" s="296"/>
+      <c r="W59" s="297"/>
+      <c r="X59" s="298"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2959,24 +3587,28 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="K60" s="180" t="s">
+      <c r="K60" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="L60" s="181"/>
+      <c r="L60" s="186"/>
       <c r="M60" s="62" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="63"/>
-      <c r="P60" s="190" t="s">
+      <c r="P60" s="187" t="s">
         <v>95</v>
       </c>
-      <c r="Q60" s="191"/>
+      <c r="Q60" s="188"/>
       <c r="R60" s="100" t="s">
         <v>96</v>
       </c>
       <c r="S60" s="101"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U60" s="263"/>
+      <c r="V60" s="264"/>
+      <c r="W60" s="265"/>
+      <c r="X60" s="266"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2991,14 +3623,18 @@
         <v>85</v>
       </c>
       <c r="N61" s="66"/>
-      <c r="P61" s="192"/>
-      <c r="Q61" s="193"/>
+      <c r="P61" s="189"/>
+      <c r="Q61" s="190"/>
       <c r="R61" s="102" t="s">
         <v>54</v>
       </c>
       <c r="S61" s="103"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U61" s="267"/>
+      <c r="V61" s="268"/>
+      <c r="W61" s="269"/>
+      <c r="X61" s="270"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3017,8 +3653,12 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3027,10 +3667,10 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="K63" s="149" t="s">
+      <c r="K63" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="L63" s="150"/>
+      <c r="L63" s="192"/>
       <c r="M63" s="93" t="s">
         <v>43</v>
       </c>
@@ -3039,8 +3679,12 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3059,8 +3703,12 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3079,8 +3727,12 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3089,10 +3741,10 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="K66" s="151" t="s">
+      <c r="K66" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="L66" s="152"/>
+      <c r="L66" s="222"/>
       <c r="M66" s="139" t="s">
         <v>42</v>
       </c>
@@ -3101,8 +3753,12 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3121,26 +3777,34 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
-    </row>
-    <row r="68" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="208">
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+    </row>
+    <row r="68" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="258">
         <v>2021</v>
       </c>
-      <c r="C68" s="208"/>
-      <c r="G68" s="208">
+      <c r="C68" s="258"/>
+      <c r="G68" s="258">
         <v>2021</v>
       </c>
-      <c r="H68" s="208"/>
-      <c r="L68" s="208">
+      <c r="H68" s="258"/>
+      <c r="L68" s="258">
         <v>2021</v>
       </c>
-      <c r="M68" s="208"/>
-      <c r="Q68" s="208">
+      <c r="M68" s="258"/>
+      <c r="Q68" s="258">
         <v>2021</v>
       </c>
-      <c r="R68" s="208"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R68" s="258"/>
+      <c r="V68" s="258">
+        <v>2021</v>
+      </c>
+      <c r="W68" s="258"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3155,16 +3819,20 @@
         <v>104</v>
       </c>
       <c r="N69" s="4"/>
-      <c r="P69" s="162" t="s">
+      <c r="P69" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="Q69" s="163"/>
+      <c r="Q69" s="202"/>
       <c r="R69" s="68" t="s">
         <v>48</v>
       </c>
       <c r="S69" s="67"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U69" s="263"/>
+      <c r="V69" s="264"/>
+      <c r="W69" s="265"/>
+      <c r="X69" s="266"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3173,22 +3841,26 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="K70" s="153" t="s">
+      <c r="K70" s="259" t="s">
         <v>0</v>
       </c>
-      <c r="L70" s="154"/>
+      <c r="L70" s="260"/>
       <c r="M70" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N70" s="6"/>
-      <c r="P70" s="164"/>
-      <c r="Q70" s="165"/>
+      <c r="P70" s="203"/>
+      <c r="Q70" s="204"/>
       <c r="R70" s="70" t="s">
         <v>103</v>
       </c>
       <c r="S70" s="69"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U70" s="267"/>
+      <c r="V70" s="268"/>
+      <c r="W70" s="269"/>
+      <c r="X70" s="270"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3203,16 +3875,20 @@
         <v>84</v>
       </c>
       <c r="N71" s="9"/>
-      <c r="P71" s="166" t="s">
+      <c r="P71" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="Q71" s="167"/>
+      <c r="Q71" s="214"/>
       <c r="R71" s="71" t="s">
         <v>53</v>
       </c>
       <c r="S71" s="72"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U71" s="271"/>
+      <c r="V71" s="272"/>
+      <c r="W71" s="273"/>
+      <c r="X71" s="274"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3227,14 +3903,18 @@
         <v>6</v>
       </c>
       <c r="N72" s="12"/>
-      <c r="P72" s="168"/>
-      <c r="Q72" s="169"/>
+      <c r="P72" s="215"/>
+      <c r="Q72" s="216"/>
       <c r="R72" s="73" t="s">
         <v>80</v>
       </c>
       <c r="S72" s="74"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U72" s="275"/>
+      <c r="V72" s="276"/>
+      <c r="W72" s="277"/>
+      <c r="X72" s="278"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3243,24 +3923,28 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="K73" s="155" t="s">
+      <c r="K73" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="L73" s="156"/>
+      <c r="L73" s="256"/>
       <c r="M73" s="13" t="s">
         <v>8</v>
       </c>
       <c r="N73" s="14"/>
-      <c r="P73" s="170" t="s">
+      <c r="P73" s="217" t="s">
         <v>55</v>
       </c>
-      <c r="Q73" s="171"/>
+      <c r="Q73" s="218"/>
       <c r="R73" s="75" t="s">
         <v>56</v>
       </c>
       <c r="S73" s="76"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U73" s="263"/>
+      <c r="V73" s="264"/>
+      <c r="W73" s="265"/>
+      <c r="X73" s="266"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3275,14 +3959,18 @@
         <v>12</v>
       </c>
       <c r="N74" s="17"/>
-      <c r="P74" s="172"/>
-      <c r="Q74" s="173"/>
+      <c r="P74" s="219"/>
+      <c r="Q74" s="220"/>
       <c r="R74" s="77" t="s">
         <v>49</v>
       </c>
       <c r="S74" s="78"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U74" s="267"/>
+      <c r="V74" s="268"/>
+      <c r="W74" s="269"/>
+      <c r="X74" s="270"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3297,16 +3985,20 @@
         <v>37</v>
       </c>
       <c r="N75" s="20"/>
-      <c r="P75" s="186" t="s">
+      <c r="P75" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="Q75" s="187"/>
+      <c r="Q75" s="166"/>
       <c r="R75" s="18" t="s">
         <v>61</v>
       </c>
       <c r="S75" s="20"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U75" s="263"/>
+      <c r="V75" s="264"/>
+      <c r="W75" s="279"/>
+      <c r="X75" s="266"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3315,22 +4007,26 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="K76" s="149" t="s">
+      <c r="K76" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="L76" s="157"/>
+      <c r="L76" s="257"/>
       <c r="M76" s="21" t="s">
         <v>11</v>
       </c>
       <c r="N76" s="22"/>
-      <c r="P76" s="188"/>
-      <c r="Q76" s="189"/>
+      <c r="P76" s="167"/>
+      <c r="Q76" s="168"/>
       <c r="R76" s="23" t="s">
         <v>59</v>
       </c>
       <c r="S76" s="25"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U76" s="267"/>
+      <c r="V76" s="268"/>
+      <c r="W76" s="284"/>
+      <c r="X76" s="270"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3345,16 +4041,20 @@
         <v>15</v>
       </c>
       <c r="N77" s="25"/>
-      <c r="P77" s="162" t="s">
+      <c r="P77" s="201" t="s">
         <v>62</v>
       </c>
-      <c r="Q77" s="163"/>
+      <c r="Q77" s="202"/>
       <c r="R77" s="68" t="s">
         <v>63</v>
       </c>
       <c r="S77" s="67"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U77" s="263"/>
+      <c r="V77" s="264"/>
+      <c r="W77" s="265"/>
+      <c r="X77" s="266"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3369,14 +4069,18 @@
         <v>14</v>
       </c>
       <c r="N78" s="28"/>
-      <c r="P78" s="164"/>
-      <c r="Q78" s="165"/>
+      <c r="P78" s="203"/>
+      <c r="Q78" s="204"/>
       <c r="R78" s="70" t="s">
         <v>64</v>
       </c>
       <c r="S78" s="69"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U78" s="267"/>
+      <c r="V78" s="268"/>
+      <c r="W78" s="269"/>
+      <c r="X78" s="270"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3385,24 +4089,28 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="K79" s="158" t="s">
+      <c r="K79" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="L79" s="159"/>
+      <c r="L79" s="252"/>
       <c r="M79" s="29" t="s">
         <v>22</v>
       </c>
       <c r="N79" s="30"/>
-      <c r="P79" s="182" t="s">
+      <c r="P79" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="Q79" s="183"/>
+      <c r="Q79" s="178"/>
       <c r="R79" s="27" t="s">
         <v>68</v>
       </c>
       <c r="S79" s="28"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U79" s="271"/>
+      <c r="V79" s="272"/>
+      <c r="W79" s="273"/>
+      <c r="X79" s="274"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3417,14 +4125,18 @@
         <v>35</v>
       </c>
       <c r="N80" s="33"/>
-      <c r="P80" s="184"/>
-      <c r="Q80" s="185"/>
+      <c r="P80" s="179"/>
+      <c r="Q80" s="180"/>
       <c r="R80" s="32" t="s">
         <v>92</v>
       </c>
       <c r="S80" s="33"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U80" s="275"/>
+      <c r="V80" s="276"/>
+      <c r="W80" s="277"/>
+      <c r="X80" s="278"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3439,16 +4151,20 @@
         <v>100</v>
       </c>
       <c r="N81" s="36"/>
-      <c r="P81" s="194" t="s">
+      <c r="P81" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="Q81" s="195"/>
+      <c r="Q81" s="206"/>
       <c r="R81" s="79" t="s">
         <v>70</v>
       </c>
       <c r="S81" s="80"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U81" s="271"/>
+      <c r="V81" s="272"/>
+      <c r="W81" s="273"/>
+      <c r="X81" s="274"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3457,22 +4173,26 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="K82" s="160" t="s">
+      <c r="K82" s="261" t="s">
         <v>17</v>
       </c>
-      <c r="L82" s="161"/>
+      <c r="L82" s="262"/>
       <c r="M82" s="38" t="s">
         <v>81</v>
       </c>
       <c r="N82" s="39"/>
-      <c r="P82" s="196"/>
-      <c r="Q82" s="197"/>
+      <c r="P82" s="207"/>
+      <c r="Q82" s="208"/>
       <c r="R82" s="81" t="s">
         <v>71</v>
       </c>
       <c r="S82" s="82"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U82" s="275"/>
+      <c r="V82" s="276"/>
+      <c r="W82" s="277"/>
+      <c r="X82" s="278"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3487,16 +4207,20 @@
         <v>23</v>
       </c>
       <c r="N83" s="42"/>
-      <c r="P83" s="198" t="s">
+      <c r="P83" s="209" t="s">
         <v>72</v>
       </c>
-      <c r="Q83" s="199"/>
+      <c r="Q83" s="210"/>
       <c r="R83" s="83" t="s">
         <v>39</v>
       </c>
       <c r="S83" s="84"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U83" s="271"/>
+      <c r="V83" s="272"/>
+      <c r="W83" s="273"/>
+      <c r="X83" s="274"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3511,14 +4235,18 @@
         <v>26</v>
       </c>
       <c r="N84" s="45"/>
-      <c r="P84" s="200"/>
-      <c r="Q84" s="201"/>
+      <c r="P84" s="211"/>
+      <c r="Q84" s="212"/>
       <c r="R84" s="85" t="s">
         <v>74</v>
       </c>
       <c r="S84" s="86"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U84" s="275"/>
+      <c r="V84" s="276"/>
+      <c r="W84" s="277"/>
+      <c r="X84" s="278"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3527,24 +4255,28 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="K85" s="174" t="s">
+      <c r="K85" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="L85" s="175"/>
+      <c r="L85" s="248"/>
       <c r="M85" s="46" t="s">
         <v>2</v>
       </c>
       <c r="N85" s="47"/>
-      <c r="P85" s="186" t="s">
+      <c r="P85" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="Q85" s="187"/>
+      <c r="Q85" s="166"/>
       <c r="R85" s="19" t="s">
         <v>89</v>
       </c>
       <c r="S85" s="20"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U85" s="263"/>
+      <c r="V85" s="264"/>
+      <c r="W85" s="265"/>
+      <c r="X85" s="266"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3559,14 +4291,18 @@
         <v>101</v>
       </c>
       <c r="N86" s="50"/>
-      <c r="P86" s="188"/>
-      <c r="Q86" s="189"/>
+      <c r="P86" s="167"/>
+      <c r="Q86" s="168"/>
       <c r="R86" s="24" t="s">
         <v>90</v>
       </c>
       <c r="S86" s="25"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U86" s="267"/>
+      <c r="V86" s="268"/>
+      <c r="W86" s="269"/>
+      <c r="X86" s="270"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3581,16 +4317,20 @@
         <v>28</v>
       </c>
       <c r="N87" s="53"/>
-      <c r="P87" s="202" t="s">
+      <c r="P87" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="Q87" s="203"/>
+      <c r="Q87" s="194"/>
       <c r="R87" s="87" t="s">
         <v>51</v>
       </c>
       <c r="S87" s="88"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U87" s="263"/>
+      <c r="V87" s="264"/>
+      <c r="W87" s="265"/>
+      <c r="X87" s="266"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3599,22 +4339,26 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="K88" s="206" t="s">
+      <c r="K88" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="L88" s="207"/>
+      <c r="L88" s="250"/>
       <c r="M88" s="54" t="s">
         <v>19</v>
       </c>
       <c r="N88" s="55"/>
-      <c r="P88" s="204"/>
-      <c r="Q88" s="205"/>
+      <c r="P88" s="195"/>
+      <c r="Q88" s="196"/>
       <c r="R88" s="89" t="s">
         <v>88</v>
       </c>
       <c r="S88" s="90"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U88" s="267"/>
+      <c r="V88" s="268"/>
+      <c r="W88" s="269"/>
+      <c r="X88" s="270"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3629,16 +4373,20 @@
         <v>1</v>
       </c>
       <c r="N89" s="58"/>
-      <c r="P89" s="176" t="s">
+      <c r="P89" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="Q89" s="177"/>
+      <c r="Q89" s="198"/>
       <c r="R89" s="96" t="s">
         <v>102</v>
       </c>
       <c r="S89" s="97"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U89" s="291"/>
+      <c r="V89" s="292"/>
+      <c r="W89" s="293"/>
+      <c r="X89" s="294"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3653,14 +4401,18 @@
         <v>33</v>
       </c>
       <c r="N90" s="61"/>
-      <c r="P90" s="178"/>
-      <c r="Q90" s="179"/>
+      <c r="P90" s="199"/>
+      <c r="Q90" s="200"/>
       <c r="R90" s="98" t="s">
         <v>66</v>
       </c>
       <c r="S90" s="99"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U90" s="295"/>
+      <c r="V90" s="296"/>
+      <c r="W90" s="297"/>
+      <c r="X90" s="298"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3669,24 +4421,28 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="K91" s="180" t="s">
+      <c r="K91" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="L91" s="181"/>
+      <c r="L91" s="186"/>
       <c r="M91" s="62" t="s">
         <v>34</v>
       </c>
       <c r="N91" s="63"/>
-      <c r="P91" s="190" t="s">
+      <c r="P91" s="187" t="s">
         <v>95</v>
       </c>
-      <c r="Q91" s="191"/>
+      <c r="Q91" s="188"/>
       <c r="R91" s="100" t="s">
         <v>78</v>
       </c>
       <c r="S91" s="101"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U91" s="263"/>
+      <c r="V91" s="264"/>
+      <c r="W91" s="265"/>
+      <c r="X91" s="266"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3701,14 +4457,18 @@
         <v>25</v>
       </c>
       <c r="N92" s="66"/>
-      <c r="P92" s="192"/>
-      <c r="Q92" s="193"/>
+      <c r="P92" s="189"/>
+      <c r="Q92" s="190"/>
       <c r="R92" s="102" t="s">
         <v>54</v>
       </c>
       <c r="S92" s="103"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U92" s="267"/>
+      <c r="V92" s="268"/>
+      <c r="W92" s="269"/>
+      <c r="X92" s="270"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3727,8 +4487,12 @@
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3737,10 +4501,10 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="K94" s="149" t="s">
+      <c r="K94" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="L94" s="150"/>
+      <c r="L94" s="192"/>
       <c r="M94" s="93" t="s">
         <v>43</v>
       </c>
@@ -3749,8 +4513,12 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3769,8 +4537,12 @@
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3789,8 +4561,12 @@
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3799,10 +4575,10 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="K97" s="151" t="s">
+      <c r="K97" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="L97" s="152"/>
+      <c r="L97" s="222"/>
       <c r="M97" s="139" t="s">
         <v>42</v>
       </c>
@@ -3811,8 +4587,12 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3831,38 +4611,46 @@
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
-    </row>
-    <row r="99" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="208">
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+    </row>
+    <row r="99" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B99" s="258">
         <v>2022</v>
       </c>
-      <c r="C99" s="208"/>
-      <c r="G99" s="208">
+      <c r="C99" s="258"/>
+      <c r="G99" s="258">
         <v>2022</v>
       </c>
-      <c r="H99" s="208"/>
-      <c r="L99" s="208">
+      <c r="H99" s="258"/>
+      <c r="L99" s="258">
         <v>2022</v>
       </c>
-      <c r="M99" s="208"/>
-      <c r="Q99" s="208">
+      <c r="M99" s="258"/>
+      <c r="Q99" s="258">
         <v>2022</v>
       </c>
-      <c r="R99" s="208"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="209" t="s">
+      <c r="R99" s="258"/>
+      <c r="V99" s="258">
+        <v>2022</v>
+      </c>
+      <c r="W99" s="258"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A100" s="223" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="210"/>
+      <c r="B100" s="224"/>
       <c r="C100" s="104" t="s">
         <v>106</v>
       </c>
       <c r="D100" s="105"/>
-      <c r="F100" s="241" t="s">
+      <c r="F100" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="G100" s="242"/>
+      <c r="G100" s="244"/>
       <c r="H100" s="144" t="s">
         <v>130</v>
       </c>
@@ -3873,56 +4661,70 @@
         <v>104</v>
       </c>
       <c r="N100" s="4"/>
-      <c r="P100" s="162" t="s">
+      <c r="P100" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="Q100" s="163"/>
+      <c r="Q100" s="202"/>
       <c r="R100" s="68" t="s">
         <v>103</v>
       </c>
       <c r="S100" s="67"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="211"/>
-      <c r="B101" s="212"/>
+      <c r="U100" s="299" t="s">
+        <v>47</v>
+      </c>
+      <c r="V100" s="300"/>
+      <c r="W100" s="303" t="s">
+        <v>168</v>
+      </c>
+      <c r="X100" s="304"/>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A101" s="225"/>
+      <c r="B101" s="226"/>
       <c r="C101" s="106" t="s">
         <v>107</v>
       </c>
       <c r="D101" s="107"/>
-      <c r="F101" s="243"/>
-      <c r="G101" s="244"/>
+      <c r="F101" s="245"/>
+      <c r="G101" s="246"/>
       <c r="H101" s="143" t="s">
         <v>131</v>
       </c>
       <c r="I101" s="142"/>
-      <c r="K101" s="153" t="s">
+      <c r="K101" s="259" t="s">
         <v>0</v>
       </c>
-      <c r="L101" s="154"/>
+      <c r="L101" s="260"/>
       <c r="M101" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N101" s="6"/>
-      <c r="P101" s="164"/>
-      <c r="Q101" s="165"/>
+      <c r="P101" s="203"/>
+      <c r="Q101" s="204"/>
       <c r="R101" s="70" t="s">
         <v>66</v>
       </c>
       <c r="S101" s="69"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="213" t="s">
+      <c r="U101" s="301"/>
+      <c r="V101" s="302"/>
+      <c r="W101" s="305" t="s">
+        <v>165</v>
+      </c>
+      <c r="X101" s="306"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A102" s="227" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="214"/>
+      <c r="B102" s="228"/>
       <c r="C102" s="111" t="s">
         <v>109</v>
       </c>
       <c r="D102" s="109"/>
-      <c r="F102" s="259" t="s">
+      <c r="F102" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="G102" s="260"/>
+      <c r="G102" s="174"/>
       <c r="H102" s="3" t="s">
         <v>26</v>
       </c>
@@ -3933,24 +4735,32 @@
         <v>6</v>
       </c>
       <c r="N102" s="9"/>
-      <c r="P102" s="166" t="s">
+      <c r="P102" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="Q102" s="167"/>
+      <c r="Q102" s="214"/>
       <c r="R102" s="71" t="s">
         <v>53</v>
       </c>
       <c r="S102" s="72"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="215"/>
-      <c r="B103" s="216"/>
+      <c r="U102" s="223" t="s">
+        <v>105</v>
+      </c>
+      <c r="V102" s="224"/>
+      <c r="W102" s="104" t="s">
+        <v>176</v>
+      </c>
+      <c r="X102" s="105"/>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A103" s="229"/>
+      <c r="B103" s="230"/>
       <c r="C103" s="112" t="s">
         <v>110</v>
       </c>
       <c r="D103" s="110"/>
-      <c r="F103" s="261"/>
-      <c r="G103" s="262"/>
+      <c r="F103" s="175"/>
+      <c r="G103" s="176"/>
       <c r="H103" s="8" t="s">
         <v>28</v>
       </c>
@@ -3961,56 +4771,70 @@
         <v>8</v>
       </c>
       <c r="N103" s="12"/>
-      <c r="P103" s="168"/>
-      <c r="Q103" s="169"/>
+      <c r="P103" s="215"/>
+      <c r="Q103" s="216"/>
       <c r="R103" s="73" t="s">
         <v>80</v>
       </c>
       <c r="S103" s="74"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="176" t="s">
+      <c r="U103" s="225"/>
+      <c r="V103" s="226"/>
+      <c r="W103" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="X103" s="107"/>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A104" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="177"/>
+      <c r="B104" s="198"/>
       <c r="C104" s="96" t="s">
         <v>111</v>
       </c>
       <c r="D104" s="97"/>
-      <c r="F104" s="182" t="s">
+      <c r="F104" s="177" t="s">
         <v>132</v>
       </c>
-      <c r="G104" s="183"/>
+      <c r="G104" s="178"/>
       <c r="H104" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I104" s="28"/>
-      <c r="K104" s="155" t="s">
+      <c r="K104" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="L104" s="156"/>
+      <c r="L104" s="256"/>
       <c r="M104" s="13" t="s">
         <v>12</v>
       </c>
       <c r="N104" s="14"/>
-      <c r="P104" s="170" t="s">
+      <c r="P104" s="217" t="s">
         <v>55</v>
       </c>
-      <c r="Q104" s="171"/>
+      <c r="Q104" s="218"/>
       <c r="R104" s="75" t="s">
         <v>56</v>
       </c>
       <c r="S104" s="76"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="178"/>
-      <c r="B105" s="179"/>
+      <c r="U104" s="149" t="s">
+        <v>120</v>
+      </c>
+      <c r="V104" s="150"/>
+      <c r="W104" s="125" t="s">
+        <v>172</v>
+      </c>
+      <c r="X104" s="126"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A105" s="199"/>
+      <c r="B105" s="200"/>
       <c r="C105" s="98" t="s">
         <v>112</v>
       </c>
       <c r="D105" s="99"/>
-      <c r="F105" s="184"/>
-      <c r="G105" s="185"/>
+      <c r="F105" s="179"/>
+      <c r="G105" s="180"/>
       <c r="H105" s="32" t="s">
         <v>81</v>
       </c>
@@ -4021,26 +4845,32 @@
         <v>3</v>
       </c>
       <c r="N105" s="17"/>
-      <c r="P105" s="172"/>
-      <c r="Q105" s="173"/>
+      <c r="P105" s="219"/>
+      <c r="Q105" s="220"/>
       <c r="R105" s="77" t="s">
         <v>49</v>
       </c>
       <c r="S105" s="78"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="217" t="s">
+      <c r="U105" s="151"/>
+      <c r="V105" s="152"/>
+      <c r="W105" s="127" t="s">
+        <v>169</v>
+      </c>
+      <c r="X105" s="128"/>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A106" s="231" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="218"/>
+      <c r="B106" s="232"/>
       <c r="C106" s="115" t="s">
         <v>114</v>
       </c>
       <c r="D106" s="113"/>
-      <c r="F106" s="237" t="s">
+      <c r="F106" s="181" t="s">
         <v>133</v>
       </c>
-      <c r="G106" s="238"/>
+      <c r="G106" s="182"/>
       <c r="H106" s="135" t="s">
         <v>134</v>
       </c>
@@ -4051,56 +4881,70 @@
         <v>15</v>
       </c>
       <c r="N106" s="20"/>
-      <c r="P106" s="186" t="s">
+      <c r="P106" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="Q106" s="187"/>
+      <c r="Q106" s="166"/>
       <c r="R106" s="18" t="s">
         <v>59</v>
       </c>
       <c r="S106" s="20"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="219"/>
-      <c r="B107" s="220"/>
+      <c r="U106" s="307" t="s">
+        <v>50</v>
+      </c>
+      <c r="V106" s="308"/>
+      <c r="W106" s="309" t="s">
+        <v>164</v>
+      </c>
+      <c r="X106" s="310"/>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A107" s="233"/>
+      <c r="B107" s="234"/>
       <c r="C107" s="116" t="s">
         <v>115</v>
       </c>
       <c r="D107" s="114"/>
-      <c r="F107" s="239"/>
-      <c r="G107" s="240"/>
+      <c r="F107" s="183"/>
+      <c r="G107" s="184"/>
       <c r="H107" s="136" t="s">
         <v>135</v>
       </c>
       <c r="I107" s="134"/>
-      <c r="K107" s="149" t="s">
+      <c r="K107" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="L107" s="157"/>
+      <c r="L107" s="257"/>
       <c r="M107" s="21" t="s">
         <v>153</v>
       </c>
       <c r="N107" s="22"/>
-      <c r="P107" s="188"/>
-      <c r="Q107" s="189"/>
+      <c r="P107" s="167"/>
+      <c r="Q107" s="168"/>
       <c r="R107" s="23" t="s">
         <v>148</v>
       </c>
       <c r="S107" s="25"/>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="221" t="s">
+      <c r="U107" s="311"/>
+      <c r="V107" s="312"/>
+      <c r="W107" s="313" t="s">
+        <v>162</v>
+      </c>
+      <c r="X107" s="314"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A108" s="235" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="222"/>
+      <c r="B108" s="236"/>
       <c r="C108" s="118" t="s">
         <v>145</v>
       </c>
       <c r="D108" s="117"/>
-      <c r="F108" s="186" t="s">
+      <c r="F108" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="G108" s="187"/>
+      <c r="G108" s="166"/>
       <c r="H108" s="18" t="s">
         <v>31</v>
       </c>
@@ -4111,24 +4955,32 @@
         <v>11</v>
       </c>
       <c r="N108" s="25"/>
-      <c r="P108" s="162" t="s">
+      <c r="P108" s="201" t="s">
         <v>62</v>
       </c>
-      <c r="Q108" s="163"/>
+      <c r="Q108" s="202"/>
       <c r="R108" s="68" t="s">
         <v>63</v>
       </c>
       <c r="S108" s="67"/>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="223"/>
-      <c r="B109" s="224"/>
+      <c r="U108" s="315" t="s">
+        <v>159</v>
+      </c>
+      <c r="V108" s="316"/>
+      <c r="W108" s="317" t="s">
+        <v>171</v>
+      </c>
+      <c r="X108" s="318"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A109" s="237"/>
+      <c r="B109" s="238"/>
       <c r="C109" s="120" t="s">
         <v>146</v>
       </c>
       <c r="D109" s="119"/>
-      <c r="F109" s="188"/>
-      <c r="G109" s="189"/>
+      <c r="F109" s="167"/>
+      <c r="G109" s="168"/>
       <c r="H109" s="23" t="s">
         <v>136</v>
       </c>
@@ -4139,56 +4991,70 @@
         <v>100</v>
       </c>
       <c r="N109" s="28"/>
-      <c r="P109" s="164"/>
-      <c r="Q109" s="165"/>
+      <c r="P109" s="203"/>
+      <c r="Q109" s="204"/>
       <c r="R109" s="70" t="s">
         <v>39</v>
       </c>
       <c r="S109" s="69"/>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="225" t="s">
+      <c r="U109" s="319"/>
+      <c r="V109" s="320"/>
+      <c r="W109" s="321" t="s">
+        <v>163</v>
+      </c>
+      <c r="X109" s="322"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A110" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="226"/>
+      <c r="B110" s="158"/>
       <c r="C110" s="121" t="s">
         <v>118</v>
       </c>
       <c r="D110" s="122"/>
-      <c r="F110" s="186" t="s">
+      <c r="F110" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="G110" s="187"/>
+      <c r="G110" s="166"/>
       <c r="H110" s="19" t="s">
         <v>137</v>
       </c>
       <c r="I110" s="20"/>
-      <c r="K110" s="158" t="s">
+      <c r="K110" s="251" t="s">
         <v>132</v>
       </c>
-      <c r="L110" s="159"/>
+      <c r="L110" s="252"/>
       <c r="M110" s="29" t="s">
         <v>1</v>
       </c>
       <c r="N110" s="30"/>
-      <c r="P110" s="182" t="s">
+      <c r="P110" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="Q110" s="183"/>
+      <c r="Q110" s="178"/>
       <c r="R110" s="27" t="s">
         <v>91</v>
       </c>
       <c r="S110" s="28"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="227"/>
-      <c r="B111" s="228"/>
+      <c r="U110" s="327" t="s">
+        <v>95</v>
+      </c>
+      <c r="V110" s="328"/>
+      <c r="W110" s="323" t="s">
+        <v>166</v>
+      </c>
+      <c r="X110" s="324"/>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A111" s="159"/>
+      <c r="B111" s="160"/>
       <c r="C111" s="123" t="s">
         <v>119</v>
       </c>
       <c r="D111" s="124"/>
-      <c r="F111" s="188"/>
-      <c r="G111" s="189"/>
+      <c r="F111" s="167"/>
+      <c r="G111" s="168"/>
       <c r="H111" s="24" t="s">
         <v>14</v>
       </c>
@@ -4199,26 +5065,32 @@
         <v>23</v>
       </c>
       <c r="N111" s="33"/>
-      <c r="P111" s="184"/>
-      <c r="Q111" s="185"/>
+      <c r="P111" s="179"/>
+      <c r="Q111" s="180"/>
       <c r="R111" s="32" t="s">
         <v>64</v>
       </c>
       <c r="S111" s="33"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="229" t="s">
+      <c r="U111" s="331"/>
+      <c r="V111" s="332"/>
+      <c r="W111" s="325" t="s">
+        <v>173</v>
+      </c>
+      <c r="X111" s="326"/>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A112" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="B112" s="230"/>
+      <c r="B112" s="150"/>
       <c r="C112" s="125" t="s">
         <v>121</v>
       </c>
       <c r="D112" s="126"/>
-      <c r="F112" s="255" t="s">
+      <c r="F112" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="G112" s="256"/>
+      <c r="G112" s="170"/>
       <c r="H112" s="60" t="s">
         <v>34</v>
       </c>
@@ -4229,56 +5101,70 @@
         <v>154</v>
       </c>
       <c r="N112" s="109"/>
-      <c r="P112" s="194" t="s">
+      <c r="P112" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="Q112" s="195"/>
+      <c r="Q112" s="206"/>
       <c r="R112" s="79" t="s">
         <v>89</v>
       </c>
       <c r="S112" s="80"/>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="231"/>
-      <c r="B113" s="232"/>
+      <c r="U112" s="327" t="s">
+        <v>160</v>
+      </c>
+      <c r="V112" s="328"/>
+      <c r="W112" s="329" t="s">
+        <v>167</v>
+      </c>
+      <c r="X112" s="330"/>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A113" s="151"/>
+      <c r="B113" s="152"/>
       <c r="C113" s="127" t="s">
         <v>122</v>
       </c>
       <c r="D113" s="128"/>
-      <c r="F113" s="257"/>
-      <c r="G113" s="258"/>
+      <c r="F113" s="171"/>
+      <c r="G113" s="172"/>
       <c r="H113" s="65" t="s">
         <v>138</v>
       </c>
       <c r="I113" s="66"/>
-      <c r="K113" s="245" t="s">
+      <c r="K113" s="253" t="s">
         <v>108</v>
       </c>
-      <c r="L113" s="246"/>
+      <c r="L113" s="254"/>
       <c r="M113" s="146" t="s">
         <v>84</v>
       </c>
       <c r="N113" s="145"/>
-      <c r="P113" s="196"/>
-      <c r="Q113" s="197"/>
+      <c r="P113" s="207"/>
+      <c r="Q113" s="208"/>
       <c r="R113" s="81" t="s">
         <v>71</v>
       </c>
       <c r="S113" s="82"/>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="233" t="s">
+      <c r="U113" s="331"/>
+      <c r="V113" s="332"/>
+      <c r="W113" s="358" t="s">
+        <v>175</v>
+      </c>
+      <c r="X113" s="333"/>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A114" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="B114" s="234"/>
+      <c r="B114" s="240"/>
       <c r="C114" s="129" t="s">
         <v>124</v>
       </c>
       <c r="D114" s="130"/>
-      <c r="F114" s="247" t="s">
+      <c r="F114" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="G114" s="248"/>
+      <c r="G114" s="154"/>
       <c r="H114" s="11" t="s">
         <v>139</v>
       </c>
@@ -4289,24 +5175,32 @@
         <v>22</v>
       </c>
       <c r="N114" s="110"/>
-      <c r="P114" s="198" t="s">
+      <c r="P114" s="209" t="s">
         <v>72</v>
       </c>
-      <c r="Q114" s="199"/>
+      <c r="Q114" s="210"/>
       <c r="R114" s="83" t="s">
         <v>51</v>
       </c>
       <c r="S114" s="84"/>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="235"/>
-      <c r="B115" s="236"/>
+      <c r="U114" s="350" t="s">
+        <v>161</v>
+      </c>
+      <c r="V114" s="351"/>
+      <c r="W114" s="352" t="s">
+        <v>170</v>
+      </c>
+      <c r="X114" s="353"/>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A115" s="241"/>
+      <c r="B115" s="242"/>
       <c r="C115" s="131" t="s">
         <v>125</v>
       </c>
       <c r="D115" s="132"/>
-      <c r="F115" s="249"/>
-      <c r="G115" s="250"/>
+      <c r="F115" s="155"/>
+      <c r="G115" s="156"/>
       <c r="H115" s="16" t="s">
         <v>19</v>
       </c>
@@ -4317,56 +5211,66 @@
         <v>2</v>
       </c>
       <c r="N115" s="45"/>
-      <c r="P115" s="200"/>
-      <c r="Q115" s="201"/>
+      <c r="P115" s="211"/>
+      <c r="Q115" s="212"/>
       <c r="R115" s="85" t="s">
         <v>68</v>
       </c>
       <c r="S115" s="86"/>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="162" t="s">
+      <c r="U115" s="354"/>
+      <c r="V115" s="355"/>
+      <c r="W115" s="356" t="s">
+        <v>174</v>
+      </c>
+      <c r="X115" s="357"/>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A116" s="201" t="s">
         <v>126</v>
       </c>
-      <c r="B116" s="163"/>
+      <c r="B116" s="202"/>
       <c r="C116" s="68" t="s">
         <v>127</v>
       </c>
       <c r="D116" s="67"/>
-      <c r="F116" s="225" t="s">
+      <c r="F116" s="157" t="s">
         <v>140</v>
       </c>
-      <c r="G116" s="226"/>
+      <c r="G116" s="158"/>
       <c r="H116" s="121" t="s">
         <v>141</v>
       </c>
       <c r="I116" s="122"/>
-      <c r="K116" s="174" t="s">
+      <c r="K116" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="L116" s="175"/>
+      <c r="L116" s="248"/>
       <c r="M116" s="46" t="s">
         <v>29</v>
       </c>
       <c r="N116" s="47"/>
-      <c r="P116" s="237" t="s">
+      <c r="P116" s="181" t="s">
         <v>144</v>
       </c>
-      <c r="Q116" s="238"/>
+      <c r="Q116" s="182"/>
       <c r="R116" s="135" t="s">
         <v>90</v>
       </c>
       <c r="S116" s="133"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="164"/>
-      <c r="B117" s="165"/>
+      <c r="U116" s="334"/>
+      <c r="V116" s="335"/>
+      <c r="W116" s="336"/>
+      <c r="X116" s="337"/>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A117" s="203"/>
+      <c r="B117" s="204"/>
       <c r="C117" s="70" t="s">
         <v>88</v>
       </c>
       <c r="D117" s="69"/>
-      <c r="F117" s="227"/>
-      <c r="G117" s="228"/>
+      <c r="F117" s="159"/>
+      <c r="G117" s="160"/>
       <c r="H117" s="123" t="s">
         <v>142</v>
       </c>
@@ -4377,26 +5281,30 @@
         <v>101</v>
       </c>
       <c r="N117" s="50"/>
-      <c r="P117" s="239"/>
-      <c r="Q117" s="240"/>
+      <c r="P117" s="183"/>
+      <c r="Q117" s="184"/>
       <c r="R117" s="136" t="s">
         <v>149</v>
       </c>
       <c r="S117" s="134"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="237" t="s">
+      <c r="U117" s="338"/>
+      <c r="V117" s="339"/>
+      <c r="W117" s="340"/>
+      <c r="X117" s="341"/>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A118" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="B118" s="238"/>
+      <c r="B118" s="182"/>
       <c r="C118" s="135" t="s">
         <v>129</v>
       </c>
       <c r="D118" s="133"/>
-      <c r="F118" s="251" t="s">
+      <c r="F118" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="G118" s="252"/>
+      <c r="G118" s="162"/>
       <c r="H118" s="44" t="s">
         <v>143</v>
       </c>
@@ -4407,44 +5315,52 @@
         <v>157</v>
       </c>
       <c r="N118" s="53"/>
-      <c r="P118" s="202" t="s">
+      <c r="P118" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="Q118" s="203"/>
+      <c r="Q118" s="194"/>
       <c r="R118" s="87" t="s">
         <v>147</v>
       </c>
       <c r="S118" s="88"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="239"/>
-      <c r="B119" s="240"/>
+      <c r="U118" s="263"/>
+      <c r="V118" s="264"/>
+      <c r="W118" s="265"/>
+      <c r="X118" s="266"/>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A119" s="183"/>
+      <c r="B119" s="184"/>
       <c r="C119" s="136" t="s">
         <v>48</v>
       </c>
       <c r="D119" s="134"/>
-      <c r="F119" s="253"/>
-      <c r="G119" s="254"/>
+      <c r="F119" s="163"/>
+      <c r="G119" s="164"/>
       <c r="H119" s="49" t="s">
         <v>85</v>
       </c>
       <c r="I119" s="50"/>
-      <c r="K119" s="206" t="s">
+      <c r="K119" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="L119" s="207"/>
+      <c r="L119" s="250"/>
       <c r="M119" s="54" t="s">
         <v>35</v>
       </c>
       <c r="N119" s="55"/>
-      <c r="P119" s="204"/>
-      <c r="Q119" s="205"/>
+      <c r="P119" s="195"/>
+      <c r="Q119" s="196"/>
       <c r="R119" s="89" t="s">
         <v>150</v>
       </c>
       <c r="S119" s="90"/>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U119" s="267"/>
+      <c r="V119" s="268"/>
+      <c r="W119" s="269"/>
+      <c r="X119" s="270"/>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4459,16 +5375,20 @@
         <v>155</v>
       </c>
       <c r="N120" s="58"/>
-      <c r="P120" s="176" t="s">
+      <c r="P120" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="Q120" s="177"/>
+      <c r="Q120" s="198"/>
       <c r="R120" s="96" t="s">
         <v>102</v>
       </c>
       <c r="S120" s="97"/>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U120" s="291"/>
+      <c r="V120" s="292"/>
+      <c r="W120" s="293"/>
+      <c r="X120" s="294"/>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4483,14 +5403,18 @@
         <v>42</v>
       </c>
       <c r="N121" s="61"/>
-      <c r="P121" s="178"/>
-      <c r="Q121" s="179"/>
+      <c r="P121" s="199"/>
+      <c r="Q121" s="200"/>
       <c r="R121" s="98" t="s">
         <v>151</v>
       </c>
       <c r="S121" s="99"/>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U121" s="295"/>
+      <c r="V121" s="296"/>
+      <c r="W121" s="297"/>
+      <c r="X121" s="298"/>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4499,24 +5423,28 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-      <c r="K122" s="180" t="s">
+      <c r="K122" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="L122" s="181"/>
+      <c r="L122" s="186"/>
       <c r="M122" s="62" t="s">
         <v>33</v>
       </c>
       <c r="N122" s="63"/>
-      <c r="P122" s="190" t="s">
+      <c r="P122" s="187" t="s">
         <v>95</v>
       </c>
-      <c r="Q122" s="191"/>
+      <c r="Q122" s="188"/>
       <c r="R122" s="100" t="s">
         <v>54</v>
       </c>
       <c r="S122" s="101"/>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U122" s="263"/>
+      <c r="V122" s="264"/>
+      <c r="W122" s="265"/>
+      <c r="X122" s="266"/>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4531,14 +5459,18 @@
         <v>25</v>
       </c>
       <c r="N123" s="66"/>
-      <c r="P123" s="192"/>
-      <c r="Q123" s="193"/>
+      <c r="P123" s="189"/>
+      <c r="Q123" s="190"/>
       <c r="R123" s="102" t="s">
         <v>152</v>
       </c>
       <c r="S123" s="103"/>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U123" s="267"/>
+      <c r="V123" s="268"/>
+      <c r="W123" s="269"/>
+      <c r="X123" s="270"/>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4553,16 +5485,20 @@
         <v>79</v>
       </c>
       <c r="N124" s="20"/>
-      <c r="P124" s="229" t="s">
+      <c r="P124" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="Q124" s="230"/>
+      <c r="Q124" s="150"/>
       <c r="R124" s="125" t="s">
         <v>78</v>
       </c>
       <c r="S124" s="126"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U124" s="342"/>
+      <c r="V124" s="343"/>
+      <c r="W124" s="344"/>
+      <c r="X124" s="345"/>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4571,22 +5507,26 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-      <c r="K125" s="149" t="s">
+      <c r="K125" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="L125" s="150"/>
+      <c r="L125" s="192"/>
       <c r="M125" s="93" t="s">
         <v>43</v>
       </c>
       <c r="N125" s="22"/>
-      <c r="P125" s="231"/>
-      <c r="Q125" s="232"/>
+      <c r="P125" s="151"/>
+      <c r="Q125" s="152"/>
       <c r="R125" s="127" t="s">
         <v>92</v>
       </c>
       <c r="S125" s="128"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U125" s="346"/>
+      <c r="V125" s="347"/>
+      <c r="W125" s="348"/>
+      <c r="X125" s="349"/>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4605,8 +5545,12 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4625,8 +5569,12 @@
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+      <c r="X127" s="1"/>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4635,10 +5583,10 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="K128" s="151" t="s">
+      <c r="K128" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="L128" s="152"/>
+      <c r="L128" s="222"/>
       <c r="M128" s="139" t="s">
         <v>43</v>
       </c>
@@ -4647,8 +5595,12 @@
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
+      <c r="X128" s="1"/>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4667,91 +5619,932 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
+      <c r="X129" s="1"/>
+    </row>
+    <row r="131" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="360"/>
+      <c r="B131" s="360"/>
+      <c r="C131" s="360"/>
+      <c r="D131" s="360"/>
+      <c r="F131" s="360"/>
+      <c r="G131" s="360"/>
+      <c r="H131" s="360"/>
+      <c r="I131" s="360"/>
+      <c r="K131" s="258" t="s">
+        <v>178</v>
+      </c>
+      <c r="L131" s="258"/>
+      <c r="M131" s="258"/>
+      <c r="N131" s="258"/>
+      <c r="P131" s="258" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q131" s="258"/>
+      <c r="R131" s="258"/>
+      <c r="S131" s="258"/>
+      <c r="U131" s="258" t="s">
+        <v>204</v>
+      </c>
+      <c r="V131" s="258"/>
+      <c r="W131" s="258"/>
+      <c r="X131" s="258"/>
+    </row>
+    <row r="132" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="360"/>
+      <c r="B132" s="360"/>
+      <c r="C132" s="360"/>
+      <c r="D132" s="360"/>
+      <c r="F132" s="360"/>
+      <c r="G132" s="360"/>
+      <c r="H132" s="360"/>
+      <c r="I132" s="360"/>
+      <c r="L132" s="258">
+        <v>2020</v>
+      </c>
+      <c r="M132" s="258"/>
+      <c r="Q132" s="258">
+        <v>2020</v>
+      </c>
+      <c r="R132" s="258"/>
+      <c r="V132" s="258">
+        <v>2022</v>
+      </c>
+      <c r="W132" s="258"/>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A133" s="360"/>
+      <c r="B133" s="360"/>
+      <c r="C133" s="360"/>
+      <c r="D133" s="360"/>
+      <c r="F133" s="360"/>
+      <c r="G133" s="360"/>
+      <c r="H133" s="360"/>
+      <c r="I133" s="360"/>
+      <c r="L133" s="359" t="s">
+        <v>179</v>
+      </c>
+      <c r="M133" s="359"/>
+      <c r="Q133" s="359" t="s">
+        <v>192</v>
+      </c>
+      <c r="R133" s="359"/>
+      <c r="V133" s="359" t="s">
+        <v>210</v>
+      </c>
+      <c r="W133" s="359"/>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A134" s="360"/>
+      <c r="B134" s="360"/>
+      <c r="C134" s="360"/>
+      <c r="D134" s="360"/>
+      <c r="F134" s="360"/>
+      <c r="G134" s="360"/>
+      <c r="H134" s="360"/>
+      <c r="I134" s="360"/>
+      <c r="L134" s="359" t="s">
+        <v>180</v>
+      </c>
+      <c r="M134" s="359"/>
+      <c r="Q134" s="359" t="s">
+        <v>193</v>
+      </c>
+      <c r="R134" s="359"/>
+      <c r="V134" s="359" t="s">
+        <v>206</v>
+      </c>
+      <c r="W134" s="359"/>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A135" s="360"/>
+      <c r="B135" s="360"/>
+      <c r="C135" s="360"/>
+      <c r="D135" s="360"/>
+      <c r="F135" s="360"/>
+      <c r="G135" s="360"/>
+      <c r="H135" s="360"/>
+      <c r="I135" s="360"/>
+      <c r="L135" s="359" t="s">
+        <v>181</v>
+      </c>
+      <c r="M135" s="359"/>
+      <c r="Q135" s="359" t="s">
+        <v>194</v>
+      </c>
+      <c r="R135" s="359"/>
+      <c r="V135" s="359" t="s">
+        <v>209</v>
+      </c>
+      <c r="W135" s="359"/>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A136" s="360"/>
+      <c r="B136" s="360"/>
+      <c r="C136" s="360"/>
+      <c r="D136" s="360"/>
+      <c r="F136" s="360"/>
+      <c r="G136" s="360"/>
+      <c r="H136" s="360"/>
+      <c r="I136" s="360"/>
+      <c r="L136" s="359" t="s">
+        <v>182</v>
+      </c>
+      <c r="M136" s="359"/>
+      <c r="Q136" s="359" t="s">
+        <v>195</v>
+      </c>
+      <c r="R136" s="359"/>
+      <c r="V136" s="359" t="s">
+        <v>211</v>
+      </c>
+      <c r="W136" s="359"/>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A137" s="360"/>
+      <c r="B137" s="360"/>
+      <c r="C137" s="360"/>
+      <c r="D137" s="360"/>
+      <c r="F137" s="360"/>
+      <c r="G137" s="360"/>
+      <c r="H137" s="360"/>
+      <c r="I137" s="360"/>
+      <c r="L137" s="359" t="s">
+        <v>183</v>
+      </c>
+      <c r="M137" s="359"/>
+      <c r="Q137" s="359" t="s">
+        <v>196</v>
+      </c>
+      <c r="R137" s="359"/>
+      <c r="V137" s="359" t="s">
+        <v>207</v>
+      </c>
+      <c r="W137" s="359"/>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A138" s="360"/>
+      <c r="B138" s="360"/>
+      <c r="C138" s="360"/>
+      <c r="D138" s="360"/>
+      <c r="F138" s="360"/>
+      <c r="G138" s="360"/>
+      <c r="H138" s="360"/>
+      <c r="I138" s="360"/>
+      <c r="L138" s="359" t="s">
+        <v>184</v>
+      </c>
+      <c r="M138" s="359"/>
+      <c r="Q138" s="359" t="s">
+        <v>197</v>
+      </c>
+      <c r="R138" s="359"/>
+      <c r="V138" s="359" t="s">
+        <v>187</v>
+      </c>
+      <c r="W138" s="359"/>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A139" s="360"/>
+      <c r="B139" s="360"/>
+      <c r="C139" s="360"/>
+      <c r="D139" s="360"/>
+      <c r="F139" s="360"/>
+      <c r="G139" s="360"/>
+      <c r="H139" s="360"/>
+      <c r="I139" s="360"/>
+      <c r="L139" s="359" t="s">
+        <v>185</v>
+      </c>
+      <c r="M139" s="359"/>
+      <c r="Q139" s="359" t="s">
+        <v>198</v>
+      </c>
+      <c r="R139" s="359"/>
+      <c r="V139" s="359" t="s">
+        <v>189</v>
+      </c>
+      <c r="W139" s="359"/>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A140" s="360"/>
+      <c r="B140" s="360"/>
+      <c r="C140" s="360"/>
+      <c r="D140" s="360"/>
+      <c r="F140" s="360"/>
+      <c r="G140" s="360"/>
+      <c r="H140" s="360"/>
+      <c r="I140" s="360"/>
+      <c r="L140" s="359" t="s">
+        <v>186</v>
+      </c>
+      <c r="M140" s="359"/>
+      <c r="Q140" s="359" t="s">
+        <v>199</v>
+      </c>
+      <c r="R140" s="359"/>
+      <c r="V140" s="359" t="s">
+        <v>197</v>
+      </c>
+      <c r="W140" s="359"/>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A141" s="360"/>
+      <c r="B141" s="360"/>
+      <c r="C141" s="360"/>
+      <c r="D141" s="360"/>
+      <c r="F141" s="360"/>
+      <c r="G141" s="360"/>
+      <c r="H141" s="360"/>
+      <c r="I141" s="360"/>
+      <c r="L141" s="359" t="s">
+        <v>187</v>
+      </c>
+      <c r="M141" s="359"/>
+      <c r="Q141" s="359" t="s">
+        <v>200</v>
+      </c>
+      <c r="R141" s="359"/>
+      <c r="V141" s="359" t="s">
+        <v>205</v>
+      </c>
+      <c r="W141" s="359"/>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A142" s="360"/>
+      <c r="B142" s="360"/>
+      <c r="C142" s="360"/>
+      <c r="D142" s="360"/>
+      <c r="F142" s="360"/>
+      <c r="G142" s="360"/>
+      <c r="H142" s="360"/>
+      <c r="I142" s="360"/>
+      <c r="L142" s="359" t="s">
+        <v>188</v>
+      </c>
+      <c r="M142" s="359"/>
+      <c r="Q142" s="359" t="s">
+        <v>188</v>
+      </c>
+      <c r="R142" s="359"/>
+      <c r="V142" s="359" t="s">
+        <v>198</v>
+      </c>
+      <c r="W142" s="359"/>
+    </row>
+    <row r="143" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="360"/>
+      <c r="B143" s="360"/>
+      <c r="C143" s="360"/>
+      <c r="D143" s="360"/>
+      <c r="F143" s="360"/>
+      <c r="G143" s="360"/>
+      <c r="H143" s="360"/>
+      <c r="I143" s="360"/>
+      <c r="L143" s="258">
+        <v>2021</v>
+      </c>
+      <c r="M143" s="258"/>
+      <c r="Q143" s="359" t="s">
+        <v>186</v>
+      </c>
+      <c r="R143" s="359"/>
+      <c r="V143" s="359" t="s">
+        <v>208</v>
+      </c>
+      <c r="W143" s="359"/>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A144" s="360"/>
+      <c r="B144" s="360"/>
+      <c r="C144" s="360"/>
+      <c r="D144" s="360"/>
+      <c r="F144" s="360"/>
+      <c r="G144" s="360"/>
+      <c r="H144" s="360"/>
+      <c r="I144" s="360"/>
+      <c r="L144" s="359" t="s">
+        <v>179</v>
+      </c>
+      <c r="M144" s="359"/>
+      <c r="Q144" s="359" t="s">
+        <v>201</v>
+      </c>
+      <c r="R144" s="359"/>
+      <c r="V144" s="359" t="s">
+        <v>181</v>
+      </c>
+      <c r="W144" s="359"/>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A145" s="360"/>
+      <c r="B145" s="360"/>
+      <c r="C145" s="360"/>
+      <c r="D145" s="360"/>
+      <c r="F145" s="360"/>
+      <c r="G145" s="360"/>
+      <c r="H145" s="360"/>
+      <c r="I145" s="360"/>
+      <c r="L145" s="359" t="s">
+        <v>180</v>
+      </c>
+      <c r="M145" s="359"/>
+      <c r="Q145" s="359" t="s">
+        <v>202</v>
+      </c>
+      <c r="R145" s="359"/>
+      <c r="V145" s="359" t="s">
+        <v>183</v>
+      </c>
+      <c r="W145" s="359"/>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A146" s="360"/>
+      <c r="B146" s="360"/>
+      <c r="C146" s="360"/>
+      <c r="D146" s="360"/>
+      <c r="F146" s="360"/>
+      <c r="G146" s="360"/>
+      <c r="H146" s="360"/>
+      <c r="I146" s="360"/>
+      <c r="L146" s="359" t="s">
+        <v>187</v>
+      </c>
+      <c r="M146" s="359"/>
+      <c r="Q146" s="359" t="s">
+        <v>203</v>
+      </c>
+      <c r="R146" s="359"/>
+      <c r="V146" s="359"/>
+      <c r="W146" s="359"/>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A147" s="360"/>
+      <c r="B147" s="360"/>
+      <c r="C147" s="360"/>
+      <c r="D147" s="360"/>
+      <c r="F147" s="360"/>
+      <c r="G147" s="360"/>
+      <c r="H147" s="360"/>
+      <c r="I147" s="360"/>
+      <c r="L147" s="359" t="s">
+        <v>182</v>
+      </c>
+      <c r="M147" s="359"/>
+      <c r="Q147" s="359" t="s">
+        <v>197</v>
+      </c>
+      <c r="R147" s="359"/>
+      <c r="V147" s="359"/>
+      <c r="W147" s="359"/>
+    </row>
+    <row r="148" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="360"/>
+      <c r="B148" s="360"/>
+      <c r="C148" s="360"/>
+      <c r="D148" s="360"/>
+      <c r="F148" s="360"/>
+      <c r="G148" s="360"/>
+      <c r="H148" s="360"/>
+      <c r="I148" s="360"/>
+      <c r="L148" s="359" t="s">
+        <v>183</v>
+      </c>
+      <c r="M148" s="359"/>
+      <c r="Q148" s="258">
+        <v>2021</v>
+      </c>
+      <c r="R148" s="258"/>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A149" s="360"/>
+      <c r="B149" s="360"/>
+      <c r="C149" s="360"/>
+      <c r="D149" s="360"/>
+      <c r="F149" s="360"/>
+      <c r="G149" s="360"/>
+      <c r="H149" s="360"/>
+      <c r="I149" s="360"/>
+      <c r="L149" s="359" t="s">
+        <v>184</v>
+      </c>
+      <c r="M149" s="359"/>
+      <c r="Q149" s="359" t="s">
+        <v>203</v>
+      </c>
+      <c r="R149" s="359"/>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A150" s="360"/>
+      <c r="B150" s="360"/>
+      <c r="C150" s="360"/>
+      <c r="D150" s="360"/>
+      <c r="F150" s="360"/>
+      <c r="G150" s="360"/>
+      <c r="H150" s="360"/>
+      <c r="I150" s="360"/>
+      <c r="L150" s="359" t="s">
+        <v>185</v>
+      </c>
+      <c r="M150" s="359"/>
+      <c r="Q150" s="359" t="s">
+        <v>193</v>
+      </c>
+      <c r="R150" s="359"/>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A151" s="360"/>
+      <c r="B151" s="360"/>
+      <c r="C151" s="360"/>
+      <c r="D151" s="360"/>
+      <c r="F151" s="360"/>
+      <c r="G151" s="360"/>
+      <c r="H151" s="360"/>
+      <c r="I151" s="360"/>
+      <c r="L151" s="359" t="s">
+        <v>188</v>
+      </c>
+      <c r="M151" s="359"/>
+      <c r="Q151" s="359" t="s">
+        <v>201</v>
+      </c>
+      <c r="R151" s="359"/>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A152" s="360"/>
+      <c r="B152" s="360"/>
+      <c r="C152" s="360"/>
+      <c r="D152" s="360"/>
+      <c r="F152" s="360"/>
+      <c r="G152" s="360"/>
+      <c r="H152" s="360"/>
+      <c r="I152" s="360"/>
+      <c r="L152" s="359" t="s">
+        <v>186</v>
+      </c>
+      <c r="M152" s="359"/>
+      <c r="Q152" s="359" t="s">
+        <v>194</v>
+      </c>
+      <c r="R152" s="359"/>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A153" s="360"/>
+      <c r="B153" s="360"/>
+      <c r="C153" s="360"/>
+      <c r="D153" s="360"/>
+      <c r="F153" s="360"/>
+      <c r="G153" s="360"/>
+      <c r="H153" s="360"/>
+      <c r="I153" s="360"/>
+      <c r="L153" s="359" t="s">
+        <v>181</v>
+      </c>
+      <c r="M153" s="359"/>
+      <c r="Q153" s="359" t="s">
+        <v>200</v>
+      </c>
+      <c r="R153" s="359"/>
+    </row>
+    <row r="154" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="360"/>
+      <c r="B154" s="360"/>
+      <c r="C154" s="360"/>
+      <c r="D154" s="360"/>
+      <c r="F154" s="360"/>
+      <c r="G154" s="360"/>
+      <c r="H154" s="360"/>
+      <c r="I154" s="360"/>
+      <c r="L154" s="258">
+        <v>2022</v>
+      </c>
+      <c r="M154" s="258"/>
+      <c r="Q154" s="359" t="s">
+        <v>195</v>
+      </c>
+      <c r="R154" s="359"/>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A155" s="360"/>
+      <c r="B155" s="360"/>
+      <c r="C155" s="360"/>
+      <c r="D155" s="360"/>
+      <c r="F155" s="360"/>
+      <c r="G155" s="360"/>
+      <c r="H155" s="360"/>
+      <c r="I155" s="360"/>
+      <c r="L155" s="359" t="s">
+        <v>179</v>
+      </c>
+      <c r="M155" s="359"/>
+      <c r="Q155" s="359" t="s">
+        <v>192</v>
+      </c>
+      <c r="R155" s="359"/>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A156" s="360"/>
+      <c r="B156" s="360"/>
+      <c r="C156" s="360"/>
+      <c r="D156" s="360"/>
+      <c r="F156" s="360"/>
+      <c r="G156" s="360"/>
+      <c r="H156" s="360"/>
+      <c r="I156" s="360"/>
+      <c r="L156" s="359" t="s">
+        <v>180</v>
+      </c>
+      <c r="M156" s="359"/>
+      <c r="Q156" s="359" t="s">
+        <v>186</v>
+      </c>
+      <c r="R156" s="359"/>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A157" s="360"/>
+      <c r="B157" s="360"/>
+      <c r="C157" s="360"/>
+      <c r="D157" s="360"/>
+      <c r="F157" s="360"/>
+      <c r="G157" s="360"/>
+      <c r="H157" s="360"/>
+      <c r="I157" s="360"/>
+      <c r="L157" s="359" t="s">
+        <v>189</v>
+      </c>
+      <c r="M157" s="359"/>
+      <c r="Q157" s="359" t="s">
+        <v>199</v>
+      </c>
+      <c r="R157" s="359"/>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A158" s="360"/>
+      <c r="B158" s="360"/>
+      <c r="C158" s="360"/>
+      <c r="D158" s="360"/>
+      <c r="F158" s="360"/>
+      <c r="G158" s="360"/>
+      <c r="H158" s="360"/>
+      <c r="I158" s="360"/>
+      <c r="L158" s="359" t="s">
+        <v>182</v>
+      </c>
+      <c r="M158" s="359"/>
+      <c r="Q158" s="359" t="s">
+        <v>197</v>
+      </c>
+      <c r="R158" s="359"/>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A159" s="360"/>
+      <c r="B159" s="360"/>
+      <c r="C159" s="360"/>
+      <c r="D159" s="360"/>
+      <c r="F159" s="360"/>
+      <c r="G159" s="360"/>
+      <c r="H159" s="360"/>
+      <c r="I159" s="360"/>
+      <c r="L159" s="359" t="s">
+        <v>183</v>
+      </c>
+      <c r="M159" s="359"/>
+      <c r="Q159" s="359" t="s">
+        <v>188</v>
+      </c>
+      <c r="R159" s="359"/>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A160" s="360"/>
+      <c r="B160" s="360"/>
+      <c r="C160" s="360"/>
+      <c r="D160" s="360"/>
+      <c r="F160" s="360"/>
+      <c r="G160" s="360"/>
+      <c r="H160" s="360"/>
+      <c r="I160" s="360"/>
+      <c r="L160" s="359" t="s">
+        <v>184</v>
+      </c>
+      <c r="M160" s="359"/>
+      <c r="Q160" s="359" t="s">
+        <v>196</v>
+      </c>
+      <c r="R160" s="359"/>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A161" s="360"/>
+      <c r="B161" s="360"/>
+      <c r="C161" s="360"/>
+      <c r="D161" s="360"/>
+      <c r="F161" s="360"/>
+      <c r="G161" s="360"/>
+      <c r="H161" s="360"/>
+      <c r="I161" s="360"/>
+      <c r="L161" s="359" t="s">
+        <v>188</v>
+      </c>
+      <c r="M161" s="359"/>
+      <c r="Q161" s="359" t="s">
+        <v>202</v>
+      </c>
+      <c r="R161" s="359"/>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A162" s="360"/>
+      <c r="B162" s="360"/>
+      <c r="C162" s="360"/>
+      <c r="D162" s="360"/>
+      <c r="F162" s="360"/>
+      <c r="G162" s="360"/>
+      <c r="H162" s="360"/>
+      <c r="I162" s="360"/>
+      <c r="L162" s="359" t="s">
+        <v>186</v>
+      </c>
+      <c r="M162" s="359"/>
+      <c r="Q162" s="359" t="s">
+        <v>198</v>
+      </c>
+      <c r="R162" s="359"/>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A163" s="360"/>
+      <c r="B163" s="360"/>
+      <c r="C163" s="360"/>
+      <c r="D163" s="360"/>
+      <c r="F163" s="360"/>
+      <c r="G163" s="360"/>
+      <c r="H163" s="360"/>
+      <c r="I163" s="360"/>
+      <c r="L163" s="359" t="s">
+        <v>190</v>
+      </c>
+      <c r="M163" s="359"/>
+      <c r="Q163" s="359" t="s">
+        <v>197</v>
+      </c>
+      <c r="R163" s="359"/>
+    </row>
+    <row r="164" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="360"/>
+      <c r="B164" s="360"/>
+      <c r="C164" s="360"/>
+      <c r="D164" s="360"/>
+      <c r="F164" s="360"/>
+      <c r="G164" s="360"/>
+      <c r="H164" s="360"/>
+      <c r="I164" s="360"/>
+      <c r="L164" s="359" t="s">
+        <v>181</v>
+      </c>
+      <c r="M164" s="359"/>
+      <c r="Q164" s="258">
+        <v>2022</v>
+      </c>
+      <c r="R164" s="258"/>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q165" s="359" t="s">
+        <v>203</v>
+      </c>
+      <c r="R165" s="359"/>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q166" s="359" t="s">
+        <v>200</v>
+      </c>
+      <c r="R166" s="359"/>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q167" s="359" t="s">
+        <v>195</v>
+      </c>
+      <c r="R167" s="359"/>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q168" s="359" t="s">
+        <v>192</v>
+      </c>
+      <c r="R168" s="359"/>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q169" s="359" t="s">
+        <v>186</v>
+      </c>
+      <c r="R169" s="359"/>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q170" s="359" t="s">
+        <v>197</v>
+      </c>
+      <c r="R170" s="359"/>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q171" s="359" t="s">
+        <v>188</v>
+      </c>
+      <c r="R171" s="359"/>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q172" s="359" t="s">
+        <v>196</v>
+      </c>
+      <c r="R172" s="359"/>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q173" s="359" t="s">
+        <v>202</v>
+      </c>
+      <c r="R173" s="359"/>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q174" s="359" t="s">
+        <v>198</v>
+      </c>
+      <c r="R174" s="359"/>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q175" s="359" t="s">
+        <v>197</v>
+      </c>
+      <c r="R175" s="359"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
-    <mergeCell ref="P124:Q125"/>
-    <mergeCell ref="F114:G115"/>
-    <mergeCell ref="F116:G117"/>
-    <mergeCell ref="F118:G119"/>
-    <mergeCell ref="F108:G109"/>
-    <mergeCell ref="F110:G111"/>
-    <mergeCell ref="F112:G113"/>
-    <mergeCell ref="F102:G103"/>
-    <mergeCell ref="F104:G105"/>
-    <mergeCell ref="F106:G107"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="P122:Q123"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="P116:Q117"/>
-    <mergeCell ref="P118:Q119"/>
-    <mergeCell ref="P120:Q121"/>
-    <mergeCell ref="P108:Q109"/>
-    <mergeCell ref="P110:Q111"/>
-    <mergeCell ref="P112:Q113"/>
-    <mergeCell ref="P114:Q115"/>
-    <mergeCell ref="P102:Q103"/>
-    <mergeCell ref="P104:Q105"/>
-    <mergeCell ref="P106:Q107"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="A100:B101"/>
-    <mergeCell ref="A102:B103"/>
-    <mergeCell ref="A104:B105"/>
-    <mergeCell ref="A106:B107"/>
-    <mergeCell ref="A108:B109"/>
-    <mergeCell ref="A110:B111"/>
-    <mergeCell ref="A112:B113"/>
-    <mergeCell ref="A114:B115"/>
-    <mergeCell ref="A116:B117"/>
-    <mergeCell ref="A118:B119"/>
-    <mergeCell ref="F100:G101"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="K119:L119"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="Q99:R99"/>
-    <mergeCell ref="P100:Q101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="P87:Q88"/>
-    <mergeCell ref="P89:Q90"/>
-    <mergeCell ref="P91:Q92"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="P77:Q78"/>
-    <mergeCell ref="P79:Q80"/>
-    <mergeCell ref="P81:Q82"/>
-    <mergeCell ref="P83:Q84"/>
-    <mergeCell ref="P85:Q86"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="P69:Q70"/>
-    <mergeCell ref="P71:Q72"/>
-    <mergeCell ref="P73:Q74"/>
-    <mergeCell ref="P75:Q76"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P17:Q18"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="P21:Q22"/>
+  <mergeCells count="277">
+    <mergeCell ref="V137:W137"/>
+    <mergeCell ref="V143:W143"/>
+    <mergeCell ref="V135:W135"/>
+    <mergeCell ref="V133:W133"/>
+    <mergeCell ref="V139:W139"/>
+    <mergeCell ref="V136:W136"/>
+    <mergeCell ref="V138:W138"/>
+    <mergeCell ref="Q172:R172"/>
+    <mergeCell ref="Q173:R173"/>
+    <mergeCell ref="Q174:R174"/>
+    <mergeCell ref="Q175:R175"/>
+    <mergeCell ref="U131:X131"/>
+    <mergeCell ref="V132:W132"/>
+    <mergeCell ref="V141:W141"/>
+    <mergeCell ref="V140:W140"/>
+    <mergeCell ref="V142:W142"/>
+    <mergeCell ref="V146:W146"/>
+    <mergeCell ref="V147:W147"/>
+    <mergeCell ref="V145:W145"/>
+    <mergeCell ref="V144:W144"/>
+    <mergeCell ref="V134:W134"/>
+    <mergeCell ref="Q166:R166"/>
+    <mergeCell ref="Q167:R167"/>
+    <mergeCell ref="Q168:R168"/>
+    <mergeCell ref="Q169:R169"/>
+    <mergeCell ref="Q170:R170"/>
+    <mergeCell ref="Q171:R171"/>
+    <mergeCell ref="Q159:R159"/>
+    <mergeCell ref="Q156:R156"/>
+    <mergeCell ref="Q151:R151"/>
+    <mergeCell ref="Q161:R161"/>
+    <mergeCell ref="Q149:R149"/>
+    <mergeCell ref="Q163:R163"/>
+    <mergeCell ref="Q164:R164"/>
+    <mergeCell ref="Q165:R165"/>
+    <mergeCell ref="Q155:R155"/>
+    <mergeCell ref="Q150:R150"/>
+    <mergeCell ref="Q152:R152"/>
+    <mergeCell ref="Q154:R154"/>
+    <mergeCell ref="Q160:R160"/>
+    <mergeCell ref="Q158:R158"/>
+    <mergeCell ref="Q162:R162"/>
+    <mergeCell ref="Q157:R157"/>
+    <mergeCell ref="Q153:R153"/>
+    <mergeCell ref="L159:M159"/>
+    <mergeCell ref="L160:M160"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="L162:M162"/>
+    <mergeCell ref="L163:M163"/>
+    <mergeCell ref="L161:M161"/>
+    <mergeCell ref="P131:S131"/>
+    <mergeCell ref="Q132:R132"/>
+    <mergeCell ref="Q133:R133"/>
+    <mergeCell ref="Q134:R134"/>
+    <mergeCell ref="Q135:R135"/>
+    <mergeCell ref="Q136:R136"/>
+    <mergeCell ref="Q137:R137"/>
+    <mergeCell ref="Q138:R138"/>
+    <mergeCell ref="Q139:R139"/>
+    <mergeCell ref="Q140:R140"/>
+    <mergeCell ref="Q141:R141"/>
+    <mergeCell ref="Q142:R142"/>
+    <mergeCell ref="Q143:R143"/>
+    <mergeCell ref="Q144:R144"/>
+    <mergeCell ref="Q145:R145"/>
+    <mergeCell ref="Q146:R146"/>
+    <mergeCell ref="Q147:R147"/>
+    <mergeCell ref="Q148:R148"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="L156:M156"/>
+    <mergeCell ref="L164:M164"/>
+    <mergeCell ref="L158:M158"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="U110:V111"/>
+    <mergeCell ref="U112:V113"/>
+    <mergeCell ref="U114:V115"/>
+    <mergeCell ref="U116:V117"/>
+    <mergeCell ref="U118:V119"/>
+    <mergeCell ref="U120:V121"/>
+    <mergeCell ref="U122:V123"/>
+    <mergeCell ref="U124:V125"/>
+    <mergeCell ref="K131:N131"/>
+    <mergeCell ref="U87:V88"/>
+    <mergeCell ref="U89:V90"/>
+    <mergeCell ref="U91:V92"/>
+    <mergeCell ref="V99:W99"/>
+    <mergeCell ref="U100:V101"/>
+    <mergeCell ref="U102:V103"/>
+    <mergeCell ref="U104:V105"/>
+    <mergeCell ref="U106:V107"/>
+    <mergeCell ref="U108:V109"/>
+    <mergeCell ref="U69:V70"/>
+    <mergeCell ref="U71:V72"/>
+    <mergeCell ref="U73:V74"/>
+    <mergeCell ref="U75:V76"/>
+    <mergeCell ref="U77:V78"/>
+    <mergeCell ref="U79:V80"/>
+    <mergeCell ref="U81:V82"/>
+    <mergeCell ref="U83:V84"/>
+    <mergeCell ref="U85:V86"/>
+    <mergeCell ref="U46:V47"/>
+    <mergeCell ref="U48:V49"/>
+    <mergeCell ref="U50:V51"/>
+    <mergeCell ref="U52:V53"/>
+    <mergeCell ref="U54:V55"/>
+    <mergeCell ref="U56:V57"/>
+    <mergeCell ref="U58:V59"/>
+    <mergeCell ref="U60:V61"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="U19:V20"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="U23:V24"/>
+    <mergeCell ref="U25:V26"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="U38:V39"/>
+    <mergeCell ref="U40:V41"/>
+    <mergeCell ref="U42:V43"/>
+    <mergeCell ref="U44:V45"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="U7:V8"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V18"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="P38:Q39"/>
+    <mergeCell ref="P40:Q41"/>
+    <mergeCell ref="P42:Q43"/>
+    <mergeCell ref="P46:Q47"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="P58:Q59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="P48:Q49"/>
+    <mergeCell ref="P44:Q45"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="P50:Q51"/>
+    <mergeCell ref="P52:Q53"/>
+    <mergeCell ref="P54:Q55"/>
+    <mergeCell ref="P56:Q57"/>
+    <mergeCell ref="K57:L57"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K28:L29"/>
     <mergeCell ref="K32:L32"/>
@@ -4776,28 +6569,88 @@
     <mergeCell ref="P23:Q24"/>
     <mergeCell ref="P25:Q26"/>
     <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="P38:Q39"/>
-    <mergeCell ref="P40:Q41"/>
-    <mergeCell ref="P42:Q43"/>
-    <mergeCell ref="P46:Q47"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="P58:Q59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="P48:Q49"/>
-    <mergeCell ref="P44:Q45"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="P50:Q51"/>
-    <mergeCell ref="P52:Q53"/>
-    <mergeCell ref="P54:Q55"/>
-    <mergeCell ref="P56:Q57"/>
-    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P17:Q18"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="P21:Q22"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="P77:Q78"/>
+    <mergeCell ref="P79:Q80"/>
+    <mergeCell ref="P81:Q82"/>
+    <mergeCell ref="P83:Q84"/>
+    <mergeCell ref="P85:Q86"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="P69:Q70"/>
+    <mergeCell ref="P71:Q72"/>
+    <mergeCell ref="P73:Q74"/>
+    <mergeCell ref="P75:Q76"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="Q99:R99"/>
+    <mergeCell ref="P100:Q101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="P87:Q88"/>
+    <mergeCell ref="P89:Q90"/>
+    <mergeCell ref="P91:Q92"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="A100:B101"/>
+    <mergeCell ref="A102:B103"/>
+    <mergeCell ref="A104:B105"/>
+    <mergeCell ref="A106:B107"/>
+    <mergeCell ref="A108:B109"/>
+    <mergeCell ref="A110:B111"/>
+    <mergeCell ref="A112:B113"/>
+    <mergeCell ref="A114:B115"/>
+    <mergeCell ref="A116:B117"/>
+    <mergeCell ref="A118:B119"/>
+    <mergeCell ref="F100:G101"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="P124:Q125"/>
+    <mergeCell ref="F114:G115"/>
+    <mergeCell ref="F116:G117"/>
+    <mergeCell ref="F118:G119"/>
+    <mergeCell ref="F108:G109"/>
+    <mergeCell ref="F110:G111"/>
+    <mergeCell ref="F112:G113"/>
+    <mergeCell ref="F102:G103"/>
+    <mergeCell ref="F104:G105"/>
+    <mergeCell ref="F106:G107"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="P122:Q123"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="P116:Q117"/>
+    <mergeCell ref="P118:Q119"/>
+    <mergeCell ref="P120:Q121"/>
+    <mergeCell ref="P108:Q109"/>
+    <mergeCell ref="P110:Q111"/>
+    <mergeCell ref="P112:Q113"/>
+    <mergeCell ref="P114:Q115"/>
+    <mergeCell ref="P102:Q103"/>
+    <mergeCell ref="P104:Q105"/>
+    <mergeCell ref="P106:Q107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Temporadas Pendientes.xlsx
+++ b/Temporadas Pendientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\FIA Championships\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFA9097-0ECC-4064-9927-B607938AB88E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790E531C-ABC3-4250-B96E-642319BEC991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="219">
   <si>
     <t>ART Grand Prix</t>
   </si>
@@ -564,48 +564,24 @@
     <t>FÓRMULA 3 - PISTAS</t>
   </si>
   <si>
-    <t>Austria - Spielberg</t>
-  </si>
-  <si>
-    <t>Hungria - Mogyrod</t>
-  </si>
-  <si>
     <t>GB - Silverstone</t>
   </si>
   <si>
-    <t>España - Barcelona</t>
-  </si>
-  <si>
     <t>Bélgica - Spa</t>
   </si>
   <si>
     <t>Italia - Monza</t>
   </si>
   <si>
-    <t>Italia - Toscana</t>
-  </si>
-  <si>
     <t>Bahrein - Sakir</t>
   </si>
   <si>
     <t>Holanda - Zandvoort</t>
   </si>
   <si>
-    <t>Rusia - Sochi</t>
-  </si>
-  <si>
-    <t>Francia - Le Castellet</t>
-  </si>
-  <si>
-    <t>EEUU - Texas</t>
-  </si>
-  <si>
     <t>FÓRMULA E - PISTAS</t>
   </si>
   <si>
-    <t>Arabia Saudita</t>
-  </si>
-  <si>
     <t>Chile</t>
   </si>
   <si>
@@ -636,31 +612,76 @@
     <t>Italia - Roma</t>
   </si>
   <si>
-    <t>Muelle</t>
-  </si>
-  <si>
     <t>GT - PISTAS</t>
   </si>
   <si>
-    <t>Alemania - Nurburg</t>
-  </si>
-  <si>
     <t>EEUU - Portland</t>
   </si>
   <si>
     <t>Gales - Anglesey</t>
   </si>
   <si>
-    <t>Gales - Oran Park</t>
-  </si>
-  <si>
     <t>Canada - Bowmanville</t>
   </si>
   <si>
-    <t>Corea del Sur - Yeongam</t>
-  </si>
-  <si>
-    <t>EEUU - Indianapolis</t>
+    <t>España - Aragón</t>
+  </si>
+  <si>
+    <t>España - Cartagena</t>
+  </si>
+  <si>
+    <t>Rusia - San Petersburgo</t>
+  </si>
+  <si>
+    <t>Austria - Salzsburgo</t>
+  </si>
+  <si>
+    <t>Francia - Dijon</t>
+  </si>
+  <si>
+    <t>Francia - Val de Vienne</t>
+  </si>
+  <si>
+    <t>EEUU - Chicago</t>
+  </si>
+  <si>
+    <t>EEUU - Las Vegas</t>
+  </si>
+  <si>
+    <t>Uruguay - Punta del Este</t>
+  </si>
+  <si>
+    <t>Rusia - Surich</t>
+  </si>
+  <si>
+    <t>Canada - Montreal</t>
+  </si>
+  <si>
+    <t>China - Hong Kong</t>
+  </si>
+  <si>
+    <t>Corea del Sur - Kyalami</t>
+  </si>
+  <si>
+    <t>Alemania - Hockenheim</t>
+  </si>
+  <si>
+    <t>Suecia - Kagerod</t>
+  </si>
+  <si>
+    <t>Portugal - Portimao</t>
+  </si>
+  <si>
+    <t>Alemania - Sachsenring</t>
+  </si>
+  <si>
+    <t>Italia - Misano</t>
+  </si>
+  <si>
+    <t>España - Valencia</t>
+  </si>
+  <si>
+    <t>España - Jerez</t>
   </si>
 </sst>
 </file>
@@ -761,7 +782,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -900,6 +921,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -993,7 +1020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="361">
+  <cellXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1155,536 +1182,540 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1973,67 +2004,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X175"/>
+  <dimension ref="A1:X177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E132" workbookViewId="0">
-      <selection activeCell="X143" sqref="X142:X143"/>
+    <sheetView tabSelected="1" topLeftCell="E142" workbookViewId="0">
+      <selection activeCell="T165" sqref="T165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="203" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="F1" s="258" t="s">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="F1" s="203" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="K1" s="258" t="s">
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="K1" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="258"/>
-      <c r="M1" s="258"/>
-      <c r="N1" s="258"/>
-      <c r="P1" s="258" t="s">
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="P1" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="258"/>
-      <c r="R1" s="258"/>
-      <c r="S1" s="258"/>
-      <c r="U1" s="258" t="s">
+      <c r="Q1" s="203"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="203"/>
+      <c r="U1" s="203" t="s">
         <v>158</v>
       </c>
-      <c r="V1" s="258"/>
-      <c r="W1" s="258"/>
-      <c r="X1" s="258"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="258">
+      <c r="B2" s="203">
         <v>2019</v>
       </c>
-      <c r="C2" s="258"/>
-      <c r="G2" s="258">
+      <c r="C2" s="203"/>
+      <c r="G2" s="203">
         <v>2019</v>
       </c>
-      <c r="H2" s="258"/>
-      <c r="L2" s="258">
+      <c r="H2" s="203"/>
+      <c r="L2" s="203">
         <v>2019</v>
       </c>
-      <c r="M2" s="258"/>
-      <c r="Q2" s="258">
+      <c r="M2" s="203"/>
+      <c r="Q2" s="203">
         <v>2019</v>
       </c>
-      <c r="R2" s="258"/>
-      <c r="V2" s="258">
+      <c r="R2" s="203"/>
+      <c r="V2" s="203">
         <v>2019</v>
       </c>
-      <c r="W2" s="258"/>
+      <c r="W2" s="203"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -2050,18 +2081,18 @@
         <v>1</v>
       </c>
       <c r="N3" s="4"/>
-      <c r="P3" s="201" t="s">
+      <c r="P3" s="269" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="202"/>
+      <c r="Q3" s="270"/>
       <c r="R3" s="68" t="s">
         <v>48</v>
       </c>
       <c r="S3" s="67"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="264"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="266"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="217"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="150"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -2072,24 +2103,24 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="K4" s="259" t="s">
+      <c r="K4" s="260" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="260"/>
+      <c r="L4" s="261"/>
       <c r="M4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="204"/>
+      <c r="P4" s="271"/>
+      <c r="Q4" s="272"/>
       <c r="R4" s="70" t="s">
         <v>49</v>
       </c>
       <c r="S4" s="69"/>
-      <c r="U4" s="267"/>
-      <c r="V4" s="268"/>
-      <c r="W4" s="269"/>
-      <c r="X4" s="270"/>
+      <c r="U4" s="218"/>
+      <c r="V4" s="219"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="152"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2106,18 +2137,18 @@
         <v>3</v>
       </c>
       <c r="N5" s="9"/>
-      <c r="P5" s="213" t="s">
+      <c r="P5" s="273" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="214"/>
+      <c r="Q5" s="274"/>
       <c r="R5" s="71" t="s">
         <v>53</v>
       </c>
       <c r="S5" s="72"/>
-      <c r="U5" s="271"/>
-      <c r="V5" s="272"/>
-      <c r="W5" s="273"/>
-      <c r="X5" s="274"/>
+      <c r="U5" s="248"/>
+      <c r="V5" s="249"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -2134,16 +2165,16 @@
         <v>6</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="P6" s="215"/>
-      <c r="Q6" s="216"/>
+      <c r="P6" s="275"/>
+      <c r="Q6" s="276"/>
       <c r="R6" s="73" t="s">
         <v>54</v>
       </c>
       <c r="S6" s="74"/>
-      <c r="U6" s="275"/>
-      <c r="V6" s="276"/>
-      <c r="W6" s="277"/>
-      <c r="X6" s="278"/>
+      <c r="U6" s="250"/>
+      <c r="V6" s="251"/>
+      <c r="W6" s="155"/>
+      <c r="X6" s="156"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -2154,26 +2185,26 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="K7" s="255" t="s">
+      <c r="K7" s="262" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="256"/>
+      <c r="L7" s="263"/>
       <c r="M7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="N7" s="14"/>
-      <c r="P7" s="217" t="s">
+      <c r="P7" s="277" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="218"/>
+      <c r="Q7" s="278"/>
       <c r="R7" s="75" t="s">
         <v>56</v>
       </c>
       <c r="S7" s="76"/>
-      <c r="U7" s="263"/>
-      <c r="V7" s="264"/>
-      <c r="W7" s="265"/>
-      <c r="X7" s="266"/>
+      <c r="U7" s="216"/>
+      <c r="V7" s="217"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="150"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -2190,16 +2221,16 @@
         <v>8</v>
       </c>
       <c r="N8" s="17"/>
-      <c r="P8" s="219"/>
-      <c r="Q8" s="220"/>
+      <c r="P8" s="279"/>
+      <c r="Q8" s="280"/>
       <c r="R8" s="77" t="s">
         <v>57</v>
       </c>
       <c r="S8" s="78"/>
-      <c r="U8" s="267"/>
-      <c r="V8" s="268"/>
-      <c r="W8" s="269"/>
-      <c r="X8" s="270"/>
+      <c r="U8" s="218"/>
+      <c r="V8" s="219"/>
+      <c r="W8" s="151"/>
+      <c r="X8" s="152"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -2222,10 +2253,10 @@
         <v>59</v>
       </c>
       <c r="S9" s="20"/>
-      <c r="U9" s="279"/>
-      <c r="V9" s="266"/>
-      <c r="W9" s="265"/>
-      <c r="X9" s="266"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="150"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -2236,26 +2267,26 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="191" t="s">
+      <c r="K10" s="256" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="257"/>
+      <c r="L10" s="264"/>
       <c r="M10" s="21" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="22"/>
-      <c r="P10" s="191" t="s">
+      <c r="P10" s="256" t="s">
         <v>58</v>
       </c>
-      <c r="Q10" s="257"/>
+      <c r="Q10" s="264"/>
       <c r="R10" s="21" t="s">
         <v>60</v>
       </c>
       <c r="S10" s="22"/>
-      <c r="U10" s="280"/>
-      <c r="V10" s="281"/>
-      <c r="W10" s="282"/>
-      <c r="X10" s="283"/>
+      <c r="U10" s="252"/>
+      <c r="V10" s="253"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="159"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2280,10 +2311,10 @@
         <v>61</v>
       </c>
       <c r="S11" s="25"/>
-      <c r="U11" s="284"/>
-      <c r="V11" s="270"/>
-      <c r="W11" s="269"/>
-      <c r="X11" s="270"/>
+      <c r="U11" s="160"/>
+      <c r="V11" s="152"/>
+      <c r="W11" s="151"/>
+      <c r="X11" s="152"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -2300,18 +2331,18 @@
         <v>14</v>
       </c>
       <c r="N12" s="28"/>
-      <c r="P12" s="201" t="s">
+      <c r="P12" s="269" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="202"/>
+      <c r="Q12" s="270"/>
       <c r="R12" s="68" t="s">
         <v>63</v>
       </c>
       <c r="S12" s="67"/>
-      <c r="U12" s="263"/>
-      <c r="V12" s="264"/>
-      <c r="W12" s="265"/>
-      <c r="X12" s="266"/>
+      <c r="U12" s="216"/>
+      <c r="V12" s="217"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="150"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -2322,24 +2353,24 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="251" t="s">
+      <c r="K13" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="252"/>
+      <c r="L13" s="266"/>
       <c r="M13" s="29" t="s">
         <v>15</v>
       </c>
       <c r="N13" s="30"/>
-      <c r="P13" s="203"/>
-      <c r="Q13" s="204"/>
+      <c r="P13" s="271"/>
+      <c r="Q13" s="272"/>
       <c r="R13" s="70" t="s">
         <v>64</v>
       </c>
       <c r="S13" s="69"/>
-      <c r="U13" s="267"/>
-      <c r="V13" s="268"/>
-      <c r="W13" s="269"/>
-      <c r="X13" s="270"/>
+      <c r="U13" s="218"/>
+      <c r="V13" s="219"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="152"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -2362,10 +2393,10 @@
         <v>66</v>
       </c>
       <c r="S14" s="28"/>
-      <c r="U14" s="285"/>
-      <c r="V14" s="274"/>
-      <c r="W14" s="273"/>
-      <c r="X14" s="274"/>
+      <c r="U14" s="161"/>
+      <c r="V14" s="154"/>
+      <c r="W14" s="153"/>
+      <c r="X14" s="154"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -2382,18 +2413,18 @@
         <v>18</v>
       </c>
       <c r="N15" s="36"/>
-      <c r="P15" s="251" t="s">
+      <c r="P15" s="265" t="s">
         <v>65</v>
       </c>
-      <c r="Q15" s="252"/>
+      <c r="Q15" s="266"/>
       <c r="R15" s="29" t="s">
         <v>67</v>
       </c>
       <c r="S15" s="30"/>
-      <c r="U15" s="286"/>
-      <c r="V15" s="287"/>
-      <c r="W15" s="288"/>
-      <c r="X15" s="289"/>
+      <c r="U15" s="254"/>
+      <c r="V15" s="255"/>
+      <c r="W15" s="162"/>
+      <c r="X15" s="163"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -2416,10 +2447,10 @@
         <v>68</v>
       </c>
       <c r="S16" s="33"/>
-      <c r="U16" s="290"/>
-      <c r="V16" s="278"/>
-      <c r="W16" s="277"/>
-      <c r="X16" s="278"/>
+      <c r="U16" s="164"/>
+      <c r="V16" s="156"/>
+      <c r="W16" s="155"/>
+      <c r="X16" s="156"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -2430,26 +2461,26 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="261" t="s">
+      <c r="K17" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="262"/>
+      <c r="L17" s="268"/>
       <c r="M17" s="38" t="s">
         <v>20</v>
       </c>
       <c r="N17" s="39"/>
-      <c r="P17" s="205" t="s">
+      <c r="P17" s="301" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="206"/>
+      <c r="Q17" s="302"/>
       <c r="R17" s="79" t="s">
         <v>70</v>
       </c>
       <c r="S17" s="80"/>
-      <c r="U17" s="271"/>
-      <c r="V17" s="272"/>
-      <c r="W17" s="273"/>
-      <c r="X17" s="274"/>
+      <c r="U17" s="248"/>
+      <c r="V17" s="249"/>
+      <c r="W17" s="153"/>
+      <c r="X17" s="154"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -2460,22 +2491,22 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="K18" s="261"/>
-      <c r="L18" s="262"/>
+      <c r="K18" s="267"/>
+      <c r="L18" s="268"/>
       <c r="M18" s="38" t="s">
         <v>21</v>
       </c>
       <c r="N18" s="39"/>
-      <c r="P18" s="207"/>
-      <c r="Q18" s="208"/>
+      <c r="P18" s="303"/>
+      <c r="Q18" s="304"/>
       <c r="R18" s="81" t="s">
         <v>71</v>
       </c>
       <c r="S18" s="82"/>
-      <c r="U18" s="275"/>
-      <c r="V18" s="276"/>
-      <c r="W18" s="277"/>
-      <c r="X18" s="278"/>
+      <c r="U18" s="250"/>
+      <c r="V18" s="251"/>
+      <c r="W18" s="155"/>
+      <c r="X18" s="156"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -2492,18 +2523,18 @@
         <v>22</v>
       </c>
       <c r="N19" s="39"/>
-      <c r="P19" s="209" t="s">
+      <c r="P19" s="305" t="s">
         <v>72</v>
       </c>
-      <c r="Q19" s="210"/>
+      <c r="Q19" s="306"/>
       <c r="R19" s="83" t="s">
         <v>73</v>
       </c>
       <c r="S19" s="84"/>
-      <c r="U19" s="271"/>
-      <c r="V19" s="272"/>
-      <c r="W19" s="273"/>
-      <c r="X19" s="274"/>
+      <c r="U19" s="248"/>
+      <c r="V19" s="249"/>
+      <c r="W19" s="153"/>
+      <c r="X19" s="154"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -2520,16 +2551,16 @@
         <v>23</v>
       </c>
       <c r="N20" s="42"/>
-      <c r="P20" s="211"/>
-      <c r="Q20" s="212"/>
+      <c r="P20" s="307"/>
+      <c r="Q20" s="308"/>
       <c r="R20" s="85" t="s">
         <v>74</v>
       </c>
       <c r="S20" s="86"/>
-      <c r="U20" s="275"/>
-      <c r="V20" s="276"/>
-      <c r="W20" s="277"/>
-      <c r="X20" s="278"/>
+      <c r="U20" s="250"/>
+      <c r="V20" s="251"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="156"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -2546,18 +2577,18 @@
         <v>25</v>
       </c>
       <c r="N21" s="45"/>
-      <c r="P21" s="165" t="s">
+      <c r="P21" s="293" t="s">
         <v>75</v>
       </c>
-      <c r="Q21" s="166"/>
+      <c r="Q21" s="294"/>
       <c r="R21" s="19" t="s">
         <v>91</v>
       </c>
       <c r="S21" s="20"/>
-      <c r="U21" s="263"/>
-      <c r="V21" s="264"/>
-      <c r="W21" s="265"/>
-      <c r="X21" s="266"/>
+      <c r="U21" s="216"/>
+      <c r="V21" s="217"/>
+      <c r="W21" s="149"/>
+      <c r="X21" s="150"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -2568,24 +2599,24 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="247" t="s">
+      <c r="K22" s="281" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="248"/>
+      <c r="L22" s="282"/>
       <c r="M22" s="46" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="47"/>
-      <c r="P22" s="167"/>
-      <c r="Q22" s="168"/>
+      <c r="P22" s="295"/>
+      <c r="Q22" s="296"/>
       <c r="R22" s="24" t="s">
         <v>76</v>
       </c>
       <c r="S22" s="25"/>
-      <c r="U22" s="267"/>
-      <c r="V22" s="268"/>
-      <c r="W22" s="269"/>
-      <c r="X22" s="270"/>
+      <c r="U22" s="218"/>
+      <c r="V22" s="219"/>
+      <c r="W22" s="151"/>
+      <c r="X22" s="152"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -2602,18 +2633,18 @@
         <v>31</v>
       </c>
       <c r="N23" s="50"/>
-      <c r="P23" s="193" t="s">
+      <c r="P23" s="309" t="s">
         <v>50</v>
       </c>
-      <c r="Q23" s="194"/>
+      <c r="Q23" s="310"/>
       <c r="R23" s="87" t="s">
         <v>51</v>
       </c>
       <c r="S23" s="88"/>
-      <c r="U23" s="263"/>
-      <c r="V23" s="264"/>
-      <c r="W23" s="265"/>
-      <c r="X23" s="266"/>
+      <c r="U23" s="216"/>
+      <c r="V23" s="217"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="150"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -2630,16 +2661,16 @@
         <v>28</v>
       </c>
       <c r="N24" s="53"/>
-      <c r="P24" s="195"/>
-      <c r="Q24" s="196"/>
+      <c r="P24" s="311"/>
+      <c r="Q24" s="312"/>
       <c r="R24" s="89" t="s">
         <v>80</v>
       </c>
       <c r="S24" s="90"/>
-      <c r="U24" s="267"/>
-      <c r="V24" s="268"/>
-      <c r="W24" s="269"/>
-      <c r="X24" s="270"/>
+      <c r="U24" s="218"/>
+      <c r="V24" s="219"/>
+      <c r="W24" s="151"/>
+      <c r="X24" s="152"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -2650,26 +2681,26 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="K25" s="249" t="s">
+      <c r="K25" s="313" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="250"/>
+      <c r="L25" s="314"/>
       <c r="M25" s="54" t="s">
         <v>29</v>
       </c>
       <c r="N25" s="55"/>
-      <c r="P25" s="209" t="s">
+      <c r="P25" s="305" t="s">
         <v>13</v>
       </c>
-      <c r="Q25" s="210"/>
+      <c r="Q25" s="306"/>
       <c r="R25" s="83" t="s">
         <v>77</v>
       </c>
       <c r="S25" s="84"/>
-      <c r="U25" s="271"/>
-      <c r="V25" s="272"/>
-      <c r="W25" s="273"/>
-      <c r="X25" s="274"/>
+      <c r="U25" s="248"/>
+      <c r="V25" s="249"/>
+      <c r="W25" s="153"/>
+      <c r="X25" s="154"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -2686,16 +2717,16 @@
         <v>30</v>
       </c>
       <c r="N26" s="58"/>
-      <c r="P26" s="211"/>
-      <c r="Q26" s="212"/>
+      <c r="P26" s="307"/>
+      <c r="Q26" s="308"/>
       <c r="R26" s="85" t="s">
         <v>78</v>
       </c>
       <c r="S26" s="86"/>
-      <c r="U26" s="275"/>
-      <c r="V26" s="276"/>
-      <c r="W26" s="277"/>
-      <c r="X26" s="278"/>
+      <c r="U26" s="250"/>
+      <c r="V26" s="251"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="156"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -2730,10 +2761,10 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="K28" s="185" t="s">
+      <c r="K28" s="287" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="186"/>
+      <c r="L28" s="288"/>
       <c r="M28" s="62" t="s">
         <v>34</v>
       </c>
@@ -2756,8 +2787,8 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="K29" s="185"/>
-      <c r="L29" s="186"/>
+      <c r="K29" s="287"/>
+      <c r="L29" s="288"/>
       <c r="M29" s="62" t="s">
         <v>35</v>
       </c>
@@ -2828,10 +2859,10 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="K32" s="191" t="s">
+      <c r="K32" s="256" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="257"/>
+      <c r="L32" s="264"/>
       <c r="M32" s="21" t="s">
         <v>38</v>
       </c>
@@ -2907,10 +2938,10 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="K35" s="221" t="s">
+      <c r="K35" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="222"/>
+      <c r="L35" s="259"/>
       <c r="M35" s="139" t="s">
         <v>42</v>
       </c>
@@ -2949,26 +2980,26 @@
       <c r="X36" s="1"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="258">
+      <c r="B37" s="203">
         <v>2020</v>
       </c>
-      <c r="C37" s="258"/>
-      <c r="G37" s="258">
+      <c r="C37" s="203"/>
+      <c r="G37" s="203">
         <v>2020</v>
       </c>
-      <c r="H37" s="258"/>
-      <c r="L37" s="258">
+      <c r="H37" s="203"/>
+      <c r="L37" s="203">
         <v>2020</v>
       </c>
-      <c r="M37" s="258"/>
-      <c r="Q37" s="258">
+      <c r="M37" s="203"/>
+      <c r="Q37" s="203">
         <v>2020</v>
       </c>
-      <c r="R37" s="258"/>
-      <c r="V37" s="258">
+      <c r="R37" s="203"/>
+      <c r="V37" s="203">
         <v>2020</v>
       </c>
-      <c r="W37" s="258"/>
+      <c r="W37" s="203"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -2985,18 +3016,18 @@
         <v>39</v>
       </c>
       <c r="N38" s="4"/>
-      <c r="P38" s="201" t="s">
+      <c r="P38" s="269" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="202"/>
+      <c r="Q38" s="270"/>
       <c r="R38" s="68" t="s">
         <v>48</v>
       </c>
       <c r="S38" s="67"/>
-      <c r="U38" s="263"/>
-      <c r="V38" s="264"/>
-      <c r="W38" s="265"/>
-      <c r="X38" s="266"/>
+      <c r="U38" s="216"/>
+      <c r="V38" s="217"/>
+      <c r="W38" s="149"/>
+      <c r="X38" s="150"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -3007,24 +3038,24 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="K39" s="259" t="s">
+      <c r="K39" s="260" t="s">
         <v>0</v>
       </c>
-      <c r="L39" s="260"/>
+      <c r="L39" s="261"/>
       <c r="M39" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N39" s="6"/>
-      <c r="P39" s="203"/>
-      <c r="Q39" s="204"/>
+      <c r="P39" s="271"/>
+      <c r="Q39" s="272"/>
       <c r="R39" s="70" t="s">
         <v>49</v>
       </c>
       <c r="S39" s="69"/>
-      <c r="U39" s="267"/>
-      <c r="V39" s="268"/>
-      <c r="W39" s="269"/>
-      <c r="X39" s="270"/>
+      <c r="U39" s="218"/>
+      <c r="V39" s="219"/>
+      <c r="W39" s="151"/>
+      <c r="X39" s="152"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -3041,18 +3072,18 @@
         <v>84</v>
       </c>
       <c r="N40" s="9"/>
-      <c r="P40" s="213" t="s">
+      <c r="P40" s="273" t="s">
         <v>52</v>
       </c>
-      <c r="Q40" s="214"/>
+      <c r="Q40" s="274"/>
       <c r="R40" s="71" t="s">
         <v>53</v>
       </c>
       <c r="S40" s="72"/>
-      <c r="U40" s="271"/>
-      <c r="V40" s="272"/>
-      <c r="W40" s="273"/>
-      <c r="X40" s="274"/>
+      <c r="U40" s="248"/>
+      <c r="V40" s="249"/>
+      <c r="W40" s="153"/>
+      <c r="X40" s="154"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -3069,16 +3100,16 @@
         <v>26</v>
       </c>
       <c r="N41" s="12"/>
-      <c r="P41" s="215"/>
-      <c r="Q41" s="216"/>
+      <c r="P41" s="275"/>
+      <c r="Q41" s="276"/>
       <c r="R41" s="73" t="s">
         <v>80</v>
       </c>
       <c r="S41" s="74"/>
-      <c r="U41" s="275"/>
-      <c r="V41" s="276"/>
-      <c r="W41" s="277"/>
-      <c r="X41" s="278"/>
+      <c r="U41" s="250"/>
+      <c r="V41" s="251"/>
+      <c r="W41" s="155"/>
+      <c r="X41" s="156"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -3089,26 +3120,26 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="K42" s="255" t="s">
+      <c r="K42" s="262" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="256"/>
+      <c r="L42" s="263"/>
       <c r="M42" s="13" t="s">
         <v>8</v>
       </c>
       <c r="N42" s="14"/>
-      <c r="P42" s="217" t="s">
+      <c r="P42" s="277" t="s">
         <v>55</v>
       </c>
-      <c r="Q42" s="218"/>
+      <c r="Q42" s="278"/>
       <c r="R42" s="75" t="s">
         <v>56</v>
       </c>
       <c r="S42" s="76"/>
-      <c r="U42" s="263"/>
-      <c r="V42" s="264"/>
-      <c r="W42" s="265"/>
-      <c r="X42" s="266"/>
+      <c r="U42" s="216"/>
+      <c r="V42" s="217"/>
+      <c r="W42" s="149"/>
+      <c r="X42" s="150"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -3125,16 +3156,16 @@
         <v>87</v>
       </c>
       <c r="N43" s="17"/>
-      <c r="P43" s="219"/>
-      <c r="Q43" s="220"/>
+      <c r="P43" s="279"/>
+      <c r="Q43" s="280"/>
       <c r="R43" s="77" t="s">
         <v>57</v>
       </c>
       <c r="S43" s="78"/>
-      <c r="U43" s="267"/>
-      <c r="V43" s="268"/>
-      <c r="W43" s="269"/>
-      <c r="X43" s="270"/>
+      <c r="U43" s="218"/>
+      <c r="V43" s="219"/>
+      <c r="W43" s="151"/>
+      <c r="X43" s="152"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
@@ -3151,18 +3182,18 @@
         <v>37</v>
       </c>
       <c r="N44" s="20"/>
-      <c r="P44" s="165" t="s">
+      <c r="P44" s="293" t="s">
         <v>58</v>
       </c>
-      <c r="Q44" s="166"/>
+      <c r="Q44" s="294"/>
       <c r="R44" s="18" t="s">
         <v>61</v>
       </c>
       <c r="S44" s="20"/>
-      <c r="U44" s="263"/>
-      <c r="V44" s="264"/>
-      <c r="W44" s="279"/>
-      <c r="X44" s="266"/>
+      <c r="U44" s="216"/>
+      <c r="V44" s="217"/>
+      <c r="W44" s="157"/>
+      <c r="X44" s="150"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
@@ -3173,24 +3204,24 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="K45" s="191" t="s">
+      <c r="K45" s="256" t="s">
         <v>9</v>
       </c>
-      <c r="L45" s="257"/>
+      <c r="L45" s="264"/>
       <c r="M45" s="21" t="s">
         <v>11</v>
       </c>
       <c r="N45" s="22"/>
-      <c r="P45" s="167"/>
-      <c r="Q45" s="168"/>
+      <c r="P45" s="295"/>
+      <c r="Q45" s="296"/>
       <c r="R45" s="23" t="s">
         <v>59</v>
       </c>
       <c r="S45" s="25"/>
-      <c r="U45" s="267"/>
-      <c r="V45" s="268"/>
-      <c r="W45" s="284"/>
-      <c r="X45" s="270"/>
+      <c r="U45" s="218"/>
+      <c r="V45" s="219"/>
+      <c r="W45" s="160"/>
+      <c r="X45" s="152"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -3207,18 +3238,18 @@
         <v>15</v>
       </c>
       <c r="N46" s="25"/>
-      <c r="P46" s="201" t="s">
+      <c r="P46" s="269" t="s">
         <v>62</v>
       </c>
-      <c r="Q46" s="202"/>
+      <c r="Q46" s="270"/>
       <c r="R46" s="68" t="s">
         <v>63</v>
       </c>
       <c r="S46" s="67"/>
-      <c r="U46" s="263"/>
-      <c r="V46" s="264"/>
-      <c r="W46" s="265"/>
-      <c r="X46" s="266"/>
+      <c r="U46" s="216"/>
+      <c r="V46" s="217"/>
+      <c r="W46" s="149"/>
+      <c r="X46" s="150"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -3235,16 +3266,16 @@
         <v>14</v>
       </c>
       <c r="N47" s="28"/>
-      <c r="P47" s="203"/>
-      <c r="Q47" s="204"/>
+      <c r="P47" s="271"/>
+      <c r="Q47" s="272"/>
       <c r="R47" s="70" t="s">
         <v>64</v>
       </c>
       <c r="S47" s="69"/>
-      <c r="U47" s="267"/>
-      <c r="V47" s="268"/>
-      <c r="W47" s="269"/>
-      <c r="X47" s="270"/>
+      <c r="U47" s="218"/>
+      <c r="V47" s="219"/>
+      <c r="W47" s="151"/>
+      <c r="X47" s="152"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -3255,26 +3286,26 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="K48" s="251" t="s">
+      <c r="K48" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="L48" s="252"/>
+      <c r="L48" s="266"/>
       <c r="M48" s="29" t="s">
         <v>22</v>
       </c>
       <c r="N48" s="30"/>
-      <c r="P48" s="177" t="s">
+      <c r="P48" s="289" t="s">
         <v>65</v>
       </c>
-      <c r="Q48" s="178"/>
+      <c r="Q48" s="290"/>
       <c r="R48" s="27" t="s">
         <v>68</v>
       </c>
       <c r="S48" s="28"/>
-      <c r="U48" s="271"/>
-      <c r="V48" s="272"/>
-      <c r="W48" s="273"/>
-      <c r="X48" s="274"/>
+      <c r="U48" s="248"/>
+      <c r="V48" s="249"/>
+      <c r="W48" s="153"/>
+      <c r="X48" s="154"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
@@ -3291,16 +3322,16 @@
         <v>35</v>
       </c>
       <c r="N49" s="33"/>
-      <c r="P49" s="179"/>
-      <c r="Q49" s="180"/>
+      <c r="P49" s="291"/>
+      <c r="Q49" s="292"/>
       <c r="R49" s="32" t="s">
         <v>92</v>
       </c>
       <c r="S49" s="33"/>
-      <c r="U49" s="275"/>
-      <c r="V49" s="276"/>
-      <c r="W49" s="277"/>
-      <c r="X49" s="278"/>
+      <c r="U49" s="250"/>
+      <c r="V49" s="251"/>
+      <c r="W49" s="155"/>
+      <c r="X49" s="156"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
@@ -3317,18 +3348,18 @@
         <v>18</v>
       </c>
       <c r="N50" s="36"/>
-      <c r="P50" s="205" t="s">
+      <c r="P50" s="301" t="s">
         <v>69</v>
       </c>
-      <c r="Q50" s="206"/>
+      <c r="Q50" s="302"/>
       <c r="R50" s="79" t="s">
         <v>70</v>
       </c>
       <c r="S50" s="80"/>
-      <c r="U50" s="271"/>
-      <c r="V50" s="272"/>
-      <c r="W50" s="273"/>
-      <c r="X50" s="274"/>
+      <c r="U50" s="248"/>
+      <c r="V50" s="249"/>
+      <c r="W50" s="153"/>
+      <c r="X50" s="154"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -3339,24 +3370,24 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="261" t="s">
+      <c r="K51" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="L51" s="262"/>
+      <c r="L51" s="268"/>
       <c r="M51" s="38" t="s">
         <v>81</v>
       </c>
       <c r="N51" s="39"/>
-      <c r="P51" s="207"/>
-      <c r="Q51" s="208"/>
+      <c r="P51" s="303"/>
+      <c r="Q51" s="304"/>
       <c r="R51" s="81" t="s">
         <v>71</v>
       </c>
       <c r="S51" s="82"/>
-      <c r="U51" s="275"/>
-      <c r="V51" s="276"/>
-      <c r="W51" s="277"/>
-      <c r="X51" s="278"/>
+      <c r="U51" s="250"/>
+      <c r="V51" s="251"/>
+      <c r="W51" s="155"/>
+      <c r="X51" s="156"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
@@ -3373,18 +3404,18 @@
         <v>23</v>
       </c>
       <c r="N52" s="42"/>
-      <c r="P52" s="209" t="s">
+      <c r="P52" s="305" t="s">
         <v>72</v>
       </c>
-      <c r="Q52" s="210"/>
+      <c r="Q52" s="306"/>
       <c r="R52" s="83" t="s">
         <v>93</v>
       </c>
       <c r="S52" s="84"/>
-      <c r="U52" s="271"/>
-      <c r="V52" s="272"/>
-      <c r="W52" s="273"/>
-      <c r="X52" s="274"/>
+      <c r="U52" s="248"/>
+      <c r="V52" s="249"/>
+      <c r="W52" s="153"/>
+      <c r="X52" s="154"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -3401,16 +3432,16 @@
         <v>6</v>
       </c>
       <c r="N53" s="45"/>
-      <c r="P53" s="211"/>
-      <c r="Q53" s="212"/>
+      <c r="P53" s="307"/>
+      <c r="Q53" s="308"/>
       <c r="R53" s="85" t="s">
         <v>74</v>
       </c>
       <c r="S53" s="86"/>
-      <c r="U53" s="275"/>
-      <c r="V53" s="276"/>
-      <c r="W53" s="277"/>
-      <c r="X53" s="278"/>
+      <c r="U53" s="250"/>
+      <c r="V53" s="251"/>
+      <c r="W53" s="155"/>
+      <c r="X53" s="156"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
@@ -3421,26 +3452,26 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="247" t="s">
+      <c r="K54" s="281" t="s">
         <v>24</v>
       </c>
-      <c r="L54" s="248"/>
+      <c r="L54" s="282"/>
       <c r="M54" s="46" t="s">
         <v>2</v>
       </c>
       <c r="N54" s="47"/>
-      <c r="P54" s="165" t="s">
+      <c r="P54" s="293" t="s">
         <v>75</v>
       </c>
-      <c r="Q54" s="166"/>
+      <c r="Q54" s="294"/>
       <c r="R54" s="19" t="s">
         <v>89</v>
       </c>
       <c r="S54" s="20"/>
-      <c r="U54" s="263"/>
-      <c r="V54" s="264"/>
-      <c r="W54" s="265"/>
-      <c r="X54" s="266"/>
+      <c r="U54" s="216"/>
+      <c r="V54" s="217"/>
+      <c r="W54" s="149"/>
+      <c r="X54" s="150"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
@@ -3457,16 +3488,16 @@
         <v>142</v>
       </c>
       <c r="N55" s="50"/>
-      <c r="P55" s="167"/>
-      <c r="Q55" s="168"/>
+      <c r="P55" s="295"/>
+      <c r="Q55" s="296"/>
       <c r="R55" s="24" t="s">
         <v>90</v>
       </c>
       <c r="S55" s="25"/>
-      <c r="U55" s="267"/>
-      <c r="V55" s="268"/>
-      <c r="W55" s="269"/>
-      <c r="X55" s="270"/>
+      <c r="U55" s="218"/>
+      <c r="V55" s="219"/>
+      <c r="W55" s="151"/>
+      <c r="X55" s="152"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -3483,18 +3514,18 @@
         <v>28</v>
       </c>
       <c r="N56" s="53"/>
-      <c r="P56" s="193" t="s">
+      <c r="P56" s="309" t="s">
         <v>50</v>
       </c>
-      <c r="Q56" s="194"/>
+      <c r="Q56" s="310"/>
       <c r="R56" s="87" t="s">
         <v>51</v>
       </c>
       <c r="S56" s="88"/>
-      <c r="U56" s="263"/>
-      <c r="V56" s="264"/>
-      <c r="W56" s="265"/>
-      <c r="X56" s="266"/>
+      <c r="U56" s="216"/>
+      <c r="V56" s="217"/>
+      <c r="W56" s="149"/>
+      <c r="X56" s="150"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
@@ -3505,24 +3536,24 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="K57" s="249" t="s">
+      <c r="K57" s="313" t="s">
         <v>27</v>
       </c>
-      <c r="L57" s="250"/>
+      <c r="L57" s="314"/>
       <c r="M57" s="54" t="s">
         <v>19</v>
       </c>
       <c r="N57" s="55"/>
-      <c r="P57" s="195"/>
-      <c r="Q57" s="196"/>
+      <c r="P57" s="311"/>
+      <c r="Q57" s="312"/>
       <c r="R57" s="89" t="s">
         <v>88</v>
       </c>
       <c r="S57" s="90"/>
-      <c r="U57" s="267"/>
-      <c r="V57" s="268"/>
-      <c r="W57" s="269"/>
-      <c r="X57" s="270"/>
+      <c r="U57" s="218"/>
+      <c r="V57" s="219"/>
+      <c r="W57" s="151"/>
+      <c r="X57" s="152"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
@@ -3539,18 +3570,18 @@
         <v>1</v>
       </c>
       <c r="N58" s="58"/>
-      <c r="P58" s="197" t="s">
+      <c r="P58" s="283" t="s">
         <v>94</v>
       </c>
-      <c r="Q58" s="198"/>
+      <c r="Q58" s="284"/>
       <c r="R58" s="96" t="s">
         <v>78</v>
       </c>
       <c r="S58" s="97"/>
-      <c r="U58" s="291"/>
-      <c r="V58" s="292"/>
-      <c r="W58" s="293"/>
-      <c r="X58" s="294"/>
+      <c r="U58" s="220"/>
+      <c r="V58" s="221"/>
+      <c r="W58" s="165"/>
+      <c r="X58" s="166"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
@@ -3567,16 +3598,16 @@
         <v>33</v>
       </c>
       <c r="N59" s="61"/>
-      <c r="P59" s="199"/>
-      <c r="Q59" s="200"/>
+      <c r="P59" s="285"/>
+      <c r="Q59" s="286"/>
       <c r="R59" s="98" t="s">
         <v>66</v>
       </c>
       <c r="S59" s="99"/>
-      <c r="U59" s="295"/>
-      <c r="V59" s="296"/>
-      <c r="W59" s="297"/>
-      <c r="X59" s="298"/>
+      <c r="U59" s="222"/>
+      <c r="V59" s="223"/>
+      <c r="W59" s="167"/>
+      <c r="X59" s="168"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
@@ -3587,26 +3618,26 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="K60" s="185" t="s">
+      <c r="K60" s="287" t="s">
         <v>32</v>
       </c>
-      <c r="L60" s="186"/>
+      <c r="L60" s="288"/>
       <c r="M60" s="62" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="63"/>
-      <c r="P60" s="187" t="s">
+      <c r="P60" s="297" t="s">
         <v>95</v>
       </c>
-      <c r="Q60" s="188"/>
+      <c r="Q60" s="298"/>
       <c r="R60" s="100" t="s">
         <v>96</v>
       </c>
       <c r="S60" s="101"/>
-      <c r="U60" s="263"/>
-      <c r="V60" s="264"/>
-      <c r="W60" s="265"/>
-      <c r="X60" s="266"/>
+      <c r="U60" s="216"/>
+      <c r="V60" s="217"/>
+      <c r="W60" s="149"/>
+      <c r="X60" s="150"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
@@ -3623,16 +3654,16 @@
         <v>85</v>
       </c>
       <c r="N61" s="66"/>
-      <c r="P61" s="189"/>
-      <c r="Q61" s="190"/>
+      <c r="P61" s="299"/>
+      <c r="Q61" s="300"/>
       <c r="R61" s="102" t="s">
         <v>54</v>
       </c>
       <c r="S61" s="103"/>
-      <c r="U61" s="267"/>
-      <c r="V61" s="268"/>
-      <c r="W61" s="269"/>
-      <c r="X61" s="270"/>
+      <c r="U61" s="218"/>
+      <c r="V61" s="219"/>
+      <c r="W61" s="151"/>
+      <c r="X61" s="152"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
@@ -3667,10 +3698,10 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="K63" s="191" t="s">
+      <c r="K63" s="256" t="s">
         <v>36</v>
       </c>
-      <c r="L63" s="192"/>
+      <c r="L63" s="257"/>
       <c r="M63" s="93" t="s">
         <v>43</v>
       </c>
@@ -3741,10 +3772,10 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="K66" s="221" t="s">
+      <c r="K66" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="L66" s="222"/>
+      <c r="L66" s="259"/>
       <c r="M66" s="139" t="s">
         <v>42</v>
       </c>
@@ -3783,26 +3814,26 @@
       <c r="X67" s="1"/>
     </row>
     <row r="68" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="258">
+      <c r="B68" s="203">
         <v>2021</v>
       </c>
-      <c r="C68" s="258"/>
-      <c r="G68" s="258">
+      <c r="C68" s="203"/>
+      <c r="G68" s="203">
         <v>2021</v>
       </c>
-      <c r="H68" s="258"/>
-      <c r="L68" s="258">
+      <c r="H68" s="203"/>
+      <c r="L68" s="203">
         <v>2021</v>
       </c>
-      <c r="M68" s="258"/>
-      <c r="Q68" s="258">
+      <c r="M68" s="203"/>
+      <c r="Q68" s="203">
         <v>2021</v>
       </c>
-      <c r="R68" s="258"/>
-      <c r="V68" s="258">
+      <c r="R68" s="203"/>
+      <c r="V68" s="203">
         <v>2021</v>
       </c>
-      <c r="W68" s="258"/>
+      <c r="W68" s="203"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
@@ -3819,18 +3850,18 @@
         <v>104</v>
       </c>
       <c r="N69" s="4"/>
-      <c r="P69" s="201" t="s">
+      <c r="P69" s="269" t="s">
         <v>47</v>
       </c>
-      <c r="Q69" s="202"/>
+      <c r="Q69" s="270"/>
       <c r="R69" s="68" t="s">
         <v>48</v>
       </c>
       <c r="S69" s="67"/>
-      <c r="U69" s="263"/>
-      <c r="V69" s="264"/>
-      <c r="W69" s="265"/>
-      <c r="X69" s="266"/>
+      <c r="U69" s="216"/>
+      <c r="V69" s="217"/>
+      <c r="W69" s="149"/>
+      <c r="X69" s="150"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
@@ -3841,24 +3872,24 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="K70" s="259" t="s">
+      <c r="K70" s="260" t="s">
         <v>0</v>
       </c>
-      <c r="L70" s="260"/>
+      <c r="L70" s="261"/>
       <c r="M70" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N70" s="6"/>
-      <c r="P70" s="203"/>
-      <c r="Q70" s="204"/>
+      <c r="P70" s="271"/>
+      <c r="Q70" s="272"/>
       <c r="R70" s="70" t="s">
         <v>103</v>
       </c>
       <c r="S70" s="69"/>
-      <c r="U70" s="267"/>
-      <c r="V70" s="268"/>
-      <c r="W70" s="269"/>
-      <c r="X70" s="270"/>
+      <c r="U70" s="218"/>
+      <c r="V70" s="219"/>
+      <c r="W70" s="151"/>
+      <c r="X70" s="152"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
@@ -3875,18 +3906,18 @@
         <v>84</v>
       </c>
       <c r="N71" s="9"/>
-      <c r="P71" s="213" t="s">
+      <c r="P71" s="273" t="s">
         <v>52</v>
       </c>
-      <c r="Q71" s="214"/>
+      <c r="Q71" s="274"/>
       <c r="R71" s="71" t="s">
         <v>53</v>
       </c>
       <c r="S71" s="72"/>
-      <c r="U71" s="271"/>
-      <c r="V71" s="272"/>
-      <c r="W71" s="273"/>
-      <c r="X71" s="274"/>
+      <c r="U71" s="248"/>
+      <c r="V71" s="249"/>
+      <c r="W71" s="153"/>
+      <c r="X71" s="154"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
@@ -3903,16 +3934,16 @@
         <v>6</v>
       </c>
       <c r="N72" s="12"/>
-      <c r="P72" s="215"/>
-      <c r="Q72" s="216"/>
+      <c r="P72" s="275"/>
+      <c r="Q72" s="276"/>
       <c r="R72" s="73" t="s">
         <v>80</v>
       </c>
       <c r="S72" s="74"/>
-      <c r="U72" s="275"/>
-      <c r="V72" s="276"/>
-      <c r="W72" s="277"/>
-      <c r="X72" s="278"/>
+      <c r="U72" s="250"/>
+      <c r="V72" s="251"/>
+      <c r="W72" s="155"/>
+      <c r="X72" s="156"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
@@ -3923,26 +3954,26 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="K73" s="255" t="s">
+      <c r="K73" s="262" t="s">
         <v>5</v>
       </c>
-      <c r="L73" s="256"/>
+      <c r="L73" s="263"/>
       <c r="M73" s="13" t="s">
         <v>8</v>
       </c>
       <c r="N73" s="14"/>
-      <c r="P73" s="217" t="s">
+      <c r="P73" s="277" t="s">
         <v>55</v>
       </c>
-      <c r="Q73" s="218"/>
+      <c r="Q73" s="278"/>
       <c r="R73" s="75" t="s">
         <v>56</v>
       </c>
       <c r="S73" s="76"/>
-      <c r="U73" s="263"/>
-      <c r="V73" s="264"/>
-      <c r="W73" s="265"/>
-      <c r="X73" s="266"/>
+      <c r="U73" s="216"/>
+      <c r="V73" s="217"/>
+      <c r="W73" s="149"/>
+      <c r="X73" s="150"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
@@ -3959,16 +3990,16 @@
         <v>12</v>
       </c>
       <c r="N74" s="17"/>
-      <c r="P74" s="219"/>
-      <c r="Q74" s="220"/>
+      <c r="P74" s="279"/>
+      <c r="Q74" s="280"/>
       <c r="R74" s="77" t="s">
         <v>49</v>
       </c>
       <c r="S74" s="78"/>
-      <c r="U74" s="267"/>
-      <c r="V74" s="268"/>
-      <c r="W74" s="269"/>
-      <c r="X74" s="270"/>
+      <c r="U74" s="218"/>
+      <c r="V74" s="219"/>
+      <c r="W74" s="151"/>
+      <c r="X74" s="152"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
@@ -3985,18 +4016,18 @@
         <v>37</v>
       </c>
       <c r="N75" s="20"/>
-      <c r="P75" s="165" t="s">
+      <c r="P75" s="293" t="s">
         <v>58</v>
       </c>
-      <c r="Q75" s="166"/>
+      <c r="Q75" s="294"/>
       <c r="R75" s="18" t="s">
         <v>61</v>
       </c>
       <c r="S75" s="20"/>
-      <c r="U75" s="263"/>
-      <c r="V75" s="264"/>
-      <c r="W75" s="279"/>
-      <c r="X75" s="266"/>
+      <c r="U75" s="216"/>
+      <c r="V75" s="217"/>
+      <c r="W75" s="157"/>
+      <c r="X75" s="150"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
@@ -4007,24 +4038,24 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="K76" s="191" t="s">
+      <c r="K76" s="256" t="s">
         <v>9</v>
       </c>
-      <c r="L76" s="257"/>
+      <c r="L76" s="264"/>
       <c r="M76" s="21" t="s">
         <v>11</v>
       </c>
       <c r="N76" s="22"/>
-      <c r="P76" s="167"/>
-      <c r="Q76" s="168"/>
+      <c r="P76" s="295"/>
+      <c r="Q76" s="296"/>
       <c r="R76" s="23" t="s">
         <v>59</v>
       </c>
       <c r="S76" s="25"/>
-      <c r="U76" s="267"/>
-      <c r="V76" s="268"/>
-      <c r="W76" s="284"/>
-      <c r="X76" s="270"/>
+      <c r="U76" s="218"/>
+      <c r="V76" s="219"/>
+      <c r="W76" s="160"/>
+      <c r="X76" s="152"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
@@ -4041,18 +4072,18 @@
         <v>15</v>
       </c>
       <c r="N77" s="25"/>
-      <c r="P77" s="201" t="s">
+      <c r="P77" s="269" t="s">
         <v>62</v>
       </c>
-      <c r="Q77" s="202"/>
+      <c r="Q77" s="270"/>
       <c r="R77" s="68" t="s">
         <v>63</v>
       </c>
       <c r="S77" s="67"/>
-      <c r="U77" s="263"/>
-      <c r="V77" s="264"/>
-      <c r="W77" s="265"/>
-      <c r="X77" s="266"/>
+      <c r="U77" s="216"/>
+      <c r="V77" s="217"/>
+      <c r="W77" s="149"/>
+      <c r="X77" s="150"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
@@ -4069,16 +4100,16 @@
         <v>14</v>
       </c>
       <c r="N78" s="28"/>
-      <c r="P78" s="203"/>
-      <c r="Q78" s="204"/>
+      <c r="P78" s="271"/>
+      <c r="Q78" s="272"/>
       <c r="R78" s="70" t="s">
         <v>64</v>
       </c>
       <c r="S78" s="69"/>
-      <c r="U78" s="267"/>
-      <c r="V78" s="268"/>
-      <c r="W78" s="269"/>
-      <c r="X78" s="270"/>
+      <c r="U78" s="218"/>
+      <c r="V78" s="219"/>
+      <c r="W78" s="151"/>
+      <c r="X78" s="152"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
@@ -4089,26 +4120,26 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="K79" s="251" t="s">
+      <c r="K79" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="L79" s="252"/>
+      <c r="L79" s="266"/>
       <c r="M79" s="29" t="s">
         <v>22</v>
       </c>
       <c r="N79" s="30"/>
-      <c r="P79" s="177" t="s">
+      <c r="P79" s="289" t="s">
         <v>65</v>
       </c>
-      <c r="Q79" s="178"/>
+      <c r="Q79" s="290"/>
       <c r="R79" s="27" t="s">
         <v>68</v>
       </c>
       <c r="S79" s="28"/>
-      <c r="U79" s="271"/>
-      <c r="V79" s="272"/>
-      <c r="W79" s="273"/>
-      <c r="X79" s="274"/>
+      <c r="U79" s="248"/>
+      <c r="V79" s="249"/>
+      <c r="W79" s="153"/>
+      <c r="X79" s="154"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
@@ -4125,16 +4156,16 @@
         <v>35</v>
       </c>
       <c r="N80" s="33"/>
-      <c r="P80" s="179"/>
-      <c r="Q80" s="180"/>
+      <c r="P80" s="291"/>
+      <c r="Q80" s="292"/>
       <c r="R80" s="32" t="s">
         <v>92</v>
       </c>
       <c r="S80" s="33"/>
-      <c r="U80" s="275"/>
-      <c r="V80" s="276"/>
-      <c r="W80" s="277"/>
-      <c r="X80" s="278"/>
+      <c r="U80" s="250"/>
+      <c r="V80" s="251"/>
+      <c r="W80" s="155"/>
+      <c r="X80" s="156"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
@@ -4151,18 +4182,18 @@
         <v>100</v>
       </c>
       <c r="N81" s="36"/>
-      <c r="P81" s="205" t="s">
+      <c r="P81" s="301" t="s">
         <v>69</v>
       </c>
-      <c r="Q81" s="206"/>
+      <c r="Q81" s="302"/>
       <c r="R81" s="79" t="s">
         <v>70</v>
       </c>
       <c r="S81" s="80"/>
-      <c r="U81" s="271"/>
-      <c r="V81" s="272"/>
-      <c r="W81" s="273"/>
-      <c r="X81" s="274"/>
+      <c r="U81" s="248"/>
+      <c r="V81" s="249"/>
+      <c r="W81" s="153"/>
+      <c r="X81" s="154"/>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
@@ -4173,24 +4204,24 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="K82" s="261" t="s">
+      <c r="K82" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="L82" s="262"/>
+      <c r="L82" s="268"/>
       <c r="M82" s="38" t="s">
         <v>81</v>
       </c>
       <c r="N82" s="39"/>
-      <c r="P82" s="207"/>
-      <c r="Q82" s="208"/>
+      <c r="P82" s="303"/>
+      <c r="Q82" s="304"/>
       <c r="R82" s="81" t="s">
         <v>71</v>
       </c>
       <c r="S82" s="82"/>
-      <c r="U82" s="275"/>
-      <c r="V82" s="276"/>
-      <c r="W82" s="277"/>
-      <c r="X82" s="278"/>
+      <c r="U82" s="250"/>
+      <c r="V82" s="251"/>
+      <c r="W82" s="155"/>
+      <c r="X82" s="156"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -4207,18 +4238,18 @@
         <v>23</v>
       </c>
       <c r="N83" s="42"/>
-      <c r="P83" s="209" t="s">
+      <c r="P83" s="305" t="s">
         <v>72</v>
       </c>
-      <c r="Q83" s="210"/>
+      <c r="Q83" s="306"/>
       <c r="R83" s="83" t="s">
         <v>39</v>
       </c>
       <c r="S83" s="84"/>
-      <c r="U83" s="271"/>
-      <c r="V83" s="272"/>
-      <c r="W83" s="273"/>
-      <c r="X83" s="274"/>
+      <c r="U83" s="248"/>
+      <c r="V83" s="249"/>
+      <c r="W83" s="153"/>
+      <c r="X83" s="154"/>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
@@ -4235,16 +4266,16 @@
         <v>26</v>
       </c>
       <c r="N84" s="45"/>
-      <c r="P84" s="211"/>
-      <c r="Q84" s="212"/>
+      <c r="P84" s="307"/>
+      <c r="Q84" s="308"/>
       <c r="R84" s="85" t="s">
         <v>74</v>
       </c>
       <c r="S84" s="86"/>
-      <c r="U84" s="275"/>
-      <c r="V84" s="276"/>
-      <c r="W84" s="277"/>
-      <c r="X84" s="278"/>
+      <c r="U84" s="250"/>
+      <c r="V84" s="251"/>
+      <c r="W84" s="155"/>
+      <c r="X84" s="156"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
@@ -4255,26 +4286,26 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="K85" s="247" t="s">
+      <c r="K85" s="281" t="s">
         <v>24</v>
       </c>
-      <c r="L85" s="248"/>
+      <c r="L85" s="282"/>
       <c r="M85" s="46" t="s">
         <v>2</v>
       </c>
       <c r="N85" s="47"/>
-      <c r="P85" s="165" t="s">
+      <c r="P85" s="293" t="s">
         <v>75</v>
       </c>
-      <c r="Q85" s="166"/>
+      <c r="Q85" s="294"/>
       <c r="R85" s="19" t="s">
         <v>89</v>
       </c>
       <c r="S85" s="20"/>
-      <c r="U85" s="263"/>
-      <c r="V85" s="264"/>
-      <c r="W85" s="265"/>
-      <c r="X85" s="266"/>
+      <c r="U85" s="216"/>
+      <c r="V85" s="217"/>
+      <c r="W85" s="149"/>
+      <c r="X85" s="150"/>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
@@ -4291,16 +4322,16 @@
         <v>101</v>
       </c>
       <c r="N86" s="50"/>
-      <c r="P86" s="167"/>
-      <c r="Q86" s="168"/>
+      <c r="P86" s="295"/>
+      <c r="Q86" s="296"/>
       <c r="R86" s="24" t="s">
         <v>90</v>
       </c>
       <c r="S86" s="25"/>
-      <c r="U86" s="267"/>
-      <c r="V86" s="268"/>
-      <c r="W86" s="269"/>
-      <c r="X86" s="270"/>
+      <c r="U86" s="218"/>
+      <c r="V86" s="219"/>
+      <c r="W86" s="151"/>
+      <c r="X86" s="152"/>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
@@ -4317,18 +4348,18 @@
         <v>28</v>
       </c>
       <c r="N87" s="53"/>
-      <c r="P87" s="193" t="s">
+      <c r="P87" s="309" t="s">
         <v>50</v>
       </c>
-      <c r="Q87" s="194"/>
+      <c r="Q87" s="310"/>
       <c r="R87" s="87" t="s">
         <v>51</v>
       </c>
       <c r="S87" s="88"/>
-      <c r="U87" s="263"/>
-      <c r="V87" s="264"/>
-      <c r="W87" s="265"/>
-      <c r="X87" s="266"/>
+      <c r="U87" s="216"/>
+      <c r="V87" s="217"/>
+      <c r="W87" s="149"/>
+      <c r="X87" s="150"/>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
@@ -4339,24 +4370,24 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="K88" s="249" t="s">
+      <c r="K88" s="313" t="s">
         <v>27</v>
       </c>
-      <c r="L88" s="250"/>
+      <c r="L88" s="314"/>
       <c r="M88" s="54" t="s">
         <v>19</v>
       </c>
       <c r="N88" s="55"/>
-      <c r="P88" s="195"/>
-      <c r="Q88" s="196"/>
+      <c r="P88" s="311"/>
+      <c r="Q88" s="312"/>
       <c r="R88" s="89" t="s">
         <v>88</v>
       </c>
       <c r="S88" s="90"/>
-      <c r="U88" s="267"/>
-      <c r="V88" s="268"/>
-      <c r="W88" s="269"/>
-      <c r="X88" s="270"/>
+      <c r="U88" s="218"/>
+      <c r="V88" s="219"/>
+      <c r="W88" s="151"/>
+      <c r="X88" s="152"/>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
@@ -4373,18 +4404,18 @@
         <v>1</v>
       </c>
       <c r="N89" s="58"/>
-      <c r="P89" s="197" t="s">
+      <c r="P89" s="283" t="s">
         <v>94</v>
       </c>
-      <c r="Q89" s="198"/>
+      <c r="Q89" s="284"/>
       <c r="R89" s="96" t="s">
         <v>102</v>
       </c>
       <c r="S89" s="97"/>
-      <c r="U89" s="291"/>
-      <c r="V89" s="292"/>
-      <c r="W89" s="293"/>
-      <c r="X89" s="294"/>
+      <c r="U89" s="220"/>
+      <c r="V89" s="221"/>
+      <c r="W89" s="165"/>
+      <c r="X89" s="166"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
@@ -4401,16 +4432,16 @@
         <v>33</v>
       </c>
       <c r="N90" s="61"/>
-      <c r="P90" s="199"/>
-      <c r="Q90" s="200"/>
+      <c r="P90" s="285"/>
+      <c r="Q90" s="286"/>
       <c r="R90" s="98" t="s">
         <v>66</v>
       </c>
       <c r="S90" s="99"/>
-      <c r="U90" s="295"/>
-      <c r="V90" s="296"/>
-      <c r="W90" s="297"/>
-      <c r="X90" s="298"/>
+      <c r="U90" s="222"/>
+      <c r="V90" s="223"/>
+      <c r="W90" s="167"/>
+      <c r="X90" s="168"/>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
@@ -4421,26 +4452,26 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="K91" s="185" t="s">
+      <c r="K91" s="287" t="s">
         <v>32</v>
       </c>
-      <c r="L91" s="186"/>
+      <c r="L91" s="288"/>
       <c r="M91" s="62" t="s">
         <v>34</v>
       </c>
       <c r="N91" s="63"/>
-      <c r="P91" s="187" t="s">
+      <c r="P91" s="297" t="s">
         <v>95</v>
       </c>
-      <c r="Q91" s="188"/>
+      <c r="Q91" s="298"/>
       <c r="R91" s="100" t="s">
         <v>78</v>
       </c>
       <c r="S91" s="101"/>
-      <c r="U91" s="263"/>
-      <c r="V91" s="264"/>
-      <c r="W91" s="265"/>
-      <c r="X91" s="266"/>
+      <c r="U91" s="216"/>
+      <c r="V91" s="217"/>
+      <c r="W91" s="149"/>
+      <c r="X91" s="150"/>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
@@ -4457,16 +4488,16 @@
         <v>25</v>
       </c>
       <c r="N92" s="66"/>
-      <c r="P92" s="189"/>
-      <c r="Q92" s="190"/>
+      <c r="P92" s="299"/>
+      <c r="Q92" s="300"/>
       <c r="R92" s="102" t="s">
         <v>54</v>
       </c>
       <c r="S92" s="103"/>
-      <c r="U92" s="267"/>
-      <c r="V92" s="268"/>
-      <c r="W92" s="269"/>
-      <c r="X92" s="270"/>
+      <c r="U92" s="218"/>
+      <c r="V92" s="219"/>
+      <c r="W92" s="151"/>
+      <c r="X92" s="152"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
@@ -4501,10 +4532,10 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="K94" s="191" t="s">
+      <c r="K94" s="256" t="s">
         <v>36</v>
       </c>
-      <c r="L94" s="192"/>
+      <c r="L94" s="257"/>
       <c r="M94" s="93" t="s">
         <v>43</v>
       </c>
@@ -4575,10 +4606,10 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="K97" s="221" t="s">
+      <c r="K97" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="L97" s="222"/>
+      <c r="L97" s="259"/>
       <c r="M97" s="139" t="s">
         <v>42</v>
       </c>
@@ -4617,40 +4648,40 @@
       <c r="X98" s="1"/>
     </row>
     <row r="99" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="258">
+      <c r="B99" s="203">
         <v>2022</v>
       </c>
-      <c r="C99" s="258"/>
-      <c r="G99" s="258">
+      <c r="C99" s="203"/>
+      <c r="G99" s="203">
         <v>2022</v>
       </c>
-      <c r="H99" s="258"/>
-      <c r="L99" s="258">
+      <c r="H99" s="203"/>
+      <c r="L99" s="203">
         <v>2022</v>
       </c>
-      <c r="M99" s="258"/>
-      <c r="Q99" s="258">
+      <c r="M99" s="203"/>
+      <c r="Q99" s="203">
         <v>2022</v>
       </c>
-      <c r="R99" s="258"/>
-      <c r="V99" s="258">
+      <c r="R99" s="203"/>
+      <c r="V99" s="203">
         <v>2022</v>
       </c>
-      <c r="W99" s="258"/>
+      <c r="W99" s="203"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A100" s="223" t="s">
+      <c r="A100" s="232" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="224"/>
+      <c r="B100" s="233"/>
       <c r="C100" s="104" t="s">
         <v>106</v>
       </c>
       <c r="D100" s="105"/>
-      <c r="F100" s="243" t="s">
+      <c r="F100" s="339" t="s">
         <v>40</v>
       </c>
-      <c r="G100" s="244"/>
+      <c r="G100" s="340"/>
       <c r="H100" s="144" t="s">
         <v>130</v>
       </c>
@@ -4661,70 +4692,70 @@
         <v>104</v>
       </c>
       <c r="N100" s="4"/>
-      <c r="P100" s="201" t="s">
+      <c r="P100" s="269" t="s">
         <v>47</v>
       </c>
-      <c r="Q100" s="202"/>
+      <c r="Q100" s="270"/>
       <c r="R100" s="68" t="s">
         <v>103</v>
       </c>
       <c r="S100" s="67"/>
-      <c r="U100" s="299" t="s">
+      <c r="U100" s="228" t="s">
         <v>47</v>
       </c>
-      <c r="V100" s="300"/>
-      <c r="W100" s="303" t="s">
+      <c r="V100" s="229"/>
+      <c r="W100" s="169" t="s">
         <v>168</v>
       </c>
-      <c r="X100" s="304"/>
+      <c r="X100" s="170"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A101" s="225"/>
-      <c r="B101" s="226"/>
+      <c r="A101" s="234"/>
+      <c r="B101" s="235"/>
       <c r="C101" s="106" t="s">
         <v>107</v>
       </c>
       <c r="D101" s="107"/>
-      <c r="F101" s="245"/>
-      <c r="G101" s="246"/>
+      <c r="F101" s="341"/>
+      <c r="G101" s="342"/>
       <c r="H101" s="143" t="s">
         <v>131</v>
       </c>
       <c r="I101" s="142"/>
-      <c r="K101" s="259" t="s">
+      <c r="K101" s="260" t="s">
         <v>0</v>
       </c>
-      <c r="L101" s="260"/>
+      <c r="L101" s="261"/>
       <c r="M101" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N101" s="6"/>
-      <c r="P101" s="203"/>
-      <c r="Q101" s="204"/>
+      <c r="P101" s="271"/>
+      <c r="Q101" s="272"/>
       <c r="R101" s="70" t="s">
         <v>66</v>
       </c>
       <c r="S101" s="69"/>
-      <c r="U101" s="301"/>
-      <c r="V101" s="302"/>
-      <c r="W101" s="305" t="s">
+      <c r="U101" s="230"/>
+      <c r="V101" s="231"/>
+      <c r="W101" s="171" t="s">
         <v>165</v>
       </c>
-      <c r="X101" s="306"/>
+      <c r="X101" s="172"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A102" s="227" t="s">
+      <c r="A102" s="315" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="228"/>
+      <c r="B102" s="316"/>
       <c r="C102" s="111" t="s">
         <v>109</v>
       </c>
       <c r="D102" s="109"/>
-      <c r="F102" s="173" t="s">
+      <c r="F102" s="357" t="s">
         <v>0</v>
       </c>
-      <c r="G102" s="174"/>
+      <c r="G102" s="358"/>
       <c r="H102" s="3" t="s">
         <v>26</v>
       </c>
@@ -4735,32 +4766,32 @@
         <v>6</v>
       </c>
       <c r="N102" s="9"/>
-      <c r="P102" s="213" t="s">
+      <c r="P102" s="273" t="s">
         <v>52</v>
       </c>
-      <c r="Q102" s="214"/>
+      <c r="Q102" s="274"/>
       <c r="R102" s="71" t="s">
         <v>53</v>
       </c>
       <c r="S102" s="72"/>
-      <c r="U102" s="223" t="s">
+      <c r="U102" s="232" t="s">
         <v>105</v>
       </c>
-      <c r="V102" s="224"/>
+      <c r="V102" s="233"/>
       <c r="W102" s="104" t="s">
         <v>176</v>
       </c>
       <c r="X102" s="105"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A103" s="229"/>
-      <c r="B103" s="230"/>
+      <c r="A103" s="317"/>
+      <c r="B103" s="318"/>
       <c r="C103" s="112" t="s">
         <v>110</v>
       </c>
       <c r="D103" s="110"/>
-      <c r="F103" s="175"/>
-      <c r="G103" s="176"/>
+      <c r="F103" s="359"/>
+      <c r="G103" s="360"/>
       <c r="H103" s="8" t="s">
         <v>28</v>
       </c>
@@ -4771,70 +4802,70 @@
         <v>8</v>
       </c>
       <c r="N103" s="12"/>
-      <c r="P103" s="215"/>
-      <c r="Q103" s="216"/>
+      <c r="P103" s="275"/>
+      <c r="Q103" s="276"/>
       <c r="R103" s="73" t="s">
         <v>80</v>
       </c>
       <c r="S103" s="74"/>
-      <c r="U103" s="225"/>
-      <c r="V103" s="226"/>
+      <c r="U103" s="234"/>
+      <c r="V103" s="235"/>
       <c r="W103" s="106" t="s">
         <v>177</v>
       </c>
       <c r="X103" s="107"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A104" s="197" t="s">
+      <c r="A104" s="283" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="198"/>
+      <c r="B104" s="284"/>
       <c r="C104" s="96" t="s">
         <v>111</v>
       </c>
       <c r="D104" s="97"/>
-      <c r="F104" s="177" t="s">
+      <c r="F104" s="289" t="s">
         <v>132</v>
       </c>
-      <c r="G104" s="178"/>
+      <c r="G104" s="290"/>
       <c r="H104" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I104" s="28"/>
-      <c r="K104" s="255" t="s">
+      <c r="K104" s="262" t="s">
         <v>5</v>
       </c>
-      <c r="L104" s="256"/>
+      <c r="L104" s="263"/>
       <c r="M104" s="13" t="s">
         <v>12</v>
       </c>
       <c r="N104" s="14"/>
-      <c r="P104" s="217" t="s">
+      <c r="P104" s="277" t="s">
         <v>55</v>
       </c>
-      <c r="Q104" s="218"/>
+      <c r="Q104" s="278"/>
       <c r="R104" s="75" t="s">
         <v>56</v>
       </c>
       <c r="S104" s="76"/>
-      <c r="U104" s="149" t="s">
+      <c r="U104" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="V104" s="150"/>
+      <c r="V104" s="237"/>
       <c r="W104" s="125" t="s">
         <v>172</v>
       </c>
       <c r="X104" s="126"/>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A105" s="199"/>
-      <c r="B105" s="200"/>
+      <c r="A105" s="285"/>
+      <c r="B105" s="286"/>
       <c r="C105" s="98" t="s">
         <v>112</v>
       </c>
       <c r="D105" s="99"/>
-      <c r="F105" s="179"/>
-      <c r="G105" s="180"/>
+      <c r="F105" s="291"/>
+      <c r="G105" s="292"/>
       <c r="H105" s="32" t="s">
         <v>81</v>
       </c>
@@ -4845,32 +4876,32 @@
         <v>3</v>
       </c>
       <c r="N105" s="17"/>
-      <c r="P105" s="219"/>
-      <c r="Q105" s="220"/>
+      <c r="P105" s="279"/>
+      <c r="Q105" s="280"/>
       <c r="R105" s="77" t="s">
         <v>49</v>
       </c>
       <c r="S105" s="78"/>
-      <c r="U105" s="151"/>
-      <c r="V105" s="152"/>
+      <c r="U105" s="238"/>
+      <c r="V105" s="239"/>
       <c r="W105" s="127" t="s">
         <v>169</v>
       </c>
       <c r="X105" s="128"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A106" s="231" t="s">
+      <c r="A106" s="319" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="232"/>
+      <c r="B106" s="320"/>
       <c r="C106" s="115" t="s">
         <v>114</v>
       </c>
       <c r="D106" s="113"/>
-      <c r="F106" s="181" t="s">
+      <c r="F106" s="335" t="s">
         <v>133</v>
       </c>
-      <c r="G106" s="182"/>
+      <c r="G106" s="336"/>
       <c r="H106" s="135" t="s">
         <v>134</v>
       </c>
@@ -4881,70 +4912,70 @@
         <v>15</v>
       </c>
       <c r="N106" s="20"/>
-      <c r="P106" s="165" t="s">
+      <c r="P106" s="293" t="s">
         <v>58</v>
       </c>
-      <c r="Q106" s="166"/>
+      <c r="Q106" s="294"/>
       <c r="R106" s="18" t="s">
         <v>59</v>
       </c>
       <c r="S106" s="20"/>
-      <c r="U106" s="307" t="s">
+      <c r="U106" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="V106" s="308"/>
-      <c r="W106" s="309" t="s">
+      <c r="V106" s="241"/>
+      <c r="W106" s="173" t="s">
         <v>164</v>
       </c>
-      <c r="X106" s="310"/>
+      <c r="X106" s="174"/>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A107" s="233"/>
-      <c r="B107" s="234"/>
+      <c r="A107" s="321"/>
+      <c r="B107" s="322"/>
       <c r="C107" s="116" t="s">
         <v>115</v>
       </c>
       <c r="D107" s="114"/>
-      <c r="F107" s="183"/>
-      <c r="G107" s="184"/>
+      <c r="F107" s="337"/>
+      <c r="G107" s="338"/>
       <c r="H107" s="136" t="s">
         <v>135</v>
       </c>
       <c r="I107" s="134"/>
-      <c r="K107" s="191" t="s">
+      <c r="K107" s="256" t="s">
         <v>9</v>
       </c>
-      <c r="L107" s="257"/>
+      <c r="L107" s="264"/>
       <c r="M107" s="21" t="s">
         <v>153</v>
       </c>
       <c r="N107" s="22"/>
-      <c r="P107" s="167"/>
-      <c r="Q107" s="168"/>
+      <c r="P107" s="295"/>
+      <c r="Q107" s="296"/>
       <c r="R107" s="23" t="s">
         <v>148</v>
       </c>
       <c r="S107" s="25"/>
-      <c r="U107" s="311"/>
-      <c r="V107" s="312"/>
-      <c r="W107" s="313" t="s">
+      <c r="U107" s="242"/>
+      <c r="V107" s="243"/>
+      <c r="W107" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="X107" s="314"/>
+      <c r="X107" s="176"/>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A108" s="235" t="s">
+      <c r="A108" s="323" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="236"/>
+      <c r="B108" s="324"/>
       <c r="C108" s="118" t="s">
         <v>145</v>
       </c>
       <c r="D108" s="117"/>
-      <c r="F108" s="165" t="s">
+      <c r="F108" s="293" t="s">
         <v>36</v>
       </c>
-      <c r="G108" s="166"/>
+      <c r="G108" s="294"/>
       <c r="H108" s="18" t="s">
         <v>31</v>
       </c>
@@ -4955,32 +4986,32 @@
         <v>11</v>
       </c>
       <c r="N108" s="25"/>
-      <c r="P108" s="201" t="s">
+      <c r="P108" s="269" t="s">
         <v>62</v>
       </c>
-      <c r="Q108" s="202"/>
+      <c r="Q108" s="270"/>
       <c r="R108" s="68" t="s">
         <v>63</v>
       </c>
       <c r="S108" s="67"/>
-      <c r="U108" s="315" t="s">
+      <c r="U108" s="244" t="s">
         <v>159</v>
       </c>
-      <c r="V108" s="316"/>
-      <c r="W108" s="317" t="s">
+      <c r="V108" s="245"/>
+      <c r="W108" s="177" t="s">
         <v>171</v>
       </c>
-      <c r="X108" s="318"/>
+      <c r="X108" s="178"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="237"/>
-      <c r="B109" s="238"/>
+      <c r="A109" s="325"/>
+      <c r="B109" s="326"/>
       <c r="C109" s="120" t="s">
         <v>146</v>
       </c>
       <c r="D109" s="119"/>
-      <c r="F109" s="167"/>
-      <c r="G109" s="168"/>
+      <c r="F109" s="295"/>
+      <c r="G109" s="296"/>
       <c r="H109" s="23" t="s">
         <v>136</v>
       </c>
@@ -4991,70 +5022,70 @@
         <v>100</v>
       </c>
       <c r="N109" s="28"/>
-      <c r="P109" s="203"/>
-      <c r="Q109" s="204"/>
+      <c r="P109" s="271"/>
+      <c r="Q109" s="272"/>
       <c r="R109" s="70" t="s">
         <v>39</v>
       </c>
       <c r="S109" s="69"/>
-      <c r="U109" s="319"/>
-      <c r="V109" s="320"/>
-      <c r="W109" s="321" t="s">
+      <c r="U109" s="246"/>
+      <c r="V109" s="247"/>
+      <c r="W109" s="179" t="s">
         <v>163</v>
       </c>
-      <c r="X109" s="322"/>
+      <c r="X109" s="180"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="157" t="s">
+      <c r="A110" s="327" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="158"/>
+      <c r="B110" s="328"/>
       <c r="C110" s="121" t="s">
         <v>118</v>
       </c>
       <c r="D110" s="122"/>
-      <c r="F110" s="165" t="s">
+      <c r="F110" s="293" t="s">
         <v>9</v>
       </c>
-      <c r="G110" s="166"/>
+      <c r="G110" s="294"/>
       <c r="H110" s="19" t="s">
         <v>137</v>
       </c>
       <c r="I110" s="20"/>
-      <c r="K110" s="251" t="s">
+      <c r="K110" s="265" t="s">
         <v>132</v>
       </c>
-      <c r="L110" s="252"/>
+      <c r="L110" s="266"/>
       <c r="M110" s="29" t="s">
         <v>1</v>
       </c>
       <c r="N110" s="30"/>
-      <c r="P110" s="177" t="s">
+      <c r="P110" s="289" t="s">
         <v>65</v>
       </c>
-      <c r="Q110" s="178"/>
+      <c r="Q110" s="290"/>
       <c r="R110" s="27" t="s">
         <v>91</v>
       </c>
       <c r="S110" s="28"/>
-      <c r="U110" s="327" t="s">
+      <c r="U110" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="V110" s="328"/>
-      <c r="W110" s="323" t="s">
+      <c r="V110" s="205"/>
+      <c r="W110" s="181" t="s">
         <v>166</v>
       </c>
-      <c r="X110" s="324"/>
+      <c r="X110" s="182"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A111" s="159"/>
-      <c r="B111" s="160"/>
+      <c r="A111" s="329"/>
+      <c r="B111" s="330"/>
       <c r="C111" s="123" t="s">
         <v>119</v>
       </c>
       <c r="D111" s="124"/>
-      <c r="F111" s="167"/>
-      <c r="G111" s="168"/>
+      <c r="F111" s="295"/>
+      <c r="G111" s="296"/>
       <c r="H111" s="24" t="s">
         <v>14</v>
       </c>
@@ -5065,32 +5096,32 @@
         <v>23</v>
       </c>
       <c r="N111" s="33"/>
-      <c r="P111" s="179"/>
-      <c r="Q111" s="180"/>
+      <c r="P111" s="291"/>
+      <c r="Q111" s="292"/>
       <c r="R111" s="32" t="s">
         <v>64</v>
       </c>
       <c r="S111" s="33"/>
-      <c r="U111" s="331"/>
-      <c r="V111" s="332"/>
-      <c r="W111" s="325" t="s">
+      <c r="U111" s="206"/>
+      <c r="V111" s="207"/>
+      <c r="W111" s="183" t="s">
         <v>173</v>
       </c>
-      <c r="X111" s="326"/>
+      <c r="X111" s="184"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A112" s="149" t="s">
+      <c r="A112" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="B112" s="150"/>
+      <c r="B112" s="237"/>
       <c r="C112" s="125" t="s">
         <v>121</v>
       </c>
       <c r="D112" s="126"/>
-      <c r="F112" s="169" t="s">
+      <c r="F112" s="353" t="s">
         <v>32</v>
       </c>
-      <c r="G112" s="170"/>
+      <c r="G112" s="354"/>
       <c r="H112" s="60" t="s">
         <v>34</v>
       </c>
@@ -5101,70 +5132,70 @@
         <v>154</v>
       </c>
       <c r="N112" s="109"/>
-      <c r="P112" s="205" t="s">
+      <c r="P112" s="301" t="s">
         <v>69</v>
       </c>
-      <c r="Q112" s="206"/>
+      <c r="Q112" s="302"/>
       <c r="R112" s="79" t="s">
         <v>89</v>
       </c>
       <c r="S112" s="80"/>
-      <c r="U112" s="327" t="s">
+      <c r="U112" s="204" t="s">
         <v>160</v>
       </c>
-      <c r="V112" s="328"/>
-      <c r="W112" s="329" t="s">
+      <c r="V112" s="205"/>
+      <c r="W112" s="185" t="s">
         <v>167</v>
       </c>
-      <c r="X112" s="330"/>
+      <c r="X112" s="186"/>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A113" s="151"/>
-      <c r="B113" s="152"/>
+      <c r="A113" s="238"/>
+      <c r="B113" s="239"/>
       <c r="C113" s="127" t="s">
         <v>122</v>
       </c>
       <c r="D113" s="128"/>
-      <c r="F113" s="171"/>
-      <c r="G113" s="172"/>
+      <c r="F113" s="355"/>
+      <c r="G113" s="356"/>
       <c r="H113" s="65" t="s">
         <v>138</v>
       </c>
       <c r="I113" s="66"/>
-      <c r="K113" s="253" t="s">
+      <c r="K113" s="343" t="s">
         <v>108</v>
       </c>
-      <c r="L113" s="254"/>
+      <c r="L113" s="344"/>
       <c r="M113" s="146" t="s">
         <v>84</v>
       </c>
       <c r="N113" s="145"/>
-      <c r="P113" s="207"/>
-      <c r="Q113" s="208"/>
+      <c r="P113" s="303"/>
+      <c r="Q113" s="304"/>
       <c r="R113" s="81" t="s">
         <v>71</v>
       </c>
       <c r="S113" s="82"/>
-      <c r="U113" s="331"/>
-      <c r="V113" s="332"/>
-      <c r="W113" s="358" t="s">
+      <c r="U113" s="206"/>
+      <c r="V113" s="207"/>
+      <c r="W113" s="200" t="s">
         <v>175</v>
       </c>
-      <c r="X113" s="333"/>
+      <c r="X113" s="187"/>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A114" s="239" t="s">
+      <c r="A114" s="331" t="s">
         <v>123</v>
       </c>
-      <c r="B114" s="240"/>
+      <c r="B114" s="332"/>
       <c r="C114" s="129" t="s">
         <v>124</v>
       </c>
       <c r="D114" s="130"/>
-      <c r="F114" s="153" t="s">
+      <c r="F114" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="G114" s="154"/>
+      <c r="G114" s="346"/>
       <c r="H114" s="11" t="s">
         <v>139</v>
       </c>
@@ -5175,32 +5206,32 @@
         <v>22</v>
       </c>
       <c r="N114" s="110"/>
-      <c r="P114" s="209" t="s">
+      <c r="P114" s="305" t="s">
         <v>72</v>
       </c>
-      <c r="Q114" s="210"/>
+      <c r="Q114" s="306"/>
       <c r="R114" s="83" t="s">
         <v>51</v>
       </c>
       <c r="S114" s="84"/>
-      <c r="U114" s="350" t="s">
+      <c r="U114" s="208" t="s">
         <v>161</v>
       </c>
-      <c r="V114" s="351"/>
-      <c r="W114" s="352" t="s">
+      <c r="V114" s="209"/>
+      <c r="W114" s="196" t="s">
         <v>170</v>
       </c>
-      <c r="X114" s="353"/>
+      <c r="X114" s="197"/>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A115" s="241"/>
-      <c r="B115" s="242"/>
+      <c r="A115" s="333"/>
+      <c r="B115" s="334"/>
       <c r="C115" s="131" t="s">
         <v>125</v>
       </c>
       <c r="D115" s="132"/>
-      <c r="F115" s="155"/>
-      <c r="G115" s="156"/>
+      <c r="F115" s="347"/>
+      <c r="G115" s="348"/>
       <c r="H115" s="16" t="s">
         <v>19</v>
       </c>
@@ -5211,66 +5242,66 @@
         <v>2</v>
       </c>
       <c r="N115" s="45"/>
-      <c r="P115" s="211"/>
-      <c r="Q115" s="212"/>
+      <c r="P115" s="307"/>
+      <c r="Q115" s="308"/>
       <c r="R115" s="85" t="s">
         <v>68</v>
       </c>
       <c r="S115" s="86"/>
-      <c r="U115" s="354"/>
-      <c r="V115" s="355"/>
-      <c r="W115" s="356" t="s">
+      <c r="U115" s="210"/>
+      <c r="V115" s="211"/>
+      <c r="W115" s="198" t="s">
         <v>174</v>
       </c>
-      <c r="X115" s="357"/>
+      <c r="X115" s="199"/>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A116" s="201" t="s">
+      <c r="A116" s="269" t="s">
         <v>126</v>
       </c>
-      <c r="B116" s="202"/>
+      <c r="B116" s="270"/>
       <c r="C116" s="68" t="s">
         <v>127</v>
       </c>
       <c r="D116" s="67"/>
-      <c r="F116" s="157" t="s">
+      <c r="F116" s="327" t="s">
         <v>140</v>
       </c>
-      <c r="G116" s="158"/>
+      <c r="G116" s="328"/>
       <c r="H116" s="121" t="s">
         <v>141</v>
       </c>
       <c r="I116" s="122"/>
-      <c r="K116" s="247" t="s">
+      <c r="K116" s="281" t="s">
         <v>24</v>
       </c>
-      <c r="L116" s="248"/>
+      <c r="L116" s="282"/>
       <c r="M116" s="46" t="s">
         <v>29</v>
       </c>
       <c r="N116" s="47"/>
-      <c r="P116" s="181" t="s">
+      <c r="P116" s="335" t="s">
         <v>144</v>
       </c>
-      <c r="Q116" s="182"/>
+      <c r="Q116" s="336"/>
       <c r="R116" s="135" t="s">
         <v>90</v>
       </c>
       <c r="S116" s="133"/>
-      <c r="U116" s="334"/>
-      <c r="V116" s="335"/>
-      <c r="W116" s="336"/>
-      <c r="X116" s="337"/>
+      <c r="U116" s="212"/>
+      <c r="V116" s="213"/>
+      <c r="W116" s="188"/>
+      <c r="X116" s="189"/>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A117" s="203"/>
-      <c r="B117" s="204"/>
+      <c r="A117" s="271"/>
+      <c r="B117" s="272"/>
       <c r="C117" s="70" t="s">
         <v>88</v>
       </c>
       <c r="D117" s="69"/>
-      <c r="F117" s="159"/>
-      <c r="G117" s="160"/>
+      <c r="F117" s="329"/>
+      <c r="G117" s="330"/>
       <c r="H117" s="123" t="s">
         <v>142</v>
       </c>
@@ -5281,30 +5312,30 @@
         <v>101</v>
       </c>
       <c r="N117" s="50"/>
-      <c r="P117" s="183"/>
-      <c r="Q117" s="184"/>
+      <c r="P117" s="337"/>
+      <c r="Q117" s="338"/>
       <c r="R117" s="136" t="s">
         <v>149</v>
       </c>
       <c r="S117" s="134"/>
-      <c r="U117" s="338"/>
-      <c r="V117" s="339"/>
-      <c r="W117" s="340"/>
-      <c r="X117" s="341"/>
+      <c r="U117" s="214"/>
+      <c r="V117" s="215"/>
+      <c r="W117" s="190"/>
+      <c r="X117" s="191"/>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A118" s="181" t="s">
+      <c r="A118" s="335" t="s">
         <v>128</v>
       </c>
-      <c r="B118" s="182"/>
+      <c r="B118" s="336"/>
       <c r="C118" s="135" t="s">
         <v>129</v>
       </c>
       <c r="D118" s="133"/>
-      <c r="F118" s="161" t="s">
+      <c r="F118" s="349" t="s">
         <v>24</v>
       </c>
-      <c r="G118" s="162"/>
+      <c r="G118" s="350"/>
       <c r="H118" s="44" t="s">
         <v>143</v>
       </c>
@@ -5315,50 +5346,50 @@
         <v>157</v>
       </c>
       <c r="N118" s="53"/>
-      <c r="P118" s="193" t="s">
+      <c r="P118" s="309" t="s">
         <v>50</v>
       </c>
-      <c r="Q118" s="194"/>
+      <c r="Q118" s="310"/>
       <c r="R118" s="87" t="s">
         <v>147</v>
       </c>
       <c r="S118" s="88"/>
-      <c r="U118" s="263"/>
-      <c r="V118" s="264"/>
-      <c r="W118" s="265"/>
-      <c r="X118" s="266"/>
+      <c r="U118" s="216"/>
+      <c r="V118" s="217"/>
+      <c r="W118" s="149"/>
+      <c r="X118" s="150"/>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A119" s="183"/>
-      <c r="B119" s="184"/>
+      <c r="A119" s="337"/>
+      <c r="B119" s="338"/>
       <c r="C119" s="136" t="s">
         <v>48</v>
       </c>
       <c r="D119" s="134"/>
-      <c r="F119" s="163"/>
-      <c r="G119" s="164"/>
+      <c r="F119" s="351"/>
+      <c r="G119" s="352"/>
       <c r="H119" s="49" t="s">
         <v>85</v>
       </c>
       <c r="I119" s="50"/>
-      <c r="K119" s="249" t="s">
+      <c r="K119" s="313" t="s">
         <v>27</v>
       </c>
-      <c r="L119" s="250"/>
+      <c r="L119" s="314"/>
       <c r="M119" s="54" t="s">
         <v>35</v>
       </c>
       <c r="N119" s="55"/>
-      <c r="P119" s="195"/>
-      <c r="Q119" s="196"/>
+      <c r="P119" s="311"/>
+      <c r="Q119" s="312"/>
       <c r="R119" s="89" t="s">
         <v>150</v>
       </c>
       <c r="S119" s="90"/>
-      <c r="U119" s="267"/>
-      <c r="V119" s="268"/>
-      <c r="W119" s="269"/>
-      <c r="X119" s="270"/>
+      <c r="U119" s="218"/>
+      <c r="V119" s="219"/>
+      <c r="W119" s="151"/>
+      <c r="X119" s="152"/>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
@@ -5375,18 +5406,18 @@
         <v>155</v>
       </c>
       <c r="N120" s="58"/>
-      <c r="P120" s="197" t="s">
+      <c r="P120" s="283" t="s">
         <v>94</v>
       </c>
-      <c r="Q120" s="198"/>
+      <c r="Q120" s="284"/>
       <c r="R120" s="96" t="s">
         <v>102</v>
       </c>
       <c r="S120" s="97"/>
-      <c r="U120" s="291"/>
-      <c r="V120" s="292"/>
-      <c r="W120" s="293"/>
-      <c r="X120" s="294"/>
+      <c r="U120" s="220"/>
+      <c r="V120" s="221"/>
+      <c r="W120" s="165"/>
+      <c r="X120" s="166"/>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
@@ -5403,16 +5434,16 @@
         <v>42</v>
       </c>
       <c r="N121" s="61"/>
-      <c r="P121" s="199"/>
-      <c r="Q121" s="200"/>
+      <c r="P121" s="285"/>
+      <c r="Q121" s="286"/>
       <c r="R121" s="98" t="s">
         <v>151</v>
       </c>
       <c r="S121" s="99"/>
-      <c r="U121" s="295"/>
-      <c r="V121" s="296"/>
-      <c r="W121" s="297"/>
-      <c r="X121" s="298"/>
+      <c r="U121" s="222"/>
+      <c r="V121" s="223"/>
+      <c r="W121" s="167"/>
+      <c r="X121" s="168"/>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
@@ -5423,26 +5454,26 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-      <c r="K122" s="185" t="s">
+      <c r="K122" s="287" t="s">
         <v>32</v>
       </c>
-      <c r="L122" s="186"/>
+      <c r="L122" s="288"/>
       <c r="M122" s="62" t="s">
         <v>33</v>
       </c>
       <c r="N122" s="63"/>
-      <c r="P122" s="187" t="s">
+      <c r="P122" s="297" t="s">
         <v>95</v>
       </c>
-      <c r="Q122" s="188"/>
+      <c r="Q122" s="298"/>
       <c r="R122" s="100" t="s">
         <v>54</v>
       </c>
       <c r="S122" s="101"/>
-      <c r="U122" s="263"/>
-      <c r="V122" s="264"/>
-      <c r="W122" s="265"/>
-      <c r="X122" s="266"/>
+      <c r="U122" s="216"/>
+      <c r="V122" s="217"/>
+      <c r="W122" s="149"/>
+      <c r="X122" s="150"/>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
@@ -5459,16 +5490,16 @@
         <v>25</v>
       </c>
       <c r="N123" s="66"/>
-      <c r="P123" s="189"/>
-      <c r="Q123" s="190"/>
+      <c r="P123" s="299"/>
+      <c r="Q123" s="300"/>
       <c r="R123" s="102" t="s">
         <v>152</v>
       </c>
       <c r="S123" s="103"/>
-      <c r="U123" s="267"/>
-      <c r="V123" s="268"/>
-      <c r="W123" s="269"/>
-      <c r="X123" s="270"/>
+      <c r="U123" s="218"/>
+      <c r="V123" s="219"/>
+      <c r="W123" s="151"/>
+      <c r="X123" s="152"/>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
@@ -5485,18 +5516,18 @@
         <v>79</v>
       </c>
       <c r="N124" s="20"/>
-      <c r="P124" s="149" t="s">
+      <c r="P124" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="Q124" s="150"/>
+      <c r="Q124" s="237"/>
       <c r="R124" s="125" t="s">
         <v>78</v>
       </c>
       <c r="S124" s="126"/>
-      <c r="U124" s="342"/>
-      <c r="V124" s="343"/>
-      <c r="W124" s="344"/>
-      <c r="X124" s="345"/>
+      <c r="U124" s="224"/>
+      <c r="V124" s="225"/>
+      <c r="W124" s="192"/>
+      <c r="X124" s="193"/>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
@@ -5507,24 +5538,24 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-      <c r="K125" s="191" t="s">
+      <c r="K125" s="256" t="s">
         <v>36</v>
       </c>
-      <c r="L125" s="192"/>
+      <c r="L125" s="257"/>
       <c r="M125" s="93" t="s">
         <v>43</v>
       </c>
       <c r="N125" s="22"/>
-      <c r="P125" s="151"/>
-      <c r="Q125" s="152"/>
+      <c r="P125" s="238"/>
+      <c r="Q125" s="239"/>
       <c r="R125" s="127" t="s">
         <v>92</v>
       </c>
       <c r="S125" s="128"/>
-      <c r="U125" s="346"/>
-      <c r="V125" s="347"/>
-      <c r="W125" s="348"/>
-      <c r="X125" s="349"/>
+      <c r="U125" s="226"/>
+      <c r="V125" s="227"/>
+      <c r="W125" s="194"/>
+      <c r="X125" s="195"/>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
@@ -5583,10 +5614,10 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="K128" s="221" t="s">
+      <c r="K128" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="L128" s="222"/>
+      <c r="L128" s="259"/>
       <c r="M128" s="139" t="s">
         <v>43</v>
       </c>
@@ -5625,926 +5656,848 @@
       <c r="X129" s="1"/>
     </row>
     <row r="131" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="360"/>
-      <c r="B131" s="360"/>
-      <c r="C131" s="360"/>
-      <c r="D131" s="360"/>
-      <c r="F131" s="360"/>
-      <c r="G131" s="360"/>
-      <c r="H131" s="360"/>
-      <c r="I131" s="360"/>
-      <c r="K131" s="258" t="s">
+      <c r="A131" s="201"/>
+      <c r="B131" s="201"/>
+      <c r="C131" s="201"/>
+      <c r="D131" s="201"/>
+      <c r="F131" s="201"/>
+      <c r="G131" s="201"/>
+      <c r="H131" s="201"/>
+      <c r="I131" s="201"/>
+      <c r="K131" s="203" t="s">
         <v>178</v>
       </c>
-      <c r="L131" s="258"/>
-      <c r="M131" s="258"/>
-      <c r="N131" s="258"/>
-      <c r="P131" s="258" t="s">
+      <c r="L131" s="203"/>
+      <c r="M131" s="203"/>
+      <c r="N131" s="203"/>
+      <c r="P131" s="203" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q131" s="203"/>
+      <c r="R131" s="203"/>
+      <c r="S131" s="203"/>
+      <c r="U131" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="V131" s="203"/>
+      <c r="W131" s="203"/>
+      <c r="X131" s="203"/>
+    </row>
+    <row r="132" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="201"/>
+      <c r="B132" s="201"/>
+      <c r="C132" s="201"/>
+      <c r="D132" s="201"/>
+      <c r="F132" s="201"/>
+      <c r="G132" s="201"/>
+      <c r="H132" s="201"/>
+      <c r="I132" s="201"/>
+      <c r="L132" s="203">
+        <v>2020</v>
+      </c>
+      <c r="M132" s="203"/>
+      <c r="Q132" s="203">
+        <v>2020</v>
+      </c>
+      <c r="R132" s="203"/>
+      <c r="V132" s="203">
+        <v>2022</v>
+      </c>
+      <c r="W132" s="203"/>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A133" s="201"/>
+      <c r="B133" s="201"/>
+      <c r="C133" s="201"/>
+      <c r="D133" s="201"/>
+      <c r="F133" s="201"/>
+      <c r="G133" s="201"/>
+      <c r="H133" s="201"/>
+      <c r="I133" s="201"/>
+      <c r="L133" s="361" t="s">
+        <v>202</v>
+      </c>
+      <c r="M133" s="361"/>
+      <c r="Q133" s="361" t="s">
+        <v>207</v>
+      </c>
+      <c r="R133" s="361"/>
+      <c r="V133" s="361" t="s">
+        <v>211</v>
+      </c>
+      <c r="W133" s="361"/>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A134" s="201"/>
+      <c r="B134" s="201"/>
+      <c r="C134" s="201"/>
+      <c r="D134" s="201"/>
+      <c r="F134" s="201"/>
+      <c r="G134" s="201"/>
+      <c r="H134" s="201"/>
+      <c r="I134" s="201"/>
+      <c r="L134" s="361" t="s">
+        <v>212</v>
+      </c>
+      <c r="M134" s="361"/>
+      <c r="Q134" s="361" t="s">
+        <v>185</v>
+      </c>
+      <c r="R134" s="361"/>
+      <c r="V134" s="361" t="s">
+        <v>196</v>
+      </c>
+      <c r="W134" s="361"/>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A135" s="201"/>
+      <c r="B135" s="201"/>
+      <c r="C135" s="201"/>
+      <c r="D135" s="201"/>
+      <c r="F135" s="201"/>
+      <c r="G135" s="201"/>
+      <c r="H135" s="201"/>
+      <c r="I135" s="201"/>
+      <c r="L135" s="361" t="s">
+        <v>179</v>
+      </c>
+      <c r="M135" s="361"/>
+      <c r="Q135" s="361" t="s">
+        <v>186</v>
+      </c>
+      <c r="R135" s="361"/>
+      <c r="V135" s="361" t="s">
+        <v>198</v>
+      </c>
+      <c r="W135" s="361"/>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A136" s="201"/>
+      <c r="B136" s="201"/>
+      <c r="C136" s="201"/>
+      <c r="D136" s="201"/>
+      <c r="F136" s="201"/>
+      <c r="G136" s="201"/>
+      <c r="H136" s="201"/>
+      <c r="I136" s="201"/>
+      <c r="L136" s="361" t="s">
+        <v>199</v>
+      </c>
+      <c r="M136" s="361"/>
+      <c r="Q136" s="361" t="s">
+        <v>187</v>
+      </c>
+      <c r="R136" s="361"/>
+      <c r="V136" s="361" t="s">
+        <v>216</v>
+      </c>
+      <c r="W136" s="361"/>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A137" s="201"/>
+      <c r="B137" s="201"/>
+      <c r="C137" s="201"/>
+      <c r="D137" s="201"/>
+      <c r="F137" s="201"/>
+      <c r="G137" s="201"/>
+      <c r="H137" s="201"/>
+      <c r="I137" s="201"/>
+      <c r="L137" s="361" t="s">
+        <v>180</v>
+      </c>
+      <c r="M137" s="361"/>
+      <c r="Q137" s="361" t="s">
+        <v>188</v>
+      </c>
+      <c r="R137" s="361"/>
+      <c r="V137" s="361" t="s">
+        <v>197</v>
+      </c>
+      <c r="W137" s="361"/>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A138" s="201"/>
+      <c r="B138" s="201"/>
+      <c r="C138" s="201"/>
+      <c r="D138" s="201"/>
+      <c r="F138" s="201"/>
+      <c r="G138" s="201"/>
+      <c r="H138" s="201"/>
+      <c r="I138" s="201"/>
+      <c r="L138" s="361" t="s">
+        <v>181</v>
+      </c>
+      <c r="M138" s="361"/>
+      <c r="Q138" s="361" t="s">
+        <v>189</v>
+      </c>
+      <c r="R138" s="361"/>
+      <c r="V138" s="361" t="s">
+        <v>183</v>
+      </c>
+      <c r="W138" s="361"/>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A139" s="201"/>
+      <c r="B139" s="201"/>
+      <c r="C139" s="201"/>
+      <c r="D139" s="201"/>
+      <c r="F139" s="201"/>
+      <c r="G139" s="201"/>
+      <c r="H139" s="201"/>
+      <c r="I139" s="201"/>
+      <c r="L139" s="361" t="s">
+        <v>213</v>
+      </c>
+      <c r="M139" s="361"/>
+      <c r="Q139" s="361" t="s">
+        <v>190</v>
+      </c>
+      <c r="R139" s="361"/>
+      <c r="V139" s="361" t="s">
+        <v>204</v>
+      </c>
+      <c r="W139" s="361"/>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A140" s="201"/>
+      <c r="B140" s="201"/>
+      <c r="C140" s="201"/>
+      <c r="D140" s="201"/>
+      <c r="F140" s="201"/>
+      <c r="G140" s="201"/>
+      <c r="H140" s="201"/>
+      <c r="I140" s="201"/>
+      <c r="L140" s="361" t="s">
+        <v>182</v>
+      </c>
+      <c r="M140" s="361"/>
+      <c r="Q140" s="361" t="s">
         <v>191</v>
       </c>
-      <c r="Q131" s="258"/>
-      <c r="R131" s="258"/>
-      <c r="S131" s="258"/>
-      <c r="U131" s="258" t="s">
-        <v>204</v>
-      </c>
-      <c r="V131" s="258"/>
-      <c r="W131" s="258"/>
-      <c r="X131" s="258"/>
-    </row>
-    <row r="132" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="360"/>
-      <c r="B132" s="360"/>
-      <c r="C132" s="360"/>
-      <c r="D132" s="360"/>
-      <c r="F132" s="360"/>
-      <c r="G132" s="360"/>
-      <c r="H132" s="360"/>
-      <c r="I132" s="360"/>
-      <c r="L132" s="258">
-        <v>2020</v>
-      </c>
-      <c r="M132" s="258"/>
-      <c r="Q132" s="258">
-        <v>2020</v>
-      </c>
-      <c r="R132" s="258"/>
-      <c r="V132" s="258">
+      <c r="R140" s="361"/>
+      <c r="V140" s="361" t="s">
+        <v>189</v>
+      </c>
+      <c r="W140" s="361"/>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A141" s="201"/>
+      <c r="B141" s="201"/>
+      <c r="C141" s="201"/>
+      <c r="D141" s="201"/>
+      <c r="F141" s="201"/>
+      <c r="G141" s="201"/>
+      <c r="H141" s="201"/>
+      <c r="I141" s="201"/>
+      <c r="L141" s="361" t="s">
+        <v>183</v>
+      </c>
+      <c r="M141" s="361"/>
+      <c r="Q141" s="361" t="s">
+        <v>192</v>
+      </c>
+      <c r="R141" s="361"/>
+      <c r="V141" s="361" t="s">
+        <v>215</v>
+      </c>
+      <c r="W141" s="361"/>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A142" s="201"/>
+      <c r="B142" s="201"/>
+      <c r="C142" s="201"/>
+      <c r="D142" s="201"/>
+      <c r="F142" s="201"/>
+      <c r="G142" s="201"/>
+      <c r="H142" s="201"/>
+      <c r="I142" s="201"/>
+      <c r="L142" s="361" t="s">
+        <v>201</v>
+      </c>
+      <c r="M142" s="361"/>
+      <c r="Q142" s="361" t="s">
+        <v>201</v>
+      </c>
+      <c r="R142" s="361"/>
+      <c r="V142" s="361" t="s">
+        <v>214</v>
+      </c>
+      <c r="W142" s="361"/>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A143" s="201"/>
+      <c r="B143" s="201"/>
+      <c r="C143" s="201"/>
+      <c r="D143" s="201"/>
+      <c r="F143" s="201"/>
+      <c r="G143" s="201"/>
+      <c r="H143" s="201"/>
+      <c r="I143" s="201"/>
+      <c r="L143" s="362"/>
+      <c r="M143" s="362"/>
+      <c r="Q143" s="361" t="s">
+        <v>182</v>
+      </c>
+      <c r="R143" s="361"/>
+      <c r="V143" s="361" t="s">
+        <v>217</v>
+      </c>
+      <c r="W143" s="361"/>
+    </row>
+    <row r="144" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="201"/>
+      <c r="B144" s="201"/>
+      <c r="C144" s="201"/>
+      <c r="D144" s="201"/>
+      <c r="F144" s="201"/>
+      <c r="G144" s="201"/>
+      <c r="H144" s="201"/>
+      <c r="I144" s="201"/>
+      <c r="L144" s="203">
+        <v>2021</v>
+      </c>
+      <c r="M144" s="203"/>
+      <c r="Q144" s="361" t="s">
+        <v>193</v>
+      </c>
+      <c r="R144" s="361"/>
+      <c r="V144" s="361" t="s">
+        <v>179</v>
+      </c>
+      <c r="W144" s="361"/>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A145" s="201"/>
+      <c r="B145" s="201"/>
+      <c r="C145" s="201"/>
+      <c r="D145" s="201"/>
+      <c r="F145" s="201"/>
+      <c r="G145" s="201"/>
+      <c r="H145" s="201"/>
+      <c r="I145" s="201"/>
+      <c r="L145" s="361" t="s">
+        <v>202</v>
+      </c>
+      <c r="M145" s="361"/>
+      <c r="Q145" s="361" t="s">
+        <v>194</v>
+      </c>
+      <c r="R145" s="361"/>
+      <c r="V145" s="361" t="s">
+        <v>180</v>
+      </c>
+      <c r="W145" s="361"/>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A146" s="201"/>
+      <c r="B146" s="201"/>
+      <c r="C146" s="201"/>
+      <c r="D146" s="201"/>
+      <c r="F146" s="201"/>
+      <c r="G146" s="201"/>
+      <c r="H146" s="201"/>
+      <c r="I146" s="201"/>
+      <c r="L146" s="361" t="s">
+        <v>212</v>
+      </c>
+      <c r="M146" s="361"/>
+      <c r="Q146" s="361" t="s">
+        <v>206</v>
+      </c>
+      <c r="R146" s="361"/>
+      <c r="V146" s="202"/>
+      <c r="W146" s="202"/>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A147" s="201"/>
+      <c r="B147" s="201"/>
+      <c r="C147" s="201"/>
+      <c r="D147" s="201"/>
+      <c r="F147" s="201"/>
+      <c r="G147" s="201"/>
+      <c r="H147" s="201"/>
+      <c r="I147" s="201"/>
+      <c r="L147" s="361" t="s">
+        <v>183</v>
+      </c>
+      <c r="M147" s="361"/>
+      <c r="Q147" s="361" t="s">
+        <v>189</v>
+      </c>
+      <c r="R147" s="361"/>
+      <c r="V147" s="202"/>
+      <c r="W147" s="202"/>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A148" s="201"/>
+      <c r="B148" s="201"/>
+      <c r="C148" s="201"/>
+      <c r="D148" s="201"/>
+      <c r="F148" s="201"/>
+      <c r="G148" s="201"/>
+      <c r="H148" s="201"/>
+      <c r="I148" s="201"/>
+      <c r="L148" s="361" t="s">
+        <v>199</v>
+      </c>
+      <c r="M148" s="361"/>
+      <c r="Q148" s="362"/>
+      <c r="R148" s="362"/>
+    </row>
+    <row r="149" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="201"/>
+      <c r="B149" s="201"/>
+      <c r="C149" s="201"/>
+      <c r="D149" s="201"/>
+      <c r="F149" s="201"/>
+      <c r="G149" s="201"/>
+      <c r="H149" s="201"/>
+      <c r="I149" s="201"/>
+      <c r="L149" s="361" t="s">
+        <v>180</v>
+      </c>
+      <c r="M149" s="361"/>
+      <c r="Q149" s="203">
+        <v>2021</v>
+      </c>
+      <c r="R149" s="203"/>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A150" s="201"/>
+      <c r="B150" s="201"/>
+      <c r="C150" s="201"/>
+      <c r="D150" s="201"/>
+      <c r="F150" s="201"/>
+      <c r="G150" s="201"/>
+      <c r="H150" s="201"/>
+      <c r="I150" s="201"/>
+      <c r="L150" s="361" t="s">
+        <v>181</v>
+      </c>
+      <c r="M150" s="361"/>
+      <c r="Q150" s="361" t="s">
+        <v>206</v>
+      </c>
+      <c r="R150" s="361"/>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A151" s="201"/>
+      <c r="B151" s="201"/>
+      <c r="C151" s="201"/>
+      <c r="D151" s="201"/>
+      <c r="F151" s="201"/>
+      <c r="G151" s="201"/>
+      <c r="H151" s="201"/>
+      <c r="I151" s="201"/>
+      <c r="L151" s="361" t="s">
+        <v>203</v>
+      </c>
+      <c r="M151" s="361"/>
+      <c r="Q151" s="361" t="s">
+        <v>185</v>
+      </c>
+      <c r="R151" s="361"/>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A152" s="201"/>
+      <c r="B152" s="201"/>
+      <c r="C152" s="201"/>
+      <c r="D152" s="201"/>
+      <c r="F152" s="201"/>
+      <c r="G152" s="201"/>
+      <c r="H152" s="201"/>
+      <c r="I152" s="201"/>
+      <c r="L152" s="361" t="s">
+        <v>201</v>
+      </c>
+      <c r="M152" s="361"/>
+      <c r="Q152" s="361" t="s">
+        <v>193</v>
+      </c>
+      <c r="R152" s="361"/>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A153" s="201"/>
+      <c r="B153" s="201"/>
+      <c r="C153" s="201"/>
+      <c r="D153" s="201"/>
+      <c r="F153" s="201"/>
+      <c r="G153" s="201"/>
+      <c r="H153" s="201"/>
+      <c r="I153" s="201"/>
+      <c r="L153" s="361" t="s">
+        <v>182</v>
+      </c>
+      <c r="M153" s="361"/>
+      <c r="Q153" s="361" t="s">
+        <v>186</v>
+      </c>
+      <c r="R153" s="361"/>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A154" s="201"/>
+      <c r="B154" s="201"/>
+      <c r="C154" s="201"/>
+      <c r="D154" s="201"/>
+      <c r="F154" s="201"/>
+      <c r="G154" s="201"/>
+      <c r="H154" s="201"/>
+      <c r="I154" s="201"/>
+      <c r="L154" s="361" t="s">
+        <v>179</v>
+      </c>
+      <c r="M154" s="361"/>
+      <c r="Q154" s="361" t="s">
+        <v>192</v>
+      </c>
+      <c r="R154" s="361"/>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A155" s="201"/>
+      <c r="B155" s="201"/>
+      <c r="C155" s="201"/>
+      <c r="D155" s="201"/>
+      <c r="F155" s="201"/>
+      <c r="G155" s="201"/>
+      <c r="H155" s="201"/>
+      <c r="I155" s="201"/>
+      <c r="L155" s="362"/>
+      <c r="M155" s="362"/>
+      <c r="Q155" s="361" t="s">
+        <v>187</v>
+      </c>
+      <c r="R155" s="361"/>
+    </row>
+    <row r="156" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="201"/>
+      <c r="B156" s="201"/>
+      <c r="C156" s="201"/>
+      <c r="D156" s="201"/>
+      <c r="F156" s="201"/>
+      <c r="G156" s="201"/>
+      <c r="H156" s="201"/>
+      <c r="I156" s="201"/>
+      <c r="L156" s="203">
         <v>2022</v>
       </c>
-      <c r="W132" s="258"/>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A133" s="360"/>
-      <c r="B133" s="360"/>
-      <c r="C133" s="360"/>
-      <c r="D133" s="360"/>
-      <c r="F133" s="360"/>
-      <c r="G133" s="360"/>
-      <c r="H133" s="360"/>
-      <c r="I133" s="360"/>
-      <c r="L133" s="359" t="s">
+      <c r="M156" s="203"/>
+      <c r="Q156" s="361" t="s">
+        <v>207</v>
+      </c>
+      <c r="R156" s="361"/>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A157" s="201"/>
+      <c r="B157" s="201"/>
+      <c r="C157" s="201"/>
+      <c r="D157" s="201"/>
+      <c r="F157" s="201"/>
+      <c r="G157" s="201"/>
+      <c r="H157" s="201"/>
+      <c r="I157" s="201"/>
+      <c r="L157" s="361" t="s">
+        <v>202</v>
+      </c>
+      <c r="M157" s="361"/>
+      <c r="Q157" s="361" t="s">
+        <v>182</v>
+      </c>
+      <c r="R157" s="361"/>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A158" s="201"/>
+      <c r="B158" s="201"/>
+      <c r="C158" s="201"/>
+      <c r="D158" s="201"/>
+      <c r="F158" s="201"/>
+      <c r="G158" s="201"/>
+      <c r="H158" s="201"/>
+      <c r="I158" s="201"/>
+      <c r="L158" s="361" t="s">
+        <v>212</v>
+      </c>
+      <c r="M158" s="361"/>
+      <c r="Q158" s="361" t="s">
+        <v>191</v>
+      </c>
+      <c r="R158" s="361"/>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A159" s="201"/>
+      <c r="B159" s="201"/>
+      <c r="C159" s="201"/>
+      <c r="D159" s="201"/>
+      <c r="F159" s="201"/>
+      <c r="G159" s="201"/>
+      <c r="H159" s="201"/>
+      <c r="I159" s="201"/>
+      <c r="L159" s="361" t="s">
+        <v>203</v>
+      </c>
+      <c r="M159" s="361"/>
+      <c r="Q159" s="361" t="s">
+        <v>189</v>
+      </c>
+      <c r="R159" s="361"/>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A160" s="201"/>
+      <c r="B160" s="201"/>
+      <c r="C160" s="201"/>
+      <c r="D160" s="201"/>
+      <c r="F160" s="201"/>
+      <c r="G160" s="201"/>
+      <c r="H160" s="201"/>
+      <c r="I160" s="201"/>
+      <c r="L160" s="361" t="s">
+        <v>200</v>
+      </c>
+      <c r="M160" s="361"/>
+      <c r="Q160" s="361" t="s">
+        <v>201</v>
+      </c>
+      <c r="R160" s="361"/>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A161" s="201"/>
+      <c r="B161" s="201"/>
+      <c r="C161" s="201"/>
+      <c r="D161" s="201"/>
+      <c r="F161" s="201"/>
+      <c r="G161" s="201"/>
+      <c r="H161" s="201"/>
+      <c r="I161" s="201"/>
+      <c r="L161" s="361" t="s">
+        <v>180</v>
+      </c>
+      <c r="M161" s="361"/>
+      <c r="Q161" s="361" t="s">
+        <v>188</v>
+      </c>
+      <c r="R161" s="361"/>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A162" s="201"/>
+      <c r="B162" s="201"/>
+      <c r="C162" s="201"/>
+      <c r="D162" s="201"/>
+      <c r="F162" s="201"/>
+      <c r="G162" s="201"/>
+      <c r="H162" s="201"/>
+      <c r="I162" s="201"/>
+      <c r="L162" s="361" t="s">
+        <v>216</v>
+      </c>
+      <c r="M162" s="361"/>
+      <c r="Q162" s="361" t="s">
+        <v>194</v>
+      </c>
+      <c r="R162" s="361"/>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A163" s="201"/>
+      <c r="B163" s="201"/>
+      <c r="C163" s="201"/>
+      <c r="D163" s="201"/>
+      <c r="F163" s="201"/>
+      <c r="G163" s="201"/>
+      <c r="H163" s="201"/>
+      <c r="I163" s="201"/>
+      <c r="L163" s="361" t="s">
+        <v>201</v>
+      </c>
+      <c r="M163" s="361"/>
+      <c r="Q163" s="361" t="s">
+        <v>190</v>
+      </c>
+      <c r="R163" s="361"/>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A164" s="201"/>
+      <c r="B164" s="201"/>
+      <c r="C164" s="201"/>
+      <c r="D164" s="201"/>
+      <c r="F164" s="201"/>
+      <c r="G164" s="201"/>
+      <c r="H164" s="201"/>
+      <c r="I164" s="201"/>
+      <c r="L164" s="361" t="s">
+        <v>182</v>
+      </c>
+      <c r="M164" s="361"/>
+      <c r="Q164" s="361" t="s">
+        <v>189</v>
+      </c>
+      <c r="R164" s="361"/>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L165" s="361" t="s">
+        <v>205</v>
+      </c>
+      <c r="M165" s="361"/>
+      <c r="Q165" s="362"/>
+      <c r="R165" s="362"/>
+    </row>
+    <row r="166" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L166" s="361" t="s">
         <v>179</v>
       </c>
-      <c r="M133" s="359"/>
-      <c r="Q133" s="359" t="s">
+      <c r="M166" s="361"/>
+      <c r="Q166" s="203">
+        <v>2022</v>
+      </c>
+      <c r="R166" s="203"/>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q167" s="361" t="s">
+        <v>206</v>
+      </c>
+      <c r="R167" s="361"/>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q168" s="361" t="s">
         <v>192</v>
       </c>
-      <c r="R133" s="359"/>
-      <c r="V133" s="359" t="s">
+      <c r="R168" s="361"/>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q169" s="361" t="s">
+        <v>187</v>
+      </c>
+      <c r="R169" s="361"/>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q170" s="361" t="s">
+        <v>208</v>
+      </c>
+      <c r="R170" s="361"/>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q171" s="361" t="s">
+        <v>182</v>
+      </c>
+      <c r="R171" s="361"/>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q172" s="361" t="s">
+        <v>209</v>
+      </c>
+      <c r="R172" s="361"/>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q173" s="361" t="s">
+        <v>218</v>
+      </c>
+      <c r="R173" s="361"/>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q174" s="361" t="s">
+        <v>188</v>
+      </c>
+      <c r="R174" s="361"/>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q175" s="361" t="s">
+        <v>194</v>
+      </c>
+      <c r="R175" s="361"/>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q176" s="361" t="s">
+        <v>190</v>
+      </c>
+      <c r="R176" s="361"/>
+    </row>
+    <row r="177" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q177" s="361" t="s">
         <v>210</v>
       </c>
-      <c r="W133" s="359"/>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A134" s="360"/>
-      <c r="B134" s="360"/>
-      <c r="C134" s="360"/>
-      <c r="D134" s="360"/>
-      <c r="F134" s="360"/>
-      <c r="G134" s="360"/>
-      <c r="H134" s="360"/>
-      <c r="I134" s="360"/>
-      <c r="L134" s="359" t="s">
-        <v>180</v>
-      </c>
-      <c r="M134" s="359"/>
-      <c r="Q134" s="359" t="s">
-        <v>193</v>
-      </c>
-      <c r="R134" s="359"/>
-      <c r="V134" s="359" t="s">
-        <v>206</v>
-      </c>
-      <c r="W134" s="359"/>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A135" s="360"/>
-      <c r="B135" s="360"/>
-      <c r="C135" s="360"/>
-      <c r="D135" s="360"/>
-      <c r="F135" s="360"/>
-      <c r="G135" s="360"/>
-      <c r="H135" s="360"/>
-      <c r="I135" s="360"/>
-      <c r="L135" s="359" t="s">
-        <v>181</v>
-      </c>
-      <c r="M135" s="359"/>
-      <c r="Q135" s="359" t="s">
-        <v>194</v>
-      </c>
-      <c r="R135" s="359"/>
-      <c r="V135" s="359" t="s">
-        <v>209</v>
-      </c>
-      <c r="W135" s="359"/>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A136" s="360"/>
-      <c r="B136" s="360"/>
-      <c r="C136" s="360"/>
-      <c r="D136" s="360"/>
-      <c r="F136" s="360"/>
-      <c r="G136" s="360"/>
-      <c r="H136" s="360"/>
-      <c r="I136" s="360"/>
-      <c r="L136" s="359" t="s">
-        <v>182</v>
-      </c>
-      <c r="M136" s="359"/>
-      <c r="Q136" s="359" t="s">
-        <v>195</v>
-      </c>
-      <c r="R136" s="359"/>
-      <c r="V136" s="359" t="s">
-        <v>211</v>
-      </c>
-      <c r="W136" s="359"/>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A137" s="360"/>
-      <c r="B137" s="360"/>
-      <c r="C137" s="360"/>
-      <c r="D137" s="360"/>
-      <c r="F137" s="360"/>
-      <c r="G137" s="360"/>
-      <c r="H137" s="360"/>
-      <c r="I137" s="360"/>
-      <c r="L137" s="359" t="s">
-        <v>183</v>
-      </c>
-      <c r="M137" s="359"/>
-      <c r="Q137" s="359" t="s">
-        <v>196</v>
-      </c>
-      <c r="R137" s="359"/>
-      <c r="V137" s="359" t="s">
-        <v>207</v>
-      </c>
-      <c r="W137" s="359"/>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A138" s="360"/>
-      <c r="B138" s="360"/>
-      <c r="C138" s="360"/>
-      <c r="D138" s="360"/>
-      <c r="F138" s="360"/>
-      <c r="G138" s="360"/>
-      <c r="H138" s="360"/>
-      <c r="I138" s="360"/>
-      <c r="L138" s="359" t="s">
-        <v>184</v>
-      </c>
-      <c r="M138" s="359"/>
-      <c r="Q138" s="359" t="s">
-        <v>197</v>
-      </c>
-      <c r="R138" s="359"/>
-      <c r="V138" s="359" t="s">
-        <v>187</v>
-      </c>
-      <c r="W138" s="359"/>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A139" s="360"/>
-      <c r="B139" s="360"/>
-      <c r="C139" s="360"/>
-      <c r="D139" s="360"/>
-      <c r="F139" s="360"/>
-      <c r="G139" s="360"/>
-      <c r="H139" s="360"/>
-      <c r="I139" s="360"/>
-      <c r="L139" s="359" t="s">
-        <v>185</v>
-      </c>
-      <c r="M139" s="359"/>
-      <c r="Q139" s="359" t="s">
-        <v>198</v>
-      </c>
-      <c r="R139" s="359"/>
-      <c r="V139" s="359" t="s">
-        <v>189</v>
-      </c>
-      <c r="W139" s="359"/>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A140" s="360"/>
-      <c r="B140" s="360"/>
-      <c r="C140" s="360"/>
-      <c r="D140" s="360"/>
-      <c r="F140" s="360"/>
-      <c r="G140" s="360"/>
-      <c r="H140" s="360"/>
-      <c r="I140" s="360"/>
-      <c r="L140" s="359" t="s">
-        <v>186</v>
-      </c>
-      <c r="M140" s="359"/>
-      <c r="Q140" s="359" t="s">
-        <v>199</v>
-      </c>
-      <c r="R140" s="359"/>
-      <c r="V140" s="359" t="s">
-        <v>197</v>
-      </c>
-      <c r="W140" s="359"/>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A141" s="360"/>
-      <c r="B141" s="360"/>
-      <c r="C141" s="360"/>
-      <c r="D141" s="360"/>
-      <c r="F141" s="360"/>
-      <c r="G141" s="360"/>
-      <c r="H141" s="360"/>
-      <c r="I141" s="360"/>
-      <c r="L141" s="359" t="s">
-        <v>187</v>
-      </c>
-      <c r="M141" s="359"/>
-      <c r="Q141" s="359" t="s">
-        <v>200</v>
-      </c>
-      <c r="R141" s="359"/>
-      <c r="V141" s="359" t="s">
-        <v>205</v>
-      </c>
-      <c r="W141" s="359"/>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A142" s="360"/>
-      <c r="B142" s="360"/>
-      <c r="C142" s="360"/>
-      <c r="D142" s="360"/>
-      <c r="F142" s="360"/>
-      <c r="G142" s="360"/>
-      <c r="H142" s="360"/>
-      <c r="I142" s="360"/>
-      <c r="L142" s="359" t="s">
-        <v>188</v>
-      </c>
-      <c r="M142" s="359"/>
-      <c r="Q142" s="359" t="s">
-        <v>188</v>
-      </c>
-      <c r="R142" s="359"/>
-      <c r="V142" s="359" t="s">
-        <v>198</v>
-      </c>
-      <c r="W142" s="359"/>
-    </row>
-    <row r="143" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="360"/>
-      <c r="B143" s="360"/>
-      <c r="C143" s="360"/>
-      <c r="D143" s="360"/>
-      <c r="F143" s="360"/>
-      <c r="G143" s="360"/>
-      <c r="H143" s="360"/>
-      <c r="I143" s="360"/>
-      <c r="L143" s="258">
-        <v>2021</v>
-      </c>
-      <c r="M143" s="258"/>
-      <c r="Q143" s="359" t="s">
-        <v>186</v>
-      </c>
-      <c r="R143" s="359"/>
-      <c r="V143" s="359" t="s">
-        <v>208</v>
-      </c>
-      <c r="W143" s="359"/>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A144" s="360"/>
-      <c r="B144" s="360"/>
-      <c r="C144" s="360"/>
-      <c r="D144" s="360"/>
-      <c r="F144" s="360"/>
-      <c r="G144" s="360"/>
-      <c r="H144" s="360"/>
-      <c r="I144" s="360"/>
-      <c r="L144" s="359" t="s">
-        <v>179</v>
-      </c>
-      <c r="M144" s="359"/>
-      <c r="Q144" s="359" t="s">
-        <v>201</v>
-      </c>
-      <c r="R144" s="359"/>
-      <c r="V144" s="359" t="s">
-        <v>181</v>
-      </c>
-      <c r="W144" s="359"/>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A145" s="360"/>
-      <c r="B145" s="360"/>
-      <c r="C145" s="360"/>
-      <c r="D145" s="360"/>
-      <c r="F145" s="360"/>
-      <c r="G145" s="360"/>
-      <c r="H145" s="360"/>
-      <c r="I145" s="360"/>
-      <c r="L145" s="359" t="s">
-        <v>180</v>
-      </c>
-      <c r="M145" s="359"/>
-      <c r="Q145" s="359" t="s">
-        <v>202</v>
-      </c>
-      <c r="R145" s="359"/>
-      <c r="V145" s="359" t="s">
-        <v>183</v>
-      </c>
-      <c r="W145" s="359"/>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A146" s="360"/>
-      <c r="B146" s="360"/>
-      <c r="C146" s="360"/>
-      <c r="D146" s="360"/>
-      <c r="F146" s="360"/>
-      <c r="G146" s="360"/>
-      <c r="H146" s="360"/>
-      <c r="I146" s="360"/>
-      <c r="L146" s="359" t="s">
-        <v>187</v>
-      </c>
-      <c r="M146" s="359"/>
-      <c r="Q146" s="359" t="s">
-        <v>203</v>
-      </c>
-      <c r="R146" s="359"/>
-      <c r="V146" s="359"/>
-      <c r="W146" s="359"/>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A147" s="360"/>
-      <c r="B147" s="360"/>
-      <c r="C147" s="360"/>
-      <c r="D147" s="360"/>
-      <c r="F147" s="360"/>
-      <c r="G147" s="360"/>
-      <c r="H147" s="360"/>
-      <c r="I147" s="360"/>
-      <c r="L147" s="359" t="s">
-        <v>182</v>
-      </c>
-      <c r="M147" s="359"/>
-      <c r="Q147" s="359" t="s">
-        <v>197</v>
-      </c>
-      <c r="R147" s="359"/>
-      <c r="V147" s="359"/>
-      <c r="W147" s="359"/>
-    </row>
-    <row r="148" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="360"/>
-      <c r="B148" s="360"/>
-      <c r="C148" s="360"/>
-      <c r="D148" s="360"/>
-      <c r="F148" s="360"/>
-      <c r="G148" s="360"/>
-      <c r="H148" s="360"/>
-      <c r="I148" s="360"/>
-      <c r="L148" s="359" t="s">
-        <v>183</v>
-      </c>
-      <c r="M148" s="359"/>
-      <c r="Q148" s="258">
-        <v>2021</v>
-      </c>
-      <c r="R148" s="258"/>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A149" s="360"/>
-      <c r="B149" s="360"/>
-      <c r="C149" s="360"/>
-      <c r="D149" s="360"/>
-      <c r="F149" s="360"/>
-      <c r="G149" s="360"/>
-      <c r="H149" s="360"/>
-      <c r="I149" s="360"/>
-      <c r="L149" s="359" t="s">
-        <v>184</v>
-      </c>
-      <c r="M149" s="359"/>
-      <c r="Q149" s="359" t="s">
-        <v>203</v>
-      </c>
-      <c r="R149" s="359"/>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A150" s="360"/>
-      <c r="B150" s="360"/>
-      <c r="C150" s="360"/>
-      <c r="D150" s="360"/>
-      <c r="F150" s="360"/>
-      <c r="G150" s="360"/>
-      <c r="H150" s="360"/>
-      <c r="I150" s="360"/>
-      <c r="L150" s="359" t="s">
-        <v>185</v>
-      </c>
-      <c r="M150" s="359"/>
-      <c r="Q150" s="359" t="s">
-        <v>193</v>
-      </c>
-      <c r="R150" s="359"/>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A151" s="360"/>
-      <c r="B151" s="360"/>
-      <c r="C151" s="360"/>
-      <c r="D151" s="360"/>
-      <c r="F151" s="360"/>
-      <c r="G151" s="360"/>
-      <c r="H151" s="360"/>
-      <c r="I151" s="360"/>
-      <c r="L151" s="359" t="s">
-        <v>188</v>
-      </c>
-      <c r="M151" s="359"/>
-      <c r="Q151" s="359" t="s">
-        <v>201</v>
-      </c>
-      <c r="R151" s="359"/>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A152" s="360"/>
-      <c r="B152" s="360"/>
-      <c r="C152" s="360"/>
-      <c r="D152" s="360"/>
-      <c r="F152" s="360"/>
-      <c r="G152" s="360"/>
-      <c r="H152" s="360"/>
-      <c r="I152" s="360"/>
-      <c r="L152" s="359" t="s">
-        <v>186</v>
-      </c>
-      <c r="M152" s="359"/>
-      <c r="Q152" s="359" t="s">
-        <v>194</v>
-      </c>
-      <c r="R152" s="359"/>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A153" s="360"/>
-      <c r="B153" s="360"/>
-      <c r="C153" s="360"/>
-      <c r="D153" s="360"/>
-      <c r="F153" s="360"/>
-      <c r="G153" s="360"/>
-      <c r="H153" s="360"/>
-      <c r="I153" s="360"/>
-      <c r="L153" s="359" t="s">
-        <v>181</v>
-      </c>
-      <c r="M153" s="359"/>
-      <c r="Q153" s="359" t="s">
-        <v>200</v>
-      </c>
-      <c r="R153" s="359"/>
-    </row>
-    <row r="154" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="360"/>
-      <c r="B154" s="360"/>
-      <c r="C154" s="360"/>
-      <c r="D154" s="360"/>
-      <c r="F154" s="360"/>
-      <c r="G154" s="360"/>
-      <c r="H154" s="360"/>
-      <c r="I154" s="360"/>
-      <c r="L154" s="258">
-        <v>2022</v>
-      </c>
-      <c r="M154" s="258"/>
-      <c r="Q154" s="359" t="s">
-        <v>195</v>
-      </c>
-      <c r="R154" s="359"/>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A155" s="360"/>
-      <c r="B155" s="360"/>
-      <c r="C155" s="360"/>
-      <c r="D155" s="360"/>
-      <c r="F155" s="360"/>
-      <c r="G155" s="360"/>
-      <c r="H155" s="360"/>
-      <c r="I155" s="360"/>
-      <c r="L155" s="359" t="s">
-        <v>179</v>
-      </c>
-      <c r="M155" s="359"/>
-      <c r="Q155" s="359" t="s">
-        <v>192</v>
-      </c>
-      <c r="R155" s="359"/>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A156" s="360"/>
-      <c r="B156" s="360"/>
-      <c r="C156" s="360"/>
-      <c r="D156" s="360"/>
-      <c r="F156" s="360"/>
-      <c r="G156" s="360"/>
-      <c r="H156" s="360"/>
-      <c r="I156" s="360"/>
-      <c r="L156" s="359" t="s">
-        <v>180</v>
-      </c>
-      <c r="M156" s="359"/>
-      <c r="Q156" s="359" t="s">
-        <v>186</v>
-      </c>
-      <c r="R156" s="359"/>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A157" s="360"/>
-      <c r="B157" s="360"/>
-      <c r="C157" s="360"/>
-      <c r="D157" s="360"/>
-      <c r="F157" s="360"/>
-      <c r="G157" s="360"/>
-      <c r="H157" s="360"/>
-      <c r="I157" s="360"/>
-      <c r="L157" s="359" t="s">
-        <v>189</v>
-      </c>
-      <c r="M157" s="359"/>
-      <c r="Q157" s="359" t="s">
-        <v>199</v>
-      </c>
-      <c r="R157" s="359"/>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A158" s="360"/>
-      <c r="B158" s="360"/>
-      <c r="C158" s="360"/>
-      <c r="D158" s="360"/>
-      <c r="F158" s="360"/>
-      <c r="G158" s="360"/>
-      <c r="H158" s="360"/>
-      <c r="I158" s="360"/>
-      <c r="L158" s="359" t="s">
-        <v>182</v>
-      </c>
-      <c r="M158" s="359"/>
-      <c r="Q158" s="359" t="s">
-        <v>197</v>
-      </c>
-      <c r="R158" s="359"/>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A159" s="360"/>
-      <c r="B159" s="360"/>
-      <c r="C159" s="360"/>
-      <c r="D159" s="360"/>
-      <c r="F159" s="360"/>
-      <c r="G159" s="360"/>
-      <c r="H159" s="360"/>
-      <c r="I159" s="360"/>
-      <c r="L159" s="359" t="s">
-        <v>183</v>
-      </c>
-      <c r="M159" s="359"/>
-      <c r="Q159" s="359" t="s">
-        <v>188</v>
-      </c>
-      <c r="R159" s="359"/>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A160" s="360"/>
-      <c r="B160" s="360"/>
-      <c r="C160" s="360"/>
-      <c r="D160" s="360"/>
-      <c r="F160" s="360"/>
-      <c r="G160" s="360"/>
-      <c r="H160" s="360"/>
-      <c r="I160" s="360"/>
-      <c r="L160" s="359" t="s">
-        <v>184</v>
-      </c>
-      <c r="M160" s="359"/>
-      <c r="Q160" s="359" t="s">
-        <v>196</v>
-      </c>
-      <c r="R160" s="359"/>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A161" s="360"/>
-      <c r="B161" s="360"/>
-      <c r="C161" s="360"/>
-      <c r="D161" s="360"/>
-      <c r="F161" s="360"/>
-      <c r="G161" s="360"/>
-      <c r="H161" s="360"/>
-      <c r="I161" s="360"/>
-      <c r="L161" s="359" t="s">
-        <v>188</v>
-      </c>
-      <c r="M161" s="359"/>
-      <c r="Q161" s="359" t="s">
-        <v>202</v>
-      </c>
-      <c r="R161" s="359"/>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A162" s="360"/>
-      <c r="B162" s="360"/>
-      <c r="C162" s="360"/>
-      <c r="D162" s="360"/>
-      <c r="F162" s="360"/>
-      <c r="G162" s="360"/>
-      <c r="H162" s="360"/>
-      <c r="I162" s="360"/>
-      <c r="L162" s="359" t="s">
-        <v>186</v>
-      </c>
-      <c r="M162" s="359"/>
-      <c r="Q162" s="359" t="s">
-        <v>198</v>
-      </c>
-      <c r="R162" s="359"/>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A163" s="360"/>
-      <c r="B163" s="360"/>
-      <c r="C163" s="360"/>
-      <c r="D163" s="360"/>
-      <c r="F163" s="360"/>
-      <c r="G163" s="360"/>
-      <c r="H163" s="360"/>
-      <c r="I163" s="360"/>
-      <c r="L163" s="359" t="s">
-        <v>190</v>
-      </c>
-      <c r="M163" s="359"/>
-      <c r="Q163" s="359" t="s">
-        <v>197</v>
-      </c>
-      <c r="R163" s="359"/>
-    </row>
-    <row r="164" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="360"/>
-      <c r="B164" s="360"/>
-      <c r="C164" s="360"/>
-      <c r="D164" s="360"/>
-      <c r="F164" s="360"/>
-      <c r="G164" s="360"/>
-      <c r="H164" s="360"/>
-      <c r="I164" s="360"/>
-      <c r="L164" s="359" t="s">
-        <v>181</v>
-      </c>
-      <c r="M164" s="359"/>
-      <c r="Q164" s="258">
-        <v>2022</v>
-      </c>
-      <c r="R164" s="258"/>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q165" s="359" t="s">
-        <v>203</v>
-      </c>
-      <c r="R165" s="359"/>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q166" s="359" t="s">
-        <v>200</v>
-      </c>
-      <c r="R166" s="359"/>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q167" s="359" t="s">
-        <v>195</v>
-      </c>
-      <c r="R167" s="359"/>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q168" s="359" t="s">
-        <v>192</v>
-      </c>
-      <c r="R168" s="359"/>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q169" s="359" t="s">
-        <v>186</v>
-      </c>
-      <c r="R169" s="359"/>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q170" s="359" t="s">
-        <v>197</v>
-      </c>
-      <c r="R170" s="359"/>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q171" s="359" t="s">
-        <v>188</v>
-      </c>
-      <c r="R171" s="359"/>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q172" s="359" t="s">
-        <v>196</v>
-      </c>
-      <c r="R172" s="359"/>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q173" s="359" t="s">
-        <v>202</v>
-      </c>
-      <c r="R173" s="359"/>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q174" s="359" t="s">
-        <v>198</v>
-      </c>
-      <c r="R174" s="359"/>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q175" s="359" t="s">
-        <v>197</v>
-      </c>
-      <c r="R175" s="359"/>
+      <c r="R177" s="361"/>
     </row>
   </sheetData>
   <mergeCells count="277">
-    <mergeCell ref="V137:W137"/>
-    <mergeCell ref="V143:W143"/>
-    <mergeCell ref="V135:W135"/>
-    <mergeCell ref="V133:W133"/>
-    <mergeCell ref="V139:W139"/>
-    <mergeCell ref="V136:W136"/>
-    <mergeCell ref="V138:W138"/>
-    <mergeCell ref="Q172:R172"/>
-    <mergeCell ref="Q173:R173"/>
-    <mergeCell ref="Q174:R174"/>
-    <mergeCell ref="Q175:R175"/>
-    <mergeCell ref="U131:X131"/>
-    <mergeCell ref="V132:W132"/>
-    <mergeCell ref="V141:W141"/>
-    <mergeCell ref="V140:W140"/>
-    <mergeCell ref="V142:W142"/>
-    <mergeCell ref="V146:W146"/>
-    <mergeCell ref="V147:W147"/>
-    <mergeCell ref="V145:W145"/>
-    <mergeCell ref="V144:W144"/>
-    <mergeCell ref="V134:W134"/>
-    <mergeCell ref="Q166:R166"/>
-    <mergeCell ref="Q167:R167"/>
-    <mergeCell ref="Q168:R168"/>
-    <mergeCell ref="Q169:R169"/>
-    <mergeCell ref="Q170:R170"/>
-    <mergeCell ref="Q171:R171"/>
-    <mergeCell ref="Q159:R159"/>
-    <mergeCell ref="Q156:R156"/>
-    <mergeCell ref="Q151:R151"/>
-    <mergeCell ref="Q161:R161"/>
-    <mergeCell ref="Q149:R149"/>
-    <mergeCell ref="Q163:R163"/>
-    <mergeCell ref="Q164:R164"/>
-    <mergeCell ref="Q165:R165"/>
-    <mergeCell ref="Q155:R155"/>
-    <mergeCell ref="Q150:R150"/>
-    <mergeCell ref="Q152:R152"/>
-    <mergeCell ref="Q154:R154"/>
-    <mergeCell ref="Q160:R160"/>
-    <mergeCell ref="Q158:R158"/>
-    <mergeCell ref="Q162:R162"/>
-    <mergeCell ref="Q157:R157"/>
-    <mergeCell ref="Q153:R153"/>
-    <mergeCell ref="L159:M159"/>
     <mergeCell ref="L160:M160"/>
+    <mergeCell ref="L166:M166"/>
+    <mergeCell ref="L158:M158"/>
     <mergeCell ref="L157:M157"/>
-    <mergeCell ref="L162:M162"/>
-    <mergeCell ref="L163:M163"/>
-    <mergeCell ref="L161:M161"/>
-    <mergeCell ref="P131:S131"/>
-    <mergeCell ref="Q132:R132"/>
-    <mergeCell ref="Q133:R133"/>
-    <mergeCell ref="Q134:R134"/>
-    <mergeCell ref="Q135:R135"/>
-    <mergeCell ref="Q136:R136"/>
-    <mergeCell ref="Q137:R137"/>
-    <mergeCell ref="Q138:R138"/>
-    <mergeCell ref="Q139:R139"/>
-    <mergeCell ref="Q140:R140"/>
-    <mergeCell ref="Q141:R141"/>
-    <mergeCell ref="Q142:R142"/>
-    <mergeCell ref="Q143:R143"/>
-    <mergeCell ref="Q144:R144"/>
-    <mergeCell ref="Q145:R145"/>
-    <mergeCell ref="Q146:R146"/>
-    <mergeCell ref="Q147:R147"/>
-    <mergeCell ref="Q148:R148"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="L146:M146"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="L155:M155"/>
-    <mergeCell ref="L156:M156"/>
-    <mergeCell ref="L164:M164"/>
-    <mergeCell ref="L158:M158"/>
-    <mergeCell ref="L141:M141"/>
-    <mergeCell ref="L142:M142"/>
-    <mergeCell ref="L143:M143"/>
-    <mergeCell ref="L144:M144"/>
-    <mergeCell ref="L145:M145"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="L147:M147"/>
-    <mergeCell ref="L148:M148"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="L132:M132"/>
-    <mergeCell ref="L133:M133"/>
-    <mergeCell ref="L134:M134"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="L136:M136"/>
-    <mergeCell ref="L137:M137"/>
-    <mergeCell ref="L138:M138"/>
-    <mergeCell ref="L139:M139"/>
-    <mergeCell ref="L140:M140"/>
-    <mergeCell ref="U110:V111"/>
-    <mergeCell ref="U112:V113"/>
-    <mergeCell ref="U114:V115"/>
-    <mergeCell ref="U116:V117"/>
-    <mergeCell ref="U118:V119"/>
-    <mergeCell ref="U120:V121"/>
-    <mergeCell ref="U122:V123"/>
-    <mergeCell ref="U124:V125"/>
-    <mergeCell ref="K131:N131"/>
-    <mergeCell ref="U87:V88"/>
-    <mergeCell ref="U89:V90"/>
-    <mergeCell ref="U91:V92"/>
-    <mergeCell ref="V99:W99"/>
-    <mergeCell ref="U100:V101"/>
-    <mergeCell ref="U102:V103"/>
-    <mergeCell ref="U104:V105"/>
-    <mergeCell ref="U106:V107"/>
-    <mergeCell ref="U108:V109"/>
-    <mergeCell ref="U69:V70"/>
-    <mergeCell ref="U71:V72"/>
-    <mergeCell ref="U73:V74"/>
-    <mergeCell ref="U75:V76"/>
-    <mergeCell ref="U77:V78"/>
-    <mergeCell ref="U79:V80"/>
-    <mergeCell ref="U81:V82"/>
-    <mergeCell ref="U83:V84"/>
-    <mergeCell ref="U85:V86"/>
-    <mergeCell ref="U46:V47"/>
-    <mergeCell ref="U48:V49"/>
-    <mergeCell ref="U50:V51"/>
-    <mergeCell ref="U52:V53"/>
-    <mergeCell ref="U54:V55"/>
-    <mergeCell ref="U56:V57"/>
-    <mergeCell ref="U58:V59"/>
-    <mergeCell ref="U60:V61"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="U19:V20"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="U23:V24"/>
-    <mergeCell ref="U25:V26"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="U38:V39"/>
-    <mergeCell ref="U40:V41"/>
-    <mergeCell ref="U42:V43"/>
-    <mergeCell ref="U44:V45"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="U3:V4"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="U7:V8"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V18"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="P38:Q39"/>
-    <mergeCell ref="P40:Q41"/>
-    <mergeCell ref="P42:Q43"/>
-    <mergeCell ref="P46:Q47"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="P58:Q59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="P48:Q49"/>
-    <mergeCell ref="P44:Q45"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="P50:Q51"/>
-    <mergeCell ref="P52:Q53"/>
-    <mergeCell ref="P54:Q55"/>
-    <mergeCell ref="P56:Q57"/>
-    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="F102:G103"/>
+    <mergeCell ref="F104:G105"/>
+    <mergeCell ref="F106:G107"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="P122:Q123"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="P116:Q117"/>
+    <mergeCell ref="P118:Q119"/>
+    <mergeCell ref="P120:Q121"/>
+    <mergeCell ref="P108:Q109"/>
+    <mergeCell ref="P110:Q111"/>
+    <mergeCell ref="P112:Q113"/>
+    <mergeCell ref="P114:Q115"/>
+    <mergeCell ref="P102:Q103"/>
+    <mergeCell ref="P104:Q105"/>
+    <mergeCell ref="P106:Q107"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="P124:Q125"/>
+    <mergeCell ref="F114:G115"/>
+    <mergeCell ref="F116:G117"/>
+    <mergeCell ref="F118:G119"/>
+    <mergeCell ref="F108:G109"/>
+    <mergeCell ref="F110:G111"/>
+    <mergeCell ref="F112:G113"/>
+    <mergeCell ref="A102:B103"/>
+    <mergeCell ref="A104:B105"/>
+    <mergeCell ref="A106:B107"/>
+    <mergeCell ref="A108:B109"/>
+    <mergeCell ref="A110:B111"/>
+    <mergeCell ref="A112:B113"/>
+    <mergeCell ref="A114:B115"/>
+    <mergeCell ref="A116:B117"/>
+    <mergeCell ref="A118:B119"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="Q99:R99"/>
+    <mergeCell ref="P100:Q101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="P87:Q88"/>
+    <mergeCell ref="P89:Q90"/>
+    <mergeCell ref="P91:Q92"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="A100:B101"/>
+    <mergeCell ref="F100:G101"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="P77:Q78"/>
+    <mergeCell ref="P79:Q80"/>
+    <mergeCell ref="P81:Q82"/>
+    <mergeCell ref="P83:Q84"/>
+    <mergeCell ref="P85:Q86"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="P69:Q70"/>
+    <mergeCell ref="P71:Q72"/>
+    <mergeCell ref="P73:Q74"/>
+    <mergeCell ref="P75:Q76"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P17:Q18"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="P21:Q22"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K28:L29"/>
     <mergeCell ref="K32:L32"/>
@@ -6569,88 +6522,178 @@
     <mergeCell ref="P23:Q24"/>
     <mergeCell ref="P25:Q26"/>
     <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P17:Q18"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="P21:Q22"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="P77:Q78"/>
-    <mergeCell ref="P79:Q80"/>
-    <mergeCell ref="P81:Q82"/>
-    <mergeCell ref="P83:Q84"/>
-    <mergeCell ref="P85:Q86"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="P69:Q70"/>
-    <mergeCell ref="P71:Q72"/>
-    <mergeCell ref="P73:Q74"/>
-    <mergeCell ref="P75:Q76"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="Q99:R99"/>
-    <mergeCell ref="P100:Q101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="P87:Q88"/>
-    <mergeCell ref="P89:Q90"/>
-    <mergeCell ref="P91:Q92"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="P38:Q39"/>
+    <mergeCell ref="P40:Q41"/>
+    <mergeCell ref="P42:Q43"/>
+    <mergeCell ref="P46:Q47"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="P58:Q59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="P48:Q49"/>
+    <mergeCell ref="P44:Q45"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="P50:Q51"/>
+    <mergeCell ref="P52:Q53"/>
+    <mergeCell ref="P54:Q55"/>
+    <mergeCell ref="P56:Q57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="U7:V8"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V18"/>
+    <mergeCell ref="U19:V20"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="U23:V24"/>
+    <mergeCell ref="U25:V26"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="U38:V39"/>
+    <mergeCell ref="U40:V41"/>
+    <mergeCell ref="U42:V43"/>
+    <mergeCell ref="U44:V45"/>
+    <mergeCell ref="U46:V47"/>
+    <mergeCell ref="U48:V49"/>
+    <mergeCell ref="U50:V51"/>
+    <mergeCell ref="U52:V53"/>
+    <mergeCell ref="U54:V55"/>
+    <mergeCell ref="U56:V57"/>
+    <mergeCell ref="U58:V59"/>
+    <mergeCell ref="U60:V61"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="U69:V70"/>
+    <mergeCell ref="U71:V72"/>
+    <mergeCell ref="U73:V74"/>
+    <mergeCell ref="U75:V76"/>
+    <mergeCell ref="U77:V78"/>
+    <mergeCell ref="U79:V80"/>
+    <mergeCell ref="U81:V82"/>
+    <mergeCell ref="U83:V84"/>
+    <mergeCell ref="U85:V86"/>
+    <mergeCell ref="U87:V88"/>
+    <mergeCell ref="U89:V90"/>
+    <mergeCell ref="U91:V92"/>
+    <mergeCell ref="V99:W99"/>
+    <mergeCell ref="U100:V101"/>
+    <mergeCell ref="U102:V103"/>
+    <mergeCell ref="U104:V105"/>
+    <mergeCell ref="U106:V107"/>
+    <mergeCell ref="U108:V109"/>
+    <mergeCell ref="U110:V111"/>
+    <mergeCell ref="U112:V113"/>
+    <mergeCell ref="U114:V115"/>
+    <mergeCell ref="U116:V117"/>
+    <mergeCell ref="U118:V119"/>
+    <mergeCell ref="U120:V121"/>
+    <mergeCell ref="U122:V123"/>
+    <mergeCell ref="U124:V125"/>
+    <mergeCell ref="K131:N131"/>
     <mergeCell ref="K128:L128"/>
-    <mergeCell ref="A100:B101"/>
-    <mergeCell ref="A102:B103"/>
-    <mergeCell ref="A104:B105"/>
-    <mergeCell ref="A106:B107"/>
-    <mergeCell ref="A108:B109"/>
-    <mergeCell ref="A110:B111"/>
-    <mergeCell ref="A112:B113"/>
-    <mergeCell ref="A114:B115"/>
-    <mergeCell ref="A116:B117"/>
-    <mergeCell ref="A118:B119"/>
-    <mergeCell ref="F100:G101"/>
     <mergeCell ref="K116:L116"/>
     <mergeCell ref="K119:L119"/>
     <mergeCell ref="K110:L110"/>
     <mergeCell ref="K113:L113"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="P124:Q125"/>
-    <mergeCell ref="F114:G115"/>
-    <mergeCell ref="F116:G117"/>
-    <mergeCell ref="F118:G119"/>
-    <mergeCell ref="F108:G109"/>
-    <mergeCell ref="F110:G111"/>
-    <mergeCell ref="F112:G113"/>
-    <mergeCell ref="F102:G103"/>
-    <mergeCell ref="F104:G105"/>
-    <mergeCell ref="F106:G107"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="P122:Q123"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="P116:Q117"/>
-    <mergeCell ref="P118:Q119"/>
-    <mergeCell ref="P120:Q121"/>
-    <mergeCell ref="P108:Q109"/>
-    <mergeCell ref="P110:Q111"/>
-    <mergeCell ref="P112:Q113"/>
-    <mergeCell ref="P114:Q115"/>
-    <mergeCell ref="P102:Q103"/>
-    <mergeCell ref="P104:Q105"/>
-    <mergeCell ref="P106:Q107"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="L156:M156"/>
+    <mergeCell ref="L161:M161"/>
+    <mergeCell ref="L162:M162"/>
+    <mergeCell ref="L159:M159"/>
+    <mergeCell ref="L164:M164"/>
+    <mergeCell ref="L165:M165"/>
+    <mergeCell ref="L163:M163"/>
+    <mergeCell ref="P131:S131"/>
+    <mergeCell ref="Q132:R132"/>
+    <mergeCell ref="Q133:R133"/>
+    <mergeCell ref="Q134:R134"/>
+    <mergeCell ref="Q135:R135"/>
+    <mergeCell ref="Q136:R136"/>
+    <mergeCell ref="Q137:R137"/>
+    <mergeCell ref="Q138:R138"/>
+    <mergeCell ref="Q139:R139"/>
+    <mergeCell ref="Q140:R140"/>
+    <mergeCell ref="Q141:R141"/>
+    <mergeCell ref="Q142:R142"/>
+    <mergeCell ref="Q143:R143"/>
+    <mergeCell ref="Q144:R144"/>
+    <mergeCell ref="Q145:R145"/>
+    <mergeCell ref="Q146:R146"/>
+    <mergeCell ref="Q147:R147"/>
+    <mergeCell ref="Q149:R149"/>
+    <mergeCell ref="Q176:R176"/>
+    <mergeCell ref="Q177:R177"/>
+    <mergeCell ref="U131:X131"/>
+    <mergeCell ref="V132:W132"/>
+    <mergeCell ref="V141:W141"/>
+    <mergeCell ref="V140:W140"/>
+    <mergeCell ref="V142:W142"/>
+    <mergeCell ref="V146:W146"/>
+    <mergeCell ref="V147:W147"/>
+    <mergeCell ref="V145:W145"/>
+    <mergeCell ref="V144:W144"/>
+    <mergeCell ref="V134:W134"/>
+    <mergeCell ref="Q168:R168"/>
+    <mergeCell ref="Q169:R169"/>
+    <mergeCell ref="Q170:R170"/>
+    <mergeCell ref="Q171:R171"/>
+    <mergeCell ref="Q172:R172"/>
+    <mergeCell ref="Q173:R173"/>
+    <mergeCell ref="Q160:R160"/>
+    <mergeCell ref="Q157:R157"/>
+    <mergeCell ref="Q152:R152"/>
+    <mergeCell ref="Q162:R162"/>
+    <mergeCell ref="Q150:R150"/>
+    <mergeCell ref="Q164:R164"/>
+    <mergeCell ref="V137:W137"/>
+    <mergeCell ref="V143:W143"/>
+    <mergeCell ref="V135:W135"/>
+    <mergeCell ref="V133:W133"/>
+    <mergeCell ref="V139:W139"/>
+    <mergeCell ref="V136:W136"/>
+    <mergeCell ref="V138:W138"/>
+    <mergeCell ref="Q174:R174"/>
+    <mergeCell ref="Q175:R175"/>
+    <mergeCell ref="Q166:R166"/>
+    <mergeCell ref="Q167:R167"/>
+    <mergeCell ref="Q156:R156"/>
+    <mergeCell ref="Q151:R151"/>
+    <mergeCell ref="Q153:R153"/>
+    <mergeCell ref="Q155:R155"/>
+    <mergeCell ref="Q161:R161"/>
+    <mergeCell ref="Q159:R159"/>
+    <mergeCell ref="Q163:R163"/>
+    <mergeCell ref="Q158:R158"/>
+    <mergeCell ref="Q154:R154"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
